--- a/Shablon/HDO8108A.xlsx
+++ b/Shablon/HDO8108A.xlsx
@@ -1012,46 +1012,6 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> 250 нс</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 2,5 пс</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 0,25 пс</t>
     </r>
   </si>
   <si>
@@ -3635,6 +3595,46 @@
   </si>
   <si>
     <t>ti3_4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 8,5 пс</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 6,25 пс</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4043,84 +4043,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4128,6 +4060,30 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4139,28 +4095,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4175,6 +4118,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4183,24 +4134,73 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4537,7 +4537,7 @@
   <dimension ref="A1:U243"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A205" zoomScale="115" zoomScaleNormal="90" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H225" sqref="G225:H225"/>
+      <selection activeCell="N212" sqref="N212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4550,22 +4550,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
+      <c r="A1" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
@@ -4592,18 +4592,18 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="A3" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -4640,20 +4640,20 @@
       <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="A5" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
       <c r="I5" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
@@ -4661,14 +4661,14 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="A6" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
@@ -4680,12 +4680,12 @@
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
+      <c r="A7" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="33">
         <v>2018</v>
       </c>
@@ -4699,14 +4699,14 @@
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
+      <c r="A8" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
@@ -4718,14 +4718,14 @@
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
+      <c r="A9" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
@@ -4737,33 +4737,33 @@
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="77"/>
+      <c r="A10" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
+      <c r="A11" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -4831,20 +4831,20 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="48" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48" t="s">
+      <c r="F15" s="58"/>
+      <c r="G15" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="48"/>
+      <c r="H15" s="58"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -4855,20 +4855,20 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="75"/>
+      <c r="G16" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="61"/>
+      <c r="H16" s="72"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -4879,20 +4879,20 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="75"/>
+      <c r="G17" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="61"/>
+      <c r="H17" s="72"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -4903,20 +4903,20 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="75"/>
+      <c r="G18" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="61"/>
+      <c r="H18" s="72"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="20" spans="1:16" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -5060,7 +5060,7 @@
     </row>
     <row r="26" spans="1:16" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="28" spans="1:16" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -5135,942 +5135,942 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" s="16" customFormat="1" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48" t="s">
+      <c r="B30" s="58"/>
+      <c r="C30" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48" t="s">
+      <c r="D30" s="58"/>
+      <c r="E30" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="48" t="s">
+      <c r="F30" s="58"/>
+      <c r="G30" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="73"/>
+      <c r="I30" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48" t="s">
+      <c r="J30" s="58"/>
+      <c r="K30" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="48"/>
+      <c r="L30" s="58"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
     </row>
     <row r="31" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55">
+      <c r="A31" s="63">
         <v>1</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="46">
+      <c r="B31" s="64"/>
+      <c r="C31" s="51">
         <v>50</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46">
+      <c r="D31" s="51"/>
+      <c r="E31" s="51">
         <v>50</v>
       </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53" t="e">
+      <c r="F31" s="51"/>
+      <c r="G31" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="57"/>
+      <c r="I31" s="70" t="e">
         <f>G31-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J31" s="53"/>
-      <c r="K31" s="46" t="s">
+      <c r="J31" s="70"/>
+      <c r="K31" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="46"/>
+      <c r="L31" s="51"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
     </row>
     <row r="32" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="46">
+      <c r="A32" s="67"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="51">
         <v>200</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53" t="e">
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="57"/>
+      <c r="I32" s="70" t="e">
         <f>G32-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J32" s="53"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
     </row>
     <row r="33" spans="1:16" s="16" customFormat="1" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48" t="s">
+      <c r="B33" s="58"/>
+      <c r="C33" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48" t="s">
+      <c r="D33" s="58"/>
+      <c r="E33" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="48"/>
-      <c r="G33" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="H33" s="54"/>
-      <c r="I33" s="48" t="s">
+      <c r="F33" s="58"/>
+      <c r="G33" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="73"/>
+      <c r="I33" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48" t="s">
+      <c r="J33" s="58"/>
+      <c r="K33" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="48"/>
+      <c r="L33" s="58"/>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
     </row>
     <row r="34" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="55">
+      <c r="A34" s="63">
         <v>1</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="46">
+      <c r="B34" s="64"/>
+      <c r="C34" s="51">
         <v>50</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46" t="s">
+      <c r="D34" s="51"/>
+      <c r="E34" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="H34" s="52"/>
-      <c r="I34" s="51" t="e">
+      <c r="F34" s="51"/>
+      <c r="G34" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="57"/>
+      <c r="I34" s="77" t="e">
         <f>(G34-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J34" s="51"/>
-      <c r="K34" s="46" t="s">
+      <c r="J34" s="77"/>
+      <c r="K34" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="46"/>
+      <c r="L34" s="51"/>
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
     </row>
     <row r="35" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="46">
+      <c r="A35" s="67"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="51">
         <v>200</v>
       </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="H35" s="52"/>
-      <c r="I35" s="51" t="e">
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="57"/>
+      <c r="I35" s="77" t="e">
         <f>(G35-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J35" s="51"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
     </row>
     <row r="36" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="46">
+      <c r="A36" s="51">
         <v>2</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46">
+      <c r="B36" s="51"/>
+      <c r="C36" s="51">
         <v>50</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46">
+      <c r="D36" s="51"/>
+      <c r="E36" s="51">
         <v>50</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="H36" s="52"/>
-      <c r="I36" s="51" t="e">
+      <c r="F36" s="51"/>
+      <c r="G36" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="57"/>
+      <c r="I36" s="77" t="e">
         <f>G36-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J36" s="51"/>
-      <c r="K36" s="46" t="s">
+      <c r="J36" s="77"/>
+      <c r="K36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="46"/>
+      <c r="L36" s="51"/>
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
       <c r="O36" s="17"/>
       <c r="P36" s="17"/>
     </row>
     <row r="37" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46">
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51">
         <v>200</v>
       </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="H37" s="52"/>
-      <c r="I37" s="51" t="e">
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="H37" s="57"/>
+      <c r="I37" s="77" t="e">
         <f>G37-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J37" s="51"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
     </row>
     <row r="38" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46">
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51">
         <v>50</v>
       </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46" t="s">
+      <c r="D38" s="51"/>
+      <c r="E38" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="H38" s="52"/>
-      <c r="I38" s="51" t="e">
+      <c r="F38" s="51"/>
+      <c r="G38" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" s="57"/>
+      <c r="I38" s="77" t="e">
         <f>(G38-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J38" s="51"/>
-      <c r="K38" s="46" t="s">
+      <c r="J38" s="77"/>
+      <c r="K38" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="L38" s="46"/>
+      <c r="L38" s="51"/>
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
       <c r="P38" s="17"/>
     </row>
     <row r="39" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46">
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51">
         <v>200</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="H39" s="52"/>
-      <c r="I39" s="51" t="e">
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="H39" s="57"/>
+      <c r="I39" s="77" t="e">
         <f>(G39-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J39" s="51"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
       <c r="O39" s="17"/>
       <c r="P39" s="17"/>
     </row>
     <row r="40" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="46">
+      <c r="A40" s="51">
         <v>3</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46">
+      <c r="B40" s="51"/>
+      <c r="C40" s="51">
         <v>50</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46">
+      <c r="D40" s="51"/>
+      <c r="E40" s="51">
         <v>50</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="H40" s="52"/>
-      <c r="I40" s="51" t="e">
+      <c r="F40" s="51"/>
+      <c r="G40" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H40" s="57"/>
+      <c r="I40" s="77" t="e">
         <f>G40-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J40" s="51"/>
-      <c r="K40" s="46" t="s">
+      <c r="J40" s="77"/>
+      <c r="K40" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L40" s="46"/>
+      <c r="L40" s="51"/>
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
       <c r="O40" s="17"/>
       <c r="P40" s="17"/>
     </row>
     <row r="41" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46">
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51">
         <v>200</v>
       </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="H41" s="52"/>
-      <c r="I41" s="51" t="e">
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" s="57"/>
+      <c r="I41" s="77" t="e">
         <f>G41-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J41" s="51"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
       <c r="O41" s="17"/>
       <c r="P41" s="17"/>
     </row>
     <row r="42" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46">
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51">
         <v>50</v>
       </c>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46" t="s">
+      <c r="D42" s="51"/>
+      <c r="E42" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="H42" s="52"/>
-      <c r="I42" s="51" t="e">
+      <c r="F42" s="51"/>
+      <c r="G42" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="H42" s="57"/>
+      <c r="I42" s="77" t="e">
         <f>(G42-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J42" s="51"/>
-      <c r="K42" s="46" t="s">
+      <c r="J42" s="77"/>
+      <c r="K42" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="L42" s="46"/>
+      <c r="L42" s="51"/>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
       <c r="P42" s="17"/>
     </row>
     <row r="43" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46">
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51">
         <v>200</v>
       </c>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="H43" s="52"/>
-      <c r="I43" s="51" t="e">
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="H43" s="57"/>
+      <c r="I43" s="77" t="e">
         <f>(G43-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J43" s="51"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
       <c r="O43" s="17"/>
       <c r="P43" s="17"/>
     </row>
     <row r="44" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="46">
+      <c r="A44" s="51">
         <v>4</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46">
+      <c r="B44" s="51"/>
+      <c r="C44" s="51">
         <v>50</v>
       </c>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46">
+      <c r="D44" s="51"/>
+      <c r="E44" s="51">
         <v>50</v>
       </c>
-      <c r="F44" s="46"/>
-      <c r="G44" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="H44" s="52"/>
-      <c r="I44" s="51" t="e">
+      <c r="F44" s="51"/>
+      <c r="G44" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="H44" s="57"/>
+      <c r="I44" s="77" t="e">
         <f>G44-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J44" s="51"/>
-      <c r="K44" s="46" t="s">
+      <c r="J44" s="77"/>
+      <c r="K44" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="46"/>
+      <c r="L44" s="51"/>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
     </row>
     <row r="45" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46">
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51">
         <v>200</v>
       </c>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="H45" s="52"/>
-      <c r="I45" s="51" t="e">
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="H45" s="57"/>
+      <c r="I45" s="77" t="e">
         <f>G45-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J45" s="51"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
     </row>
     <row r="46" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="46"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46">
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51">
         <v>50</v>
       </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46" t="s">
+      <c r="D46" s="51"/>
+      <c r="E46" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="46"/>
-      <c r="G46" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="H46" s="52"/>
-      <c r="I46" s="51" t="e">
+      <c r="F46" s="51"/>
+      <c r="G46" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="H46" s="57"/>
+      <c r="I46" s="77" t="e">
         <f>(G46-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J46" s="51"/>
-      <c r="K46" s="46" t="s">
+      <c r="J46" s="77"/>
+      <c r="K46" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="L46" s="46"/>
+      <c r="L46" s="51"/>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
     </row>
     <row r="47" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46">
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51">
         <v>200</v>
       </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="H47" s="52"/>
-      <c r="I47" s="51" t="e">
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="H47" s="57"/>
+      <c r="I47" s="77" t="e">
         <f>(G47-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J47" s="51"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
       <c r="O47" s="17"/>
       <c r="P47" s="17"/>
     </row>
     <row r="48" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="46">
+      <c r="A48" s="51">
         <v>5</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46">
+      <c r="B48" s="51"/>
+      <c r="C48" s="51">
         <v>50</v>
       </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46">
+      <c r="D48" s="51"/>
+      <c r="E48" s="51">
         <v>50</v>
       </c>
-      <c r="F48" s="46"/>
-      <c r="G48" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="H48" s="52"/>
-      <c r="I48" s="51" t="e">
+      <c r="F48" s="51"/>
+      <c r="G48" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48" s="57"/>
+      <c r="I48" s="77" t="e">
         <f>G48-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J48" s="51"/>
-      <c r="K48" s="46" t="s">
+      <c r="J48" s="77"/>
+      <c r="K48" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="46"/>
+      <c r="L48" s="51"/>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
       <c r="O48" s="17"/>
       <c r="P48" s="17"/>
     </row>
     <row r="49" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46">
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51">
         <v>200</v>
       </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="H49" s="52"/>
-      <c r="I49" s="51" t="e">
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="H49" s="57"/>
+      <c r="I49" s="77" t="e">
         <f>G49-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J49" s="51"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
       <c r="O49" s="17"/>
       <c r="P49" s="17"/>
     </row>
     <row r="50" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46">
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51">
         <v>50</v>
       </c>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46" t="s">
+      <c r="D50" s="51"/>
+      <c r="E50" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="46"/>
-      <c r="G50" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="H50" s="52"/>
-      <c r="I50" s="51" t="e">
+      <c r="F50" s="51"/>
+      <c r="G50" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50" s="57"/>
+      <c r="I50" s="77" t="e">
         <f>(G50-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J50" s="51"/>
-      <c r="K50" s="46" t="s">
+      <c r="J50" s="77"/>
+      <c r="K50" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="L50" s="46"/>
+      <c r="L50" s="51"/>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
       <c r="O50" s="17"/>
       <c r="P50" s="17"/>
     </row>
     <row r="51" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46">
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51">
         <v>200</v>
       </c>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="H51" s="52"/>
-      <c r="I51" s="51" t="e">
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="H51" s="57"/>
+      <c r="I51" s="77" t="e">
         <f>(G51-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J51" s="51"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
       <c r="O51" s="17"/>
       <c r="P51" s="17"/>
     </row>
     <row r="52" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="46">
+      <c r="A52" s="51">
         <v>6</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46">
+      <c r="B52" s="51"/>
+      <c r="C52" s="51">
         <v>50</v>
       </c>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46">
+      <c r="D52" s="51"/>
+      <c r="E52" s="51">
         <v>50</v>
       </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="H52" s="52"/>
-      <c r="I52" s="51" t="e">
+      <c r="F52" s="51"/>
+      <c r="G52" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="H52" s="57"/>
+      <c r="I52" s="77" t="e">
         <f>G52-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J52" s="51"/>
-      <c r="K52" s="46" t="s">
+      <c r="J52" s="77"/>
+      <c r="K52" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L52" s="46"/>
+      <c r="L52" s="51"/>
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
       <c r="O52" s="17"/>
       <c r="P52" s="17"/>
     </row>
     <row r="53" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46">
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51">
         <v>200</v>
       </c>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="H53" s="52"/>
-      <c r="I53" s="51" t="e">
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="H53" s="57"/>
+      <c r="I53" s="77" t="e">
         <f>G53-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J53" s="51"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
       <c r="O53" s="17"/>
       <c r="P53" s="17"/>
     </row>
     <row r="54" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="46"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46">
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51">
         <v>50</v>
       </c>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46" t="s">
+      <c r="D54" s="51"/>
+      <c r="E54" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="H54" s="52"/>
-      <c r="I54" s="51" t="e">
+      <c r="F54" s="51"/>
+      <c r="G54" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="H54" s="57"/>
+      <c r="I54" s="77" t="e">
         <f>(G54-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J54" s="51"/>
-      <c r="K54" s="46" t="s">
+      <c r="J54" s="77"/>
+      <c r="K54" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="L54" s="46"/>
+      <c r="L54" s="51"/>
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
       <c r="O54" s="17"/>
       <c r="P54" s="17"/>
     </row>
     <row r="55" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="46"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46">
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51">
         <v>200</v>
       </c>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="H55" s="52"/>
-      <c r="I55" s="51" t="e">
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="H55" s="57"/>
+      <c r="I55" s="77" t="e">
         <f>(G55-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J55" s="51"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
+      <c r="J55" s="77"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
       <c r="O55" s="17"/>
       <c r="P55" s="17"/>
     </row>
     <row r="56" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="46">
+      <c r="A56" s="51">
         <v>7</v>
       </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46">
+      <c r="B56" s="51"/>
+      <c r="C56" s="51">
         <v>50</v>
       </c>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46">
+      <c r="D56" s="51"/>
+      <c r="E56" s="51">
         <v>50</v>
       </c>
-      <c r="F56" s="46"/>
-      <c r="G56" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="H56" s="52"/>
-      <c r="I56" s="51" t="e">
+      <c r="F56" s="51"/>
+      <c r="G56" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="H56" s="57"/>
+      <c r="I56" s="77" t="e">
         <f>G56-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J56" s="51"/>
-      <c r="K56" s="46" t="s">
+      <c r="J56" s="77"/>
+      <c r="K56" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L56" s="46"/>
+      <c r="L56" s="51"/>
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
       <c r="O56" s="17"/>
       <c r="P56" s="17"/>
     </row>
     <row r="57" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="46"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="46">
+      <c r="A57" s="51"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51">
         <v>200</v>
       </c>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="H57" s="52"/>
-      <c r="I57" s="51" t="e">
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="H57" s="57"/>
+      <c r="I57" s="77" t="e">
         <f>G57-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J57" s="51"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
+      <c r="J57" s="77"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="51"/>
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
       <c r="O57" s="17"/>
       <c r="P57" s="17"/>
     </row>
     <row r="58" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="46"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="46">
+      <c r="A58" s="51"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51">
         <v>50</v>
       </c>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46" t="s">
+      <c r="D58" s="51"/>
+      <c r="E58" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="46"/>
-      <c r="G58" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="H58" s="52"/>
-      <c r="I58" s="51" t="e">
+      <c r="F58" s="51"/>
+      <c r="G58" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="H58" s="57"/>
+      <c r="I58" s="77" t="e">
         <f>(G58-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J58" s="51"/>
-      <c r="K58" s="46" t="s">
+      <c r="J58" s="77"/>
+      <c r="K58" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="L58" s="46"/>
+      <c r="L58" s="51"/>
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
       <c r="O58" s="17"/>
       <c r="P58" s="17"/>
     </row>
     <row r="59" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="46"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="46">
+      <c r="A59" s="51"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51">
         <v>200</v>
       </c>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="H59" s="52"/>
-      <c r="I59" s="51" t="e">
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="H59" s="57"/>
+      <c r="I59" s="77" t="e">
         <f>(G59-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J59" s="51"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
       <c r="O59" s="17"/>
       <c r="P59" s="17"/>
     </row>
     <row r="60" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="46">
+      <c r="A60" s="51">
         <v>8</v>
       </c>
-      <c r="B60" s="46"/>
-      <c r="C60" s="46">
+      <c r="B60" s="51"/>
+      <c r="C60" s="51">
         <v>50</v>
       </c>
-      <c r="D60" s="46"/>
-      <c r="E60" s="46">
+      <c r="D60" s="51"/>
+      <c r="E60" s="51">
         <v>50</v>
       </c>
-      <c r="F60" s="46"/>
-      <c r="G60" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="H60" s="52"/>
-      <c r="I60" s="51" t="e">
+      <c r="F60" s="51"/>
+      <c r="G60" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="H60" s="57"/>
+      <c r="I60" s="77" t="e">
         <f>G60-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J60" s="51"/>
-      <c r="K60" s="46" t="s">
+      <c r="J60" s="77"/>
+      <c r="K60" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L60" s="46"/>
+      <c r="L60" s="51"/>
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
       <c r="O60" s="17"/>
       <c r="P60" s="17"/>
     </row>
     <row r="61" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="46"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46">
+      <c r="A61" s="51"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51">
         <v>200</v>
       </c>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="H61" s="52"/>
-      <c r="I61" s="51" t="e">
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="H61" s="57"/>
+      <c r="I61" s="77" t="e">
         <f>G61-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J61" s="51"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
     </row>
     <row r="62" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="46"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="46">
+      <c r="A62" s="51"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51">
         <v>50</v>
       </c>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46" t="s">
+      <c r="D62" s="51"/>
+      <c r="E62" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="H62" s="52"/>
-      <c r="I62" s="51" t="e">
+      <c r="F62" s="51"/>
+      <c r="G62" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="H62" s="57"/>
+      <c r="I62" s="77" t="e">
         <f>(G62-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J62" s="51"/>
-      <c r="K62" s="46" t="s">
+      <c r="J62" s="77"/>
+      <c r="K62" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="L62" s="46"/>
+      <c r="L62" s="51"/>
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
     </row>
     <row r="63" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="46">
+      <c r="A63" s="51"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51">
         <v>200</v>
       </c>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="H63" s="52"/>
-      <c r="I63" s="51" t="e">
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="H63" s="57"/>
+      <c r="I63" s="77" t="e">
         <f>(G63-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J63" s="51"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
+      <c r="J63" s="77"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="51"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
       <c r="O63" s="17"/>
@@ -6133,54 +6133,54 @@
       <c r="P66" s="12"/>
     </row>
     <row r="67" spans="1:16" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48" t="s">
+      <c r="B67" s="58"/>
+      <c r="C67" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="48" t="s">
+      <c r="D67" s="58"/>
+      <c r="E67" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="58"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="58"/>
+      <c r="M67" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="N67" s="48"/>
+      <c r="N67" s="58"/>
       <c r="O67" s="19"/>
       <c r="P67" s="19"/>
     </row>
     <row r="68" spans="1:16" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="48"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48" t="s">
+      <c r="A68" s="58"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48" t="s">
+      <c r="F68" s="58"/>
+      <c r="G68" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48" t="s">
+      <c r="H68" s="58"/>
+      <c r="I68" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48" t="s">
+      <c r="J68" s="58"/>
+      <c r="K68" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
+      <c r="L68" s="58"/>
+      <c r="M68" s="58"/>
+      <c r="N68" s="58"/>
       <c r="O68" s="19"/>
       <c r="P68" s="19"/>
     </row>
@@ -6191,8 +6191,8 @@
       <c r="B69" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
       <c r="E69" s="23" t="s">
         <v>30</v>
       </c>
@@ -6217,996 +6217,996 @@
       <c r="L69" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M69" s="48"/>
-      <c r="N69" s="48"/>
+      <c r="M69" s="58"/>
+      <c r="N69" s="58"/>
       <c r="O69" s="19"/>
       <c r="P69" s="19"/>
     </row>
     <row r="70" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="46" t="s">
+      <c r="A70" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="47" t="s">
+      <c r="C70" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="46"/>
-      <c r="E70" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="F70" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="G70" s="80" t="s">
+      <c r="D70" s="51"/>
+      <c r="E70" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F70" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="G70" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="H70" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="I70" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="H70" s="80" t="s">
+      <c r="J70" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="I70" s="80" t="s">
+      <c r="K70" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="J70" s="80" t="s">
+      <c r="L70" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="K70" s="80" t="s">
-        <v>273</v>
-      </c>
-      <c r="L70" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="M70" s="46" t="s">
+      <c r="M70" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="N70" s="46"/>
+      <c r="N70" s="51"/>
       <c r="O70" s="17"/>
       <c r="P70" s="17"/>
     </row>
     <row r="71" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="46"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="46">
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="D71" s="46"/>
-      <c r="E71" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="F71" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="G71" s="80" t="s">
-        <v>275</v>
-      </c>
-      <c r="H71" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="I71" s="80" t="s">
-        <v>315</v>
-      </c>
-      <c r="J71" s="80" t="s">
-        <v>332</v>
-      </c>
-      <c r="K71" s="80" t="s">
-        <v>355</v>
-      </c>
-      <c r="L71" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="M71" s="46"/>
-      <c r="N71" s="46"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="F71" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="G71" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="H71" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="I71" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="J71" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="K71" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="L71" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="M71" s="51"/>
+      <c r="N71" s="51"/>
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
     </row>
     <row r="72" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="46" t="s">
+      <c r="A72" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="47" t="s">
+      <c r="C72" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="46"/>
-      <c r="E72" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="F72" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="G72" s="80" t="s">
-        <v>276</v>
-      </c>
-      <c r="H72" s="80" t="s">
-        <v>293</v>
-      </c>
-      <c r="I72" s="80" t="s">
-        <v>316</v>
-      </c>
-      <c r="J72" s="80" t="s">
-        <v>333</v>
-      </c>
-      <c r="K72" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="L72" s="80" t="s">
-        <v>373</v>
-      </c>
-      <c r="M72" s="46" t="s">
+      <c r="D72" s="51"/>
+      <c r="E72" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="F72" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="G72" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="H72" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="I72" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="J72" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="K72" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="L72" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="M72" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="N72" s="46"/>
+      <c r="N72" s="51"/>
       <c r="O72" s="17"/>
       <c r="P72" s="17"/>
     </row>
     <row r="73" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="46"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="46">
+      <c r="A73" s="51"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="D73" s="46"/>
-      <c r="E73" s="80" t="s">
-        <v>178</v>
-      </c>
-      <c r="F73" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="G73" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="H73" s="80" t="s">
-        <v>294</v>
-      </c>
-      <c r="I73" s="80" t="s">
-        <v>317</v>
-      </c>
-      <c r="J73" s="80" t="s">
-        <v>334</v>
-      </c>
-      <c r="K73" s="80" t="s">
-        <v>357</v>
-      </c>
-      <c r="L73" s="80" t="s">
-        <v>374</v>
-      </c>
-      <c r="M73" s="46"/>
-      <c r="N73" s="46"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F73" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="G73" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="H73" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="I73" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="J73" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="K73" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="L73" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
     </row>
     <row r="74" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="46" t="s">
+      <c r="A74" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C74" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D74" s="46"/>
-      <c r="E74" s="80" t="s">
-        <v>179</v>
-      </c>
-      <c r="F74" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="G74" s="80" t="s">
-        <v>278</v>
-      </c>
-      <c r="H74" s="80" t="s">
-        <v>295</v>
-      </c>
-      <c r="I74" s="80" t="s">
-        <v>318</v>
-      </c>
-      <c r="J74" s="80" t="s">
-        <v>335</v>
-      </c>
-      <c r="K74" s="80" t="s">
-        <v>358</v>
-      </c>
-      <c r="L74" s="80" t="s">
-        <v>375</v>
-      </c>
-      <c r="M74" s="46" t="s">
+      <c r="D74" s="51"/>
+      <c r="E74" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="G74" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="H74" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="I74" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="J74" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="K74" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="L74" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="M74" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="N74" s="46"/>
+      <c r="N74" s="51"/>
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
     </row>
     <row r="75" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="46"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="50">
+      <c r="A75" s="51"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="79">
         <v>-0.03</v>
       </c>
-      <c r="D75" s="50"/>
-      <c r="E75" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="F75" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="G75" s="80" t="s">
-        <v>279</v>
-      </c>
-      <c r="H75" s="80" t="s">
-        <v>296</v>
-      </c>
-      <c r="I75" s="80" t="s">
-        <v>319</v>
-      </c>
-      <c r="J75" s="80" t="s">
-        <v>336</v>
-      </c>
-      <c r="K75" s="80" t="s">
-        <v>359</v>
-      </c>
-      <c r="L75" s="80" t="s">
-        <v>376</v>
-      </c>
-      <c r="M75" s="46"/>
-      <c r="N75" s="46"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F75" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="G75" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="H75" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="I75" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="J75" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="K75" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="L75" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="M75" s="51"/>
+      <c r="N75" s="51"/>
       <c r="O75" s="17"/>
       <c r="P75" s="17"/>
     </row>
     <row r="76" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="46" t="s">
+      <c r="A76" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="47" t="s">
+      <c r="C76" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D76" s="46"/>
-      <c r="E76" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="F76" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="G76" s="80" t="s">
-        <v>280</v>
-      </c>
-      <c r="H76" s="80" t="s">
-        <v>297</v>
-      </c>
-      <c r="I76" s="80" t="s">
-        <v>320</v>
-      </c>
-      <c r="J76" s="80" t="s">
-        <v>337</v>
-      </c>
-      <c r="K76" s="80" t="s">
-        <v>360</v>
-      </c>
-      <c r="L76" s="80" t="s">
-        <v>377</v>
-      </c>
-      <c r="M76" s="46" t="s">
+      <c r="D76" s="51"/>
+      <c r="E76" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="F76" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="G76" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="H76" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="I76" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="J76" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="K76" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="L76" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="M76" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="N76" s="46"/>
+      <c r="N76" s="51"/>
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
     </row>
     <row r="77" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="46"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="46">
+      <c r="A77" s="51"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="51">
         <v>-0.06</v>
       </c>
-      <c r="D77" s="46"/>
-      <c r="E77" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="F77" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="G77" s="80" t="s">
-        <v>281</v>
-      </c>
-      <c r="H77" s="80" t="s">
-        <v>298</v>
-      </c>
-      <c r="I77" s="80" t="s">
-        <v>321</v>
-      </c>
-      <c r="J77" s="80" t="s">
-        <v>338</v>
-      </c>
-      <c r="K77" s="80" t="s">
-        <v>361</v>
-      </c>
-      <c r="L77" s="80" t="s">
-        <v>378</v>
-      </c>
-      <c r="M77" s="46"/>
-      <c r="N77" s="46"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="F77" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="G77" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="H77" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="I77" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="J77" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="K77" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="L77" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="M77" s="51"/>
+      <c r="N77" s="51"/>
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
     </row>
     <row r="78" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="46" t="s">
+      <c r="B78" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="47" t="s">
+      <c r="C78" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="D78" s="46"/>
-      <c r="E78" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="F78" s="80" t="s">
-        <v>200</v>
-      </c>
-      <c r="G78" s="80" t="s">
-        <v>282</v>
-      </c>
-      <c r="H78" s="80" t="s">
-        <v>299</v>
-      </c>
-      <c r="I78" s="80" t="s">
-        <v>322</v>
-      </c>
-      <c r="J78" s="80" t="s">
-        <v>339</v>
-      </c>
-      <c r="K78" s="80" t="s">
-        <v>362</v>
-      </c>
-      <c r="L78" s="80" t="s">
-        <v>379</v>
-      </c>
-      <c r="M78" s="46" t="s">
+      <c r="D78" s="51"/>
+      <c r="E78" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="F78" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="G78" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="H78" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="I78" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="J78" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="K78" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="L78" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="M78" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="N78" s="46"/>
+      <c r="N78" s="51"/>
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
     </row>
     <row r="79" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="46"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="46">
+      <c r="A79" s="51"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51">
         <v>-0.15</v>
       </c>
-      <c r="D79" s="46"/>
-      <c r="E79" s="80" t="s">
-        <v>184</v>
-      </c>
-      <c r="F79" s="80" t="s">
-        <v>201</v>
-      </c>
-      <c r="G79" s="80" t="s">
-        <v>283</v>
-      </c>
-      <c r="H79" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="I79" s="80" t="s">
-        <v>323</v>
-      </c>
-      <c r="J79" s="80" t="s">
-        <v>340</v>
-      </c>
-      <c r="K79" s="80" t="s">
-        <v>363</v>
-      </c>
-      <c r="L79" s="80" t="s">
-        <v>380</v>
-      </c>
-      <c r="M79" s="46"/>
-      <c r="N79" s="46"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F79" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="G79" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="H79" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="I79" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="J79" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="K79" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="L79" s="44" t="s">
+        <v>378</v>
+      </c>
+      <c r="M79" s="51"/>
+      <c r="N79" s="51"/>
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
     </row>
     <row r="80" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C80" s="47" t="s">
+      <c r="C80" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D80" s="46"/>
-      <c r="E80" s="80" t="s">
-        <v>185</v>
-      </c>
-      <c r="F80" s="80" t="s">
-        <v>202</v>
-      </c>
-      <c r="G80" s="80" t="s">
-        <v>284</v>
-      </c>
-      <c r="H80" s="80" t="s">
-        <v>301</v>
-      </c>
-      <c r="I80" s="80" t="s">
-        <v>324</v>
-      </c>
-      <c r="J80" s="80" t="s">
-        <v>341</v>
-      </c>
-      <c r="K80" s="80" t="s">
-        <v>364</v>
-      </c>
-      <c r="L80" s="80" t="s">
-        <v>381</v>
-      </c>
-      <c r="M80" s="46" t="s">
+      <c r="D80" s="51"/>
+      <c r="E80" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="F80" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="G80" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="H80" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="I80" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="J80" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="K80" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="L80" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="M80" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="N80" s="46"/>
+      <c r="N80" s="51"/>
       <c r="O80" s="17"/>
       <c r="P80" s="17"/>
     </row>
     <row r="81" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="46"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="50">
+      <c r="A81" s="51"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="79">
         <v>-0.3</v>
       </c>
-      <c r="D81" s="50"/>
-      <c r="E81" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="F81" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="G81" s="80" t="s">
-        <v>285</v>
-      </c>
-      <c r="H81" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="I81" s="80" t="s">
-        <v>325</v>
-      </c>
-      <c r="J81" s="80" t="s">
-        <v>342</v>
-      </c>
-      <c r="K81" s="80" t="s">
-        <v>365</v>
-      </c>
-      <c r="L81" s="80" t="s">
-        <v>382</v>
-      </c>
-      <c r="M81" s="46"/>
-      <c r="N81" s="46"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="F81" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="G81" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="H81" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="I81" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="J81" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="K81" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="L81" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="M81" s="51"/>
+      <c r="N81" s="51"/>
       <c r="O81" s="17"/>
       <c r="P81" s="17"/>
     </row>
     <row r="82" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B82" s="46" t="s">
+      <c r="B82" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C82" s="47" t="s">
+      <c r="C82" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D82" s="46"/>
-      <c r="E82" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="F82" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="G82" s="80" t="s">
-        <v>286</v>
-      </c>
-      <c r="H82" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="I82" s="80" t="s">
-        <v>326</v>
-      </c>
-      <c r="J82" s="80" t="s">
-        <v>343</v>
-      </c>
-      <c r="K82" s="80" t="s">
-        <v>366</v>
-      </c>
-      <c r="L82" s="80" t="s">
-        <v>383</v>
-      </c>
-      <c r="M82" s="46" t="s">
+      <c r="D82" s="51"/>
+      <c r="E82" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="F82" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="G82" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="H82" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="I82" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="J82" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="K82" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="L82" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="M82" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="N82" s="46"/>
+      <c r="N82" s="51"/>
       <c r="O82" s="17"/>
       <c r="P82" s="17"/>
     </row>
     <row r="83" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="46"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="50">
+      <c r="A83" s="51"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="79">
         <v>-0.6</v>
       </c>
-      <c r="D83" s="50"/>
-      <c r="E83" s="80" t="s">
-        <v>188</v>
-      </c>
-      <c r="F83" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="G83" s="80" t="s">
-        <v>287</v>
-      </c>
-      <c r="H83" s="80" t="s">
-        <v>304</v>
-      </c>
-      <c r="I83" s="80" t="s">
-        <v>327</v>
-      </c>
-      <c r="J83" s="80" t="s">
-        <v>344</v>
-      </c>
-      <c r="K83" s="80" t="s">
-        <v>367</v>
-      </c>
-      <c r="L83" s="80" t="s">
-        <v>384</v>
-      </c>
-      <c r="M83" s="46"/>
-      <c r="N83" s="46"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="F83" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="G83" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="H83" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="I83" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="J83" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="K83" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="L83" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="M83" s="51"/>
+      <c r="N83" s="51"/>
       <c r="O83" s="17"/>
       <c r="P83" s="17"/>
     </row>
     <row r="84" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="46" t="s">
+      <c r="A84" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="46" t="s">
+      <c r="B84" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="47" t="s">
+      <c r="C84" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D84" s="46"/>
-      <c r="E84" s="80" t="s">
-        <v>189</v>
-      </c>
-      <c r="F84" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="G84" s="80" t="s">
-        <v>288</v>
-      </c>
-      <c r="H84" s="80" t="s">
-        <v>305</v>
-      </c>
-      <c r="I84" s="80" t="s">
-        <v>328</v>
-      </c>
-      <c r="J84" s="80" t="s">
-        <v>345</v>
-      </c>
-      <c r="K84" s="80" t="s">
-        <v>368</v>
-      </c>
-      <c r="L84" s="80" t="s">
-        <v>385</v>
-      </c>
-      <c r="M84" s="46" t="s">
+      <c r="D84" s="51"/>
+      <c r="E84" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="F84" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="G84" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="H84" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="I84" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="J84" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="K84" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="L84" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="M84" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="N84" s="46"/>
+      <c r="N84" s="51"/>
       <c r="O84" s="17"/>
       <c r="P84" s="17"/>
     </row>
     <row r="85" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="46"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="46">
+      <c r="A85" s="51"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51">
         <v>-1.5</v>
       </c>
-      <c r="D85" s="46"/>
-      <c r="E85" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="F85" s="80" t="s">
-        <v>207</v>
-      </c>
-      <c r="G85" s="80" t="s">
-        <v>289</v>
-      </c>
-      <c r="H85" s="80" t="s">
-        <v>306</v>
-      </c>
-      <c r="I85" s="80" t="s">
-        <v>329</v>
-      </c>
-      <c r="J85" s="80" t="s">
-        <v>346</v>
-      </c>
-      <c r="K85" s="80" t="s">
-        <v>369</v>
-      </c>
-      <c r="L85" s="80" t="s">
-        <v>386</v>
-      </c>
-      <c r="M85" s="46"/>
-      <c r="N85" s="46"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F85" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="G85" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="H85" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="I85" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="J85" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="K85" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="L85" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="M85" s="51"/>
+      <c r="N85" s="51"/>
       <c r="O85" s="17"/>
       <c r="P85" s="17"/>
     </row>
     <row r="86" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="46" t="s">
+      <c r="A86" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="46" t="s">
+      <c r="B86" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="47" t="s">
+      <c r="C86" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="D86" s="46"/>
-      <c r="E86" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="F86" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="G86" s="80" t="s">
-        <v>290</v>
-      </c>
-      <c r="H86" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="I86" s="80" t="s">
-        <v>330</v>
-      </c>
-      <c r="J86" s="80" t="s">
-        <v>347</v>
-      </c>
-      <c r="K86" s="80" t="s">
-        <v>370</v>
-      </c>
-      <c r="L86" s="80" t="s">
-        <v>387</v>
-      </c>
-      <c r="M86" s="46" t="s">
+      <c r="D86" s="51"/>
+      <c r="E86" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F86" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="G86" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="H86" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="I86" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="J86" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="K86" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="L86" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="M86" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="N86" s="46"/>
+      <c r="N86" s="51"/>
       <c r="O86" s="17"/>
       <c r="P86" s="17"/>
     </row>
     <row r="87" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="46"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="49">
+      <c r="A87" s="51"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="80">
         <v>-3</v>
       </c>
-      <c r="D87" s="49"/>
-      <c r="E87" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="F87" s="80" t="s">
-        <v>209</v>
-      </c>
-      <c r="G87" s="80" t="s">
-        <v>291</v>
-      </c>
-      <c r="H87" s="80" t="s">
-        <v>308</v>
-      </c>
-      <c r="I87" s="80" t="s">
-        <v>331</v>
-      </c>
-      <c r="J87" s="80" t="s">
-        <v>348</v>
-      </c>
-      <c r="K87" s="80" t="s">
-        <v>371</v>
-      </c>
-      <c r="L87" s="80" t="s">
-        <v>388</v>
-      </c>
-      <c r="M87" s="46"/>
-      <c r="N87" s="46"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="F87" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="G87" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="H87" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="I87" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="J87" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="K87" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="L87" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="M87" s="51"/>
+      <c r="N87" s="51"/>
       <c r="O87" s="17"/>
       <c r="P87" s="17"/>
     </row>
     <row r="88" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B88" s="46" t="s">
+      <c r="A88" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C88" s="47" t="s">
+      <c r="C88" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="D88" s="46"/>
+      <c r="D88" s="51"/>
       <c r="E88" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F88" s="80" t="s">
-        <v>210</v>
+      <c r="F88" s="44" t="s">
+        <v>208</v>
       </c>
       <c r="G88" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H88" s="80" t="s">
-        <v>309</v>
+      <c r="H88" s="44" t="s">
+        <v>307</v>
       </c>
       <c r="I88" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="J88" s="80" t="s">
-        <v>349</v>
+      <c r="J88" s="44" t="s">
+        <v>347</v>
       </c>
       <c r="K88" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="L88" s="80" t="s">
-        <v>389</v>
-      </c>
-      <c r="M88" s="46" t="s">
+      <c r="L88" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="M88" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="N88" s="46"/>
+      <c r="N88" s="51"/>
       <c r="O88" s="17"/>
       <c r="P88" s="17"/>
     </row>
     <row r="89" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="46"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="49">
+      <c r="A89" s="51"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="80">
         <v>-6</v>
       </c>
-      <c r="D89" s="49"/>
+      <c r="D89" s="80"/>
       <c r="E89" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F89" s="80" t="s">
-        <v>211</v>
+      <c r="F89" s="44" t="s">
+        <v>209</v>
       </c>
       <c r="G89" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H89" s="80" t="s">
-        <v>310</v>
+      <c r="H89" s="44" t="s">
+        <v>308</v>
       </c>
       <c r="I89" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="J89" s="80" t="s">
-        <v>350</v>
+      <c r="J89" s="44" t="s">
+        <v>348</v>
       </c>
       <c r="K89" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="L89" s="80" t="s">
-        <v>390</v>
-      </c>
-      <c r="M89" s="46"/>
-      <c r="N89" s="46"/>
+      <c r="L89" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="M89" s="51"/>
+      <c r="N89" s="51"/>
       <c r="O89" s="17"/>
       <c r="P89" s="17"/>
     </row>
     <row r="90" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B90" s="46" t="s">
+      <c r="A90" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C90" s="47" t="s">
+      <c r="C90" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="D90" s="46"/>
+      <c r="D90" s="51"/>
       <c r="E90" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F90" s="80" t="s">
-        <v>212</v>
+      <c r="F90" s="44" t="s">
+        <v>210</v>
       </c>
       <c r="G90" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H90" s="80" t="s">
-        <v>311</v>
+      <c r="H90" s="44" t="s">
+        <v>309</v>
       </c>
       <c r="I90" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="J90" s="80" t="s">
-        <v>351</v>
+      <c r="J90" s="44" t="s">
+        <v>349</v>
       </c>
       <c r="K90" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="L90" s="80" t="s">
-        <v>391</v>
-      </c>
-      <c r="M90" s="46" t="s">
+      <c r="L90" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="M90" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="N90" s="46"/>
+      <c r="N90" s="51"/>
       <c r="O90" s="17"/>
       <c r="P90" s="17"/>
     </row>
     <row r="91" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="46"/>
-      <c r="B91" s="46"/>
-      <c r="C91" s="49">
+      <c r="A91" s="51"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="80">
         <v>-15</v>
       </c>
-      <c r="D91" s="49"/>
+      <c r="D91" s="80"/>
       <c r="E91" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F91" s="80" t="s">
-        <v>213</v>
+      <c r="F91" s="44" t="s">
+        <v>211</v>
       </c>
       <c r="G91" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H91" s="80" t="s">
-        <v>312</v>
+      <c r="H91" s="44" t="s">
+        <v>310</v>
       </c>
       <c r="I91" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="J91" s="80" t="s">
-        <v>352</v>
+      <c r="J91" s="44" t="s">
+        <v>350</v>
       </c>
       <c r="K91" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="L91" s="80" t="s">
-        <v>392</v>
-      </c>
-      <c r="M91" s="46"/>
-      <c r="N91" s="46"/>
+      <c r="L91" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="M91" s="51"/>
+      <c r="N91" s="51"/>
       <c r="O91" s="17"/>
       <c r="P91" s="17"/>
     </row>
     <row r="92" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B92" s="46" t="s">
+      <c r="A92" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C92" s="47" t="s">
+      <c r="C92" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D92" s="46"/>
+      <c r="D92" s="51"/>
       <c r="E92" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F92" s="80" t="s">
-        <v>214</v>
+      <c r="F92" s="44" t="s">
+        <v>212</v>
       </c>
       <c r="G92" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H92" s="80" t="s">
-        <v>313</v>
+      <c r="H92" s="44" t="s">
+        <v>311</v>
       </c>
       <c r="I92" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="J92" s="80" t="s">
-        <v>353</v>
+      <c r="J92" s="44" t="s">
+        <v>351</v>
       </c>
       <c r="K92" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="L92" s="80" t="s">
-        <v>393</v>
-      </c>
-      <c r="M92" s="46" t="s">
+      <c r="L92" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="M92" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="N92" s="46"/>
+      <c r="N92" s="51"/>
       <c r="O92" s="17"/>
       <c r="P92" s="17"/>
     </row>
     <row r="93" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="46"/>
-      <c r="B93" s="46"/>
-      <c r="C93" s="49">
+      <c r="A93" s="51"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="80">
         <v>-30</v>
       </c>
-      <c r="D93" s="49"/>
+      <c r="D93" s="80"/>
       <c r="E93" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F93" s="80" t="s">
-        <v>215</v>
+      <c r="F93" s="44" t="s">
+        <v>213</v>
       </c>
       <c r="G93" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H93" s="80" t="s">
-        <v>314</v>
+      <c r="H93" s="44" t="s">
+        <v>312</v>
       </c>
       <c r="I93" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="J93" s="80" t="s">
-        <v>354</v>
+      <c r="J93" s="44" t="s">
+        <v>352</v>
       </c>
       <c r="K93" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="L93" s="80" t="s">
-        <v>394</v>
-      </c>
-      <c r="M93" s="46"/>
-      <c r="N93" s="46"/>
+      <c r="L93" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="M93" s="51"/>
+      <c r="N93" s="51"/>
       <c r="O93" s="17"/>
       <c r="P93" s="17"/>
     </row>
     <row r="94" spans="1:16" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="48" t="s">
+      <c r="A94" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="48"/>
-      <c r="C94" s="48" t="s">
+      <c r="B94" s="58"/>
+      <c r="C94" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48"/>
-      <c r="J94" s="48"/>
-      <c r="K94" s="48"/>
-      <c r="L94" s="48"/>
-      <c r="M94" s="48" t="s">
+      <c r="D94" s="58"/>
+      <c r="E94" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="58"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="N94" s="48"/>
+      <c r="N94" s="58"/>
       <c r="O94" s="19"/>
       <c r="P94" s="19"/>
     </row>
     <row r="95" spans="1:16" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="48"/>
-      <c r="B95" s="48"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48" t="s">
+      <c r="A95" s="58"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48" t="s">
+      <c r="F95" s="58"/>
+      <c r="G95" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48" t="s">
+      <c r="H95" s="58"/>
+      <c r="I95" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48" t="s">
+      <c r="J95" s="58"/>
+      <c r="K95" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="L95" s="48"/>
-      <c r="M95" s="48"/>
-      <c r="N95" s="48"/>
+      <c r="L95" s="58"/>
+      <c r="M95" s="58"/>
+      <c r="N95" s="58"/>
       <c r="O95" s="19"/>
       <c r="P95" s="19"/>
     </row>
@@ -7217,8 +7217,8 @@
       <c r="B96" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
       <c r="E96" s="23" t="s">
         <v>30</v>
       </c>
@@ -7243,944 +7243,944 @@
       <c r="L96" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M96" s="48"/>
-      <c r="N96" s="48"/>
+      <c r="M96" s="58"/>
+      <c r="N96" s="58"/>
       <c r="O96" s="19"/>
       <c r="P96" s="19"/>
     </row>
     <row r="97" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C97" s="47" t="s">
+      <c r="C97" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D97" s="46"/>
-      <c r="E97" s="80" t="s">
+      <c r="D97" s="51"/>
+      <c r="E97" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="F97" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="G97" s="44" t="s">
         <v>395</v>
       </c>
-      <c r="F97" s="80" t="s">
+      <c r="H97" s="44" t="s">
         <v>396</v>
       </c>
-      <c r="G97" s="80" t="s">
+      <c r="I97" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="H97" s="80" t="s">
+      <c r="J97" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="I97" s="80" t="s">
+      <c r="K97" s="44" t="s">
         <v>399</v>
       </c>
-      <c r="J97" s="80" t="s">
+      <c r="L97" s="44" t="s">
         <v>400</v>
       </c>
-      <c r="K97" s="80" t="s">
-        <v>401</v>
-      </c>
-      <c r="L97" s="80" t="s">
-        <v>402</v>
-      </c>
-      <c r="M97" s="46" t="s">
+      <c r="M97" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="N97" s="46"/>
+      <c r="N97" s="51"/>
       <c r="O97" s="17"/>
       <c r="P97" s="17"/>
     </row>
     <row r="98" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="46"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="46">
+      <c r="A98" s="51"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="51">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="D98" s="46"/>
-      <c r="E98" s="80" t="s">
-        <v>403</v>
-      </c>
-      <c r="F98" s="80" t="s">
+      <c r="D98" s="51"/>
+      <c r="E98" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="F98" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="G98" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="H98" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="G98" s="80" t="s">
+      <c r="I98" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="H98" s="80" t="s">
+      <c r="J98" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="I98" s="80" t="s">
+      <c r="K98" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="J98" s="80" t="s">
+      <c r="L98" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="K98" s="80" t="s">
-        <v>425</v>
-      </c>
-      <c r="L98" s="80" t="s">
-        <v>426</v>
-      </c>
-      <c r="M98" s="46"/>
-      <c r="N98" s="46"/>
+      <c r="M98" s="51"/>
+      <c r="N98" s="51"/>
       <c r="O98" s="17"/>
       <c r="P98" s="17"/>
     </row>
     <row r="99" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="46" t="s">
+      <c r="A99" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="46" t="s">
+      <c r="B99" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C99" s="47" t="s">
+      <c r="C99" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="D99" s="46"/>
-      <c r="E99" s="80" t="s">
-        <v>404</v>
-      </c>
-      <c r="F99" s="80" t="s">
+      <c r="D99" s="51"/>
+      <c r="E99" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="F99" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="G99" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="H99" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="G99" s="80" t="s">
+      <c r="I99" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="H99" s="80" t="s">
+      <c r="J99" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="I99" s="80" t="s">
+      <c r="K99" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="J99" s="80" t="s">
+      <c r="L99" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="K99" s="80" t="s">
-        <v>432</v>
-      </c>
-      <c r="L99" s="80" t="s">
-        <v>433</v>
-      </c>
-      <c r="M99" s="46" t="s">
+      <c r="M99" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="N99" s="46"/>
+      <c r="N99" s="51"/>
       <c r="O99" s="17"/>
       <c r="P99" s="17"/>
     </row>
     <row r="100" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="46"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="46">
+      <c r="A100" s="51"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="51">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="D100" s="46"/>
-      <c r="E100" s="80" t="s">
-        <v>405</v>
-      </c>
-      <c r="F100" s="80" t="s">
+      <c r="D100" s="51"/>
+      <c r="E100" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="F100" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="G100" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="H100" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="G100" s="80" t="s">
+      <c r="I100" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="H100" s="80" t="s">
+      <c r="J100" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="I100" s="80" t="s">
+      <c r="K100" s="44" t="s">
         <v>437</v>
       </c>
-      <c r="J100" s="80" t="s">
+      <c r="L100" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="K100" s="80" t="s">
-        <v>439</v>
-      </c>
-      <c r="L100" s="80" t="s">
-        <v>440</v>
-      </c>
-      <c r="M100" s="46"/>
-      <c r="N100" s="46"/>
+      <c r="M100" s="51"/>
+      <c r="N100" s="51"/>
       <c r="O100" s="17"/>
       <c r="P100" s="17"/>
     </row>
     <row r="101" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="46" t="s">
+      <c r="A101" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B101" s="46" t="s">
+      <c r="B101" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C101" s="47" t="s">
+      <c r="C101" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D101" s="46"/>
-      <c r="E101" s="80" t="s">
-        <v>406</v>
-      </c>
-      <c r="F101" s="80" t="s">
+      <c r="D101" s="51"/>
+      <c r="E101" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="F101" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="G101" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="H101" s="44" t="s">
         <v>441</v>
       </c>
-      <c r="G101" s="80" t="s">
+      <c r="I101" s="44" t="s">
         <v>442</v>
       </c>
-      <c r="H101" s="80" t="s">
+      <c r="J101" s="44" t="s">
         <v>443</v>
       </c>
-      <c r="I101" s="80" t="s">
+      <c r="K101" s="44" t="s">
         <v>444</v>
       </c>
-      <c r="J101" s="80" t="s">
+      <c r="L101" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="K101" s="80" t="s">
-        <v>446</v>
-      </c>
-      <c r="L101" s="80" t="s">
-        <v>447</v>
-      </c>
-      <c r="M101" s="46" t="s">
+      <c r="M101" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="N101" s="46"/>
+      <c r="N101" s="51"/>
       <c r="O101" s="17"/>
       <c r="P101" s="17"/>
     </row>
     <row r="102" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="46"/>
-      <c r="B102" s="46"/>
-      <c r="C102" s="50">
+      <c r="A102" s="51"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="79">
         <v>-0.03</v>
       </c>
-      <c r="D102" s="50"/>
-      <c r="E102" s="80" t="s">
-        <v>407</v>
-      </c>
-      <c r="F102" s="80" t="s">
+      <c r="D102" s="79"/>
+      <c r="E102" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="F102" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="G102" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="H102" s="44" t="s">
         <v>448</v>
       </c>
-      <c r="G102" s="80" t="s">
+      <c r="I102" s="44" t="s">
         <v>449</v>
       </c>
-      <c r="H102" s="80" t="s">
+      <c r="J102" s="44" t="s">
         <v>450</v>
       </c>
-      <c r="I102" s="80" t="s">
+      <c r="K102" s="44" t="s">
         <v>451</v>
       </c>
-      <c r="J102" s="80" t="s">
+      <c r="L102" s="44" t="s">
         <v>452</v>
       </c>
-      <c r="K102" s="80" t="s">
-        <v>453</v>
-      </c>
-      <c r="L102" s="80" t="s">
-        <v>454</v>
-      </c>
-      <c r="M102" s="46"/>
-      <c r="N102" s="46"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="51"/>
       <c r="O102" s="17"/>
       <c r="P102" s="17"/>
     </row>
     <row r="103" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="46" t="s">
+      <c r="A103" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B103" s="46" t="s">
+      <c r="B103" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C103" s="47" t="s">
+      <c r="C103" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D103" s="46"/>
-      <c r="E103" s="80" t="s">
-        <v>408</v>
-      </c>
-      <c r="F103" s="80" t="s">
+      <c r="D103" s="51"/>
+      <c r="E103" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="F103" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="G103" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="H103" s="44" t="s">
         <v>455</v>
       </c>
-      <c r="G103" s="80" t="s">
+      <c r="I103" s="44" t="s">
         <v>456</v>
       </c>
-      <c r="H103" s="80" t="s">
+      <c r="J103" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="I103" s="80" t="s">
+      <c r="K103" s="44" t="s">
         <v>458</v>
       </c>
-      <c r="J103" s="80" t="s">
+      <c r="L103" s="44" t="s">
         <v>459</v>
       </c>
-      <c r="K103" s="80" t="s">
-        <v>460</v>
-      </c>
-      <c r="L103" s="80" t="s">
-        <v>461</v>
-      </c>
-      <c r="M103" s="46" t="s">
+      <c r="M103" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="N103" s="46"/>
+      <c r="N103" s="51"/>
       <c r="O103" s="17"/>
       <c r="P103" s="17"/>
     </row>
     <row r="104" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="46"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="46">
+      <c r="A104" s="51"/>
+      <c r="B104" s="51"/>
+      <c r="C104" s="51">
         <v>-0.06</v>
       </c>
-      <c r="D104" s="46"/>
-      <c r="E104" s="80" t="s">
-        <v>409</v>
-      </c>
-      <c r="F104" s="80" t="s">
+      <c r="D104" s="51"/>
+      <c r="E104" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="F104" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="G104" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="H104" s="44" t="s">
         <v>462</v>
       </c>
-      <c r="G104" s="80" t="s">
+      <c r="I104" s="44" t="s">
         <v>463</v>
       </c>
-      <c r="H104" s="80" t="s">
+      <c r="J104" s="44" t="s">
         <v>464</v>
       </c>
-      <c r="I104" s="80" t="s">
+      <c r="K104" s="44" t="s">
         <v>465</v>
       </c>
-      <c r="J104" s="80" t="s">
+      <c r="L104" s="44" t="s">
         <v>466</v>
       </c>
-      <c r="K104" s="80" t="s">
-        <v>467</v>
-      </c>
-      <c r="L104" s="80" t="s">
-        <v>468</v>
-      </c>
-      <c r="M104" s="46"/>
-      <c r="N104" s="46"/>
+      <c r="M104" s="51"/>
+      <c r="N104" s="51"/>
       <c r="O104" s="17"/>
       <c r="P104" s="17"/>
     </row>
     <row r="105" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="46" t="s">
+      <c r="A105" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="46" t="s">
+      <c r="B105" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="47" t="s">
+      <c r="C105" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="D105" s="46"/>
-      <c r="E105" s="80" t="s">
-        <v>410</v>
-      </c>
-      <c r="F105" s="80" t="s">
+      <c r="D105" s="51"/>
+      <c r="E105" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="F105" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="G105" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="H105" s="44" t="s">
         <v>469</v>
       </c>
-      <c r="G105" s="80" t="s">
+      <c r="I105" s="44" t="s">
         <v>470</v>
       </c>
-      <c r="H105" s="80" t="s">
+      <c r="J105" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="I105" s="80" t="s">
+      <c r="K105" s="44" t="s">
         <v>472</v>
       </c>
-      <c r="J105" s="80" t="s">
+      <c r="L105" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="K105" s="80" t="s">
-        <v>474</v>
-      </c>
-      <c r="L105" s="80" t="s">
-        <v>475</v>
-      </c>
-      <c r="M105" s="46" t="s">
+      <c r="M105" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="N105" s="46"/>
+      <c r="N105" s="51"/>
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
     </row>
     <row r="106" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="46"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="46">
+      <c r="A106" s="51"/>
+      <c r="B106" s="51"/>
+      <c r="C106" s="51">
         <v>-0.15</v>
       </c>
-      <c r="D106" s="46"/>
-      <c r="E106" s="80" t="s">
-        <v>411</v>
-      </c>
-      <c r="F106" s="80" t="s">
+      <c r="D106" s="51"/>
+      <c r="E106" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="F106" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="G106" s="44" t="s">
+        <v>475</v>
+      </c>
+      <c r="H106" s="44" t="s">
         <v>476</v>
       </c>
-      <c r="G106" s="80" t="s">
+      <c r="I106" s="44" t="s">
         <v>477</v>
       </c>
-      <c r="H106" s="80" t="s">
+      <c r="J106" s="44" t="s">
         <v>478</v>
       </c>
-      <c r="I106" s="80" t="s">
+      <c r="K106" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="J106" s="80" t="s">
+      <c r="L106" s="44" t="s">
         <v>480</v>
       </c>
-      <c r="K106" s="80" t="s">
-        <v>481</v>
-      </c>
-      <c r="L106" s="80" t="s">
-        <v>482</v>
-      </c>
-      <c r="M106" s="46"/>
-      <c r="N106" s="46"/>
+      <c r="M106" s="51"/>
+      <c r="N106" s="51"/>
       <c r="O106" s="17"/>
       <c r="P106" s="17"/>
     </row>
     <row r="107" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="46" t="s">
+      <c r="A107" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B107" s="46" t="s">
+      <c r="B107" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C107" s="47" t="s">
+      <c r="C107" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D107" s="46"/>
-      <c r="E107" s="80" t="s">
-        <v>412</v>
-      </c>
-      <c r="F107" s="80" t="s">
+      <c r="D107" s="51"/>
+      <c r="E107" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="F107" s="44" t="s">
+        <v>481</v>
+      </c>
+      <c r="G107" s="44" t="s">
+        <v>482</v>
+      </c>
+      <c r="H107" s="44" t="s">
         <v>483</v>
       </c>
-      <c r="G107" s="80" t="s">
+      <c r="I107" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="H107" s="80" t="s">
+      <c r="J107" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="I107" s="80" t="s">
+      <c r="K107" s="44" t="s">
         <v>486</v>
       </c>
-      <c r="J107" s="80" t="s">
+      <c r="L107" s="44" t="s">
         <v>487</v>
       </c>
-      <c r="K107" s="80" t="s">
-        <v>488</v>
-      </c>
-      <c r="L107" s="80" t="s">
-        <v>489</v>
-      </c>
-      <c r="M107" s="46" t="s">
+      <c r="M107" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="N107" s="46"/>
+      <c r="N107" s="51"/>
       <c r="O107" s="17"/>
       <c r="P107" s="17"/>
     </row>
     <row r="108" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="46"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="50">
+      <c r="A108" s="51"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="79">
         <v>-0.3</v>
       </c>
-      <c r="D108" s="50"/>
-      <c r="E108" s="80" t="s">
-        <v>413</v>
-      </c>
-      <c r="F108" s="80" t="s">
+      <c r="D108" s="79"/>
+      <c r="E108" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="F108" s="44" t="s">
+        <v>488</v>
+      </c>
+      <c r="G108" s="44" t="s">
+        <v>489</v>
+      </c>
+      <c r="H108" s="44" t="s">
         <v>490</v>
       </c>
-      <c r="G108" s="80" t="s">
+      <c r="I108" s="44" t="s">
         <v>491</v>
       </c>
-      <c r="H108" s="80" t="s">
+      <c r="J108" s="44" t="s">
         <v>492</v>
       </c>
-      <c r="I108" s="80" t="s">
+      <c r="K108" s="44" t="s">
         <v>493</v>
       </c>
-      <c r="J108" s="80" t="s">
+      <c r="L108" s="44" t="s">
         <v>494</v>
       </c>
-      <c r="K108" s="80" t="s">
-        <v>495</v>
-      </c>
-      <c r="L108" s="80" t="s">
-        <v>496</v>
-      </c>
-      <c r="M108" s="46"/>
-      <c r="N108" s="46"/>
+      <c r="M108" s="51"/>
+      <c r="N108" s="51"/>
       <c r="O108" s="17"/>
       <c r="P108" s="17"/>
     </row>
     <row r="109" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="46" t="s">
+      <c r="A109" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B109" s="46" t="s">
+      <c r="B109" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C109" s="47" t="s">
+      <c r="C109" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D109" s="46"/>
-      <c r="E109" s="80" t="s">
-        <v>414</v>
-      </c>
-      <c r="F109" s="80" t="s">
+      <c r="D109" s="51"/>
+      <c r="E109" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="F109" s="44" t="s">
+        <v>495</v>
+      </c>
+      <c r="G109" s="44" t="s">
+        <v>496</v>
+      </c>
+      <c r="H109" s="44" t="s">
         <v>497</v>
       </c>
-      <c r="G109" s="80" t="s">
+      <c r="I109" s="44" t="s">
         <v>498</v>
       </c>
-      <c r="H109" s="80" t="s">
+      <c r="J109" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="I109" s="80" t="s">
+      <c r="K109" s="44" t="s">
         <v>500</v>
       </c>
-      <c r="J109" s="80" t="s">
+      <c r="L109" s="44" t="s">
         <v>501</v>
       </c>
-      <c r="K109" s="80" t="s">
-        <v>502</v>
-      </c>
-      <c r="L109" s="80" t="s">
-        <v>503</v>
-      </c>
-      <c r="M109" s="46" t="s">
+      <c r="M109" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="N109" s="46"/>
+      <c r="N109" s="51"/>
       <c r="O109" s="17"/>
       <c r="P109" s="17"/>
     </row>
     <row r="110" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="46"/>
-      <c r="B110" s="46"/>
-      <c r="C110" s="50">
+      <c r="A110" s="51"/>
+      <c r="B110" s="51"/>
+      <c r="C110" s="79">
         <v>-0.6</v>
       </c>
-      <c r="D110" s="50"/>
-      <c r="E110" s="80" t="s">
-        <v>415</v>
-      </c>
-      <c r="F110" s="80" t="s">
+      <c r="D110" s="79"/>
+      <c r="E110" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="F110" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="G110" s="44" t="s">
+        <v>503</v>
+      </c>
+      <c r="H110" s="44" t="s">
         <v>504</v>
       </c>
-      <c r="G110" s="80" t="s">
+      <c r="I110" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="H110" s="80" t="s">
+      <c r="J110" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="I110" s="80" t="s">
+      <c r="K110" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="J110" s="80" t="s">
+      <c r="L110" s="44" t="s">
         <v>508</v>
       </c>
-      <c r="K110" s="80" t="s">
-        <v>509</v>
-      </c>
-      <c r="L110" s="80" t="s">
-        <v>510</v>
-      </c>
-      <c r="M110" s="46"/>
-      <c r="N110" s="46"/>
+      <c r="M110" s="51"/>
+      <c r="N110" s="51"/>
       <c r="O110" s="17"/>
       <c r="P110" s="17"/>
     </row>
     <row r="111" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="46" t="s">
+      <c r="A111" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B111" s="46" t="s">
+      <c r="B111" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C111" s="47" t="s">
+      <c r="C111" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D111" s="46"/>
-      <c r="E111" s="80" t="s">
-        <v>416</v>
-      </c>
-      <c r="F111" s="80" t="s">
+      <c r="D111" s="51"/>
+      <c r="E111" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="F111" s="44" t="s">
+        <v>509</v>
+      </c>
+      <c r="G111" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="H111" s="44" t="s">
         <v>511</v>
       </c>
-      <c r="G111" s="80" t="s">
+      <c r="I111" s="44" t="s">
         <v>512</v>
       </c>
-      <c r="H111" s="80" t="s">
+      <c r="J111" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="I111" s="80" t="s">
+      <c r="K111" s="44" t="s">
         <v>514</v>
       </c>
-      <c r="J111" s="80" t="s">
+      <c r="L111" s="44" t="s">
         <v>515</v>
       </c>
-      <c r="K111" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="L111" s="80" t="s">
-        <v>517</v>
-      </c>
-      <c r="M111" s="46" t="s">
+      <c r="M111" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="N111" s="46"/>
+      <c r="N111" s="51"/>
       <c r="O111" s="17"/>
       <c r="P111" s="17"/>
     </row>
     <row r="112" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="46"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="46">
+      <c r="A112" s="51"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="51">
         <v>-1.5</v>
       </c>
-      <c r="D112" s="46"/>
-      <c r="E112" s="80" t="s">
-        <v>417</v>
-      </c>
-      <c r="F112" s="80" t="s">
+      <c r="D112" s="51"/>
+      <c r="E112" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="F112" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="G112" s="44" t="s">
+        <v>517</v>
+      </c>
+      <c r="H112" s="44" t="s">
         <v>518</v>
       </c>
-      <c r="G112" s="80" t="s">
+      <c r="I112" s="44" t="s">
         <v>519</v>
       </c>
-      <c r="H112" s="80" t="s">
+      <c r="J112" s="44" t="s">
         <v>520</v>
       </c>
-      <c r="I112" s="80" t="s">
+      <c r="K112" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="J112" s="80" t="s">
+      <c r="L112" s="44" t="s">
         <v>522</v>
       </c>
-      <c r="K112" s="80" t="s">
-        <v>523</v>
-      </c>
-      <c r="L112" s="80" t="s">
-        <v>524</v>
-      </c>
-      <c r="M112" s="46"/>
-      <c r="N112" s="46"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="51"/>
       <c r="O112" s="17"/>
       <c r="P112" s="17"/>
     </row>
     <row r="113" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="46" t="s">
+      <c r="A113" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B113" s="46" t="s">
+      <c r="B113" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C113" s="47" t="s">
+      <c r="C113" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="D113" s="46"/>
-      <c r="E113" s="80" t="s">
-        <v>418</v>
-      </c>
-      <c r="F113" s="80" t="s">
+      <c r="D113" s="51"/>
+      <c r="E113" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="F113" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="G113" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="H113" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="G113" s="80" t="s">
+      <c r="I113" s="44" t="s">
         <v>526</v>
       </c>
-      <c r="H113" s="80" t="s">
+      <c r="J113" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="I113" s="80" t="s">
+      <c r="K113" s="44" t="s">
         <v>528</v>
       </c>
-      <c r="J113" s="80" t="s">
+      <c r="L113" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="K113" s="80" t="s">
-        <v>530</v>
-      </c>
-      <c r="L113" s="80" t="s">
-        <v>531</v>
-      </c>
-      <c r="M113" s="46" t="s">
+      <c r="M113" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="N113" s="46"/>
+      <c r="N113" s="51"/>
       <c r="O113" s="17"/>
       <c r="P113" s="17"/>
     </row>
     <row r="114" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="46"/>
-      <c r="B114" s="46"/>
-      <c r="C114" s="49">
+      <c r="A114" s="51"/>
+      <c r="B114" s="51"/>
+      <c r="C114" s="80">
         <v>-3</v>
       </c>
-      <c r="D114" s="49"/>
-      <c r="E114" s="80" t="s">
-        <v>419</v>
-      </c>
-      <c r="F114" s="80" t="s">
+      <c r="D114" s="80"/>
+      <c r="E114" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="F114" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="G114" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="H114" s="44" t="s">
         <v>532</v>
       </c>
-      <c r="G114" s="80" t="s">
+      <c r="I114" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="H114" s="80" t="s">
+      <c r="J114" s="44" t="s">
         <v>534</v>
       </c>
-      <c r="I114" s="80" t="s">
+      <c r="K114" s="44" t="s">
         <v>535</v>
       </c>
-      <c r="J114" s="80" t="s">
+      <c r="L114" s="44" t="s">
         <v>536</v>
       </c>
-      <c r="K114" s="80" t="s">
-        <v>537</v>
-      </c>
-      <c r="L114" s="80" t="s">
-        <v>538</v>
-      </c>
-      <c r="M114" s="46"/>
-      <c r="N114" s="46"/>
+      <c r="M114" s="51"/>
+      <c r="N114" s="51"/>
       <c r="O114" s="17"/>
       <c r="P114" s="17"/>
     </row>
     <row r="115" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B115" s="46" t="s">
+      <c r="A115" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C115" s="47" t="s">
+      <c r="C115" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="D115" s="46"/>
+      <c r="D115" s="51"/>
       <c r="E115" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F115" s="80" t="s">
-        <v>539</v>
+      <c r="F115" s="44" t="s">
+        <v>537</v>
       </c>
       <c r="G115" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H115" s="80" t="s">
-        <v>545</v>
+      <c r="H115" s="44" t="s">
+        <v>543</v>
       </c>
       <c r="I115" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="J115" s="80" t="s">
-        <v>551</v>
+      <c r="J115" s="44" t="s">
+        <v>549</v>
       </c>
       <c r="K115" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="L115" s="80" t="s">
-        <v>557</v>
-      </c>
-      <c r="M115" s="46" t="s">
+      <c r="L115" s="44" t="s">
+        <v>555</v>
+      </c>
+      <c r="M115" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="N115" s="46"/>
+      <c r="N115" s="51"/>
       <c r="O115" s="17"/>
       <c r="P115" s="17"/>
     </row>
     <row r="116" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="46"/>
-      <c r="B116" s="46"/>
-      <c r="C116" s="49">
+      <c r="A116" s="51"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="80">
         <v>-6</v>
       </c>
-      <c r="D116" s="49"/>
+      <c r="D116" s="80"/>
       <c r="E116" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F116" s="80" t="s">
-        <v>540</v>
+      <c r="F116" s="44" t="s">
+        <v>538</v>
       </c>
       <c r="G116" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H116" s="80" t="s">
-        <v>546</v>
+      <c r="H116" s="44" t="s">
+        <v>544</v>
       </c>
       <c r="I116" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="J116" s="80" t="s">
-        <v>552</v>
+      <c r="J116" s="44" t="s">
+        <v>550</v>
       </c>
       <c r="K116" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="L116" s="80" t="s">
-        <v>558</v>
-      </c>
-      <c r="M116" s="46"/>
-      <c r="N116" s="46"/>
+      <c r="L116" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="M116" s="51"/>
+      <c r="N116" s="51"/>
       <c r="O116" s="17"/>
       <c r="P116" s="17"/>
     </row>
     <row r="117" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B117" s="46" t="s">
+      <c r="A117" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C117" s="47" t="s">
+      <c r="C117" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="D117" s="46"/>
+      <c r="D117" s="51"/>
       <c r="E117" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F117" s="80" t="s">
-        <v>541</v>
+      <c r="F117" s="44" t="s">
+        <v>539</v>
       </c>
       <c r="G117" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H117" s="80" t="s">
-        <v>547</v>
+      <c r="H117" s="44" t="s">
+        <v>545</v>
       </c>
       <c r="I117" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="J117" s="80" t="s">
-        <v>553</v>
+      <c r="J117" s="44" t="s">
+        <v>551</v>
       </c>
       <c r="K117" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="L117" s="80" t="s">
-        <v>559</v>
-      </c>
-      <c r="M117" s="46" t="s">
+      <c r="L117" s="44" t="s">
+        <v>557</v>
+      </c>
+      <c r="M117" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="N117" s="46"/>
+      <c r="N117" s="51"/>
       <c r="O117" s="17"/>
       <c r="P117" s="17"/>
     </row>
     <row r="118" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="46"/>
-      <c r="B118" s="46"/>
-      <c r="C118" s="49">
+      <c r="A118" s="51"/>
+      <c r="B118" s="51"/>
+      <c r="C118" s="80">
         <v>-15</v>
       </c>
-      <c r="D118" s="49"/>
+      <c r="D118" s="80"/>
       <c r="E118" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F118" s="80" t="s">
-        <v>542</v>
+      <c r="F118" s="44" t="s">
+        <v>540</v>
       </c>
       <c r="G118" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H118" s="80" t="s">
-        <v>548</v>
+      <c r="H118" s="44" t="s">
+        <v>546</v>
       </c>
       <c r="I118" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="J118" s="80" t="s">
-        <v>554</v>
+      <c r="J118" s="44" t="s">
+        <v>552</v>
       </c>
       <c r="K118" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="L118" s="80" t="s">
-        <v>560</v>
-      </c>
-      <c r="M118" s="46"/>
-      <c r="N118" s="46"/>
+      <c r="L118" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="M118" s="51"/>
+      <c r="N118" s="51"/>
       <c r="O118" s="17"/>
       <c r="P118" s="17"/>
     </row>
     <row r="119" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B119" s="46" t="s">
+      <c r="A119" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B119" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C119" s="47" t="s">
+      <c r="C119" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D119" s="46"/>
+      <c r="D119" s="51"/>
       <c r="E119" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F119" s="80" t="s">
-        <v>543</v>
+      <c r="F119" s="44" t="s">
+        <v>541</v>
       </c>
       <c r="G119" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H119" s="80" t="s">
-        <v>549</v>
+      <c r="H119" s="44" t="s">
+        <v>547</v>
       </c>
       <c r="I119" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="J119" s="80" t="s">
-        <v>555</v>
+      <c r="J119" s="44" t="s">
+        <v>553</v>
       </c>
       <c r="K119" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="L119" s="80" t="s">
-        <v>561</v>
-      </c>
-      <c r="M119" s="46" t="s">
+      <c r="L119" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="M119" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="N119" s="46"/>
+      <c r="N119" s="51"/>
       <c r="O119" s="17"/>
       <c r="P119" s="17"/>
     </row>
     <row r="120" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="46"/>
-      <c r="B120" s="46"/>
-      <c r="C120" s="49">
+      <c r="A120" s="51"/>
+      <c r="B120" s="51"/>
+      <c r="C120" s="80">
         <v>-30</v>
       </c>
-      <c r="D120" s="49"/>
+      <c r="D120" s="80"/>
       <c r="E120" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F120" s="80" t="s">
-        <v>544</v>
+      <c r="F120" s="44" t="s">
+        <v>542</v>
       </c>
       <c r="G120" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H120" s="80" t="s">
-        <v>550</v>
+      <c r="H120" s="44" t="s">
+        <v>548</v>
       </c>
       <c r="I120" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="J120" s="80" t="s">
-        <v>556</v>
+      <c r="J120" s="44" t="s">
+        <v>554</v>
       </c>
       <c r="K120" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="L120" s="80" t="s">
-        <v>562</v>
-      </c>
-      <c r="M120" s="46"/>
-      <c r="N120" s="46"/>
+      <c r="L120" s="44" t="s">
+        <v>560</v>
+      </c>
+      <c r="M120" s="51"/>
+      <c r="N120" s="51"/>
       <c r="O120" s="17"/>
       <c r="P120" s="17"/>
     </row>
@@ -8223,54 +8223,54 @@
       <c r="P122" s="17"/>
     </row>
     <row r="123" spans="1:16" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="48" t="s">
+      <c r="A123" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B123" s="48"/>
-      <c r="C123" s="65" t="s">
+      <c r="B123" s="58"/>
+      <c r="C123" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D123" s="66"/>
-      <c r="E123" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="F123" s="48"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="48"/>
-      <c r="I123" s="48"/>
-      <c r="J123" s="48"/>
-      <c r="K123" s="48"/>
-      <c r="L123" s="48"/>
-      <c r="M123" s="65" t="s">
+      <c r="D123" s="48"/>
+      <c r="E123" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="F123" s="58"/>
+      <c r="G123" s="58"/>
+      <c r="H123" s="58"/>
+      <c r="I123" s="58"/>
+      <c r="J123" s="58"/>
+      <c r="K123" s="58"/>
+      <c r="L123" s="58"/>
+      <c r="M123" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="N123" s="66"/>
+      <c r="N123" s="48"/>
       <c r="O123" s="19"/>
       <c r="P123" s="19"/>
     </row>
     <row r="124" spans="1:16" s="22" customFormat="1" ht="55.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="48"/>
-      <c r="B124" s="48"/>
-      <c r="C124" s="73"/>
-      <c r="D124" s="74"/>
-      <c r="E124" s="48" t="s">
+      <c r="A124" s="58"/>
+      <c r="B124" s="58"/>
+      <c r="C124" s="49"/>
+      <c r="D124" s="50"/>
+      <c r="E124" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48" t="s">
+      <c r="F124" s="58"/>
+      <c r="G124" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48" t="s">
+      <c r="H124" s="58"/>
+      <c r="I124" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="J124" s="48"/>
-      <c r="K124" s="48" t="s">
+      <c r="J124" s="58"/>
+      <c r="K124" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="L124" s="48"/>
-      <c r="M124" s="73"/>
-      <c r="N124" s="74"/>
+      <c r="L124" s="58"/>
+      <c r="M124" s="49"/>
+      <c r="N124" s="50"/>
       <c r="O124" s="19"/>
       <c r="P124" s="19"/>
     </row>
@@ -8321,10 +8321,10 @@
       <c r="P125" s="19"/>
     </row>
     <row r="126" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="46" t="s">
+      <c r="A126" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B126" s="46" t="s">
+      <c r="B126" s="51" t="s">
         <v>32</v>
       </c>
       <c r="C126" s="24" t="s">
@@ -8334,41 +8334,41 @@
         <v>77</v>
       </c>
       <c r="E126" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="F126" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="F126" s="28" t="s">
-        <v>251</v>
-      </c>
       <c r="G126" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="H126" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="I126" s="28" t="s">
         <v>563</v>
       </c>
-      <c r="H126" s="28" t="s">
+      <c r="J126" s="28" t="s">
         <v>564</v>
       </c>
-      <c r="I126" s="28" t="s">
+      <c r="K126" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="J126" s="28" t="s">
+      <c r="L126" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="K126" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="L126" s="28" t="s">
-        <v>568</v>
-      </c>
-      <c r="M126" s="46" t="s">
+      <c r="M126" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="N126" s="46" t="s">
+      <c r="N126" s="51" t="s">
         <v>73</v>
       </c>
       <c r="O126" s="17"/>
       <c r="P126" s="17"/>
     </row>
     <row r="127" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="46"/>
-      <c r="B127" s="46"/>
+      <c r="A127" s="51"/>
+      <c r="B127" s="51"/>
       <c r="C127" s="20">
         <v>-0.5</v>
       </c>
@@ -8376,39 +8376,39 @@
         <v>-0.5</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F127" s="28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G127" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="H127" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="I127" s="28" t="s">
         <v>569</v>
       </c>
-      <c r="H127" s="28" t="s">
+      <c r="J127" s="28" t="s">
         <v>570</v>
       </c>
-      <c r="I127" s="28" t="s">
+      <c r="K127" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="J127" s="28" t="s">
+      <c r="L127" s="28" t="s">
         <v>572</v>
       </c>
-      <c r="K127" s="28" t="s">
-        <v>573</v>
-      </c>
-      <c r="L127" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="M127" s="46"/>
-      <c r="N127" s="46"/>
+      <c r="M127" s="51"/>
+      <c r="N127" s="51"/>
       <c r="O127" s="17"/>
       <c r="P127" s="17"/>
     </row>
     <row r="128" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="46" t="s">
+      <c r="A128" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B128" s="46" t="s">
+      <c r="B128" s="51" t="s">
         <v>33</v>
       </c>
       <c r="C128" s="24" t="s">
@@ -8418,41 +8418,41 @@
         <v>78</v>
       </c>
       <c r="E128" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F128" s="28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G128" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="H128" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="I128" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H128" s="28" t="s">
+      <c r="J128" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="I128" s="28" t="s">
+      <c r="K128" s="28" t="s">
         <v>577</v>
       </c>
-      <c r="J128" s="28" t="s">
+      <c r="L128" s="28" t="s">
         <v>578</v>
       </c>
-      <c r="K128" s="28" t="s">
-        <v>579</v>
-      </c>
-      <c r="L128" s="28" t="s">
-        <v>580</v>
-      </c>
-      <c r="M128" s="46" t="s">
+      <c r="M128" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="N128" s="46" t="s">
+      <c r="N128" s="51" t="s">
         <v>74</v>
       </c>
       <c r="O128" s="17"/>
       <c r="P128" s="17"/>
     </row>
     <row r="129" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="46"/>
-      <c r="B129" s="46"/>
+      <c r="A129" s="51"/>
+      <c r="B129" s="51"/>
       <c r="C129" s="20">
         <v>-1.4</v>
       </c>
@@ -8460,39 +8460,39 @@
         <v>-1.4</v>
       </c>
       <c r="E129" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" s="28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G129" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="H129" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="I129" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="H129" s="28" t="s">
+      <c r="J129" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="I129" s="28" t="s">
+      <c r="K129" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="J129" s="28" t="s">
+      <c r="L129" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="K129" s="28" t="s">
-        <v>585</v>
-      </c>
-      <c r="L129" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="M129" s="46"/>
-      <c r="N129" s="46"/>
+      <c r="M129" s="51"/>
+      <c r="N129" s="51"/>
       <c r="O129" s="17"/>
       <c r="P129" s="17"/>
     </row>
     <row r="130" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="46" t="s">
+      <c r="A130" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B130" s="46" t="s">
+      <c r="B130" s="51" t="s">
         <v>34</v>
       </c>
       <c r="C130" s="24" t="s">
@@ -8502,41 +8502,41 @@
         <v>79</v>
       </c>
       <c r="E130" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F130" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G130" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="H130" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="I130" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="H130" s="28" t="s">
+      <c r="J130" s="28" t="s">
         <v>588</v>
       </c>
-      <c r="I130" s="28" t="s">
+      <c r="K130" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="J130" s="28" t="s">
+      <c r="L130" s="28" t="s">
         <v>590</v>
       </c>
-      <c r="K130" s="28" t="s">
-        <v>591</v>
-      </c>
-      <c r="L130" s="28" t="s">
-        <v>592</v>
-      </c>
-      <c r="M130" s="46" t="s">
+      <c r="M130" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="N130" s="46" t="s">
+      <c r="N130" s="51" t="s">
         <v>75</v>
       </c>
       <c r="O130" s="17"/>
       <c r="P130" s="17"/>
     </row>
     <row r="131" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="46"/>
-      <c r="B131" s="46"/>
+      <c r="A131" s="51"/>
+      <c r="B131" s="51"/>
       <c r="C131" s="21">
         <v>-2.8</v>
       </c>
@@ -8544,39 +8544,39 @@
         <v>-2.8</v>
       </c>
       <c r="E131" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" s="28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G131" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="H131" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="I131" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="H131" s="28" t="s">
+      <c r="J131" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="I131" s="28" t="s">
+      <c r="K131" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="J131" s="28" t="s">
+      <c r="L131" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="K131" s="28" t="s">
-        <v>597</v>
-      </c>
-      <c r="L131" s="28" t="s">
-        <v>598</v>
-      </c>
-      <c r="M131" s="46"/>
-      <c r="N131" s="46"/>
+      <c r="M131" s="51"/>
+      <c r="N131" s="51"/>
       <c r="O131" s="17"/>
       <c r="P131" s="17"/>
     </row>
     <row r="132" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="46" t="s">
+      <c r="A132" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B132" s="46" t="s">
+      <c r="B132" s="51" t="s">
         <v>35</v>
       </c>
       <c r="C132" s="24" t="s">
@@ -8586,41 +8586,41 @@
         <v>51</v>
       </c>
       <c r="E132" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F132" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G132" s="28" t="s">
+        <v>597</v>
+      </c>
+      <c r="H132" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="I132" s="28" t="s">
         <v>599</v>
       </c>
-      <c r="H132" s="28" t="s">
+      <c r="J132" s="28" t="s">
         <v>600</v>
       </c>
-      <c r="I132" s="28" t="s">
+      <c r="K132" s="28" t="s">
         <v>601</v>
       </c>
-      <c r="J132" s="28" t="s">
+      <c r="L132" s="28" t="s">
         <v>602</v>
       </c>
-      <c r="K132" s="28" t="s">
-        <v>603</v>
-      </c>
-      <c r="L132" s="28" t="s">
-        <v>604</v>
-      </c>
-      <c r="M132" s="46" t="s">
+      <c r="M132" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="N132" s="46" t="s">
+      <c r="N132" s="51" t="s">
         <v>83</v>
       </c>
       <c r="O132" s="17"/>
       <c r="P132" s="17"/>
     </row>
     <row r="133" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="46"/>
-      <c r="B133" s="46"/>
+      <c r="A133" s="51"/>
+      <c r="B133" s="51"/>
       <c r="C133" s="21">
         <v>-4</v>
       </c>
@@ -8628,39 +8628,39 @@
         <v>-6</v>
       </c>
       <c r="E133" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F133" s="28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="H133" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="I133" s="28" t="s">
         <v>605</v>
       </c>
-      <c r="H133" s="28" t="s">
+      <c r="J133" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="I133" s="28" t="s">
+      <c r="K133" s="28" t="s">
         <v>607</v>
       </c>
-      <c r="J133" s="28" t="s">
+      <c r="L133" s="28" t="s">
         <v>608</v>
       </c>
-      <c r="K133" s="28" t="s">
-        <v>609</v>
-      </c>
-      <c r="L133" s="28" t="s">
-        <v>610</v>
-      </c>
-      <c r="M133" s="46"/>
-      <c r="N133" s="46"/>
+      <c r="M133" s="51"/>
+      <c r="N133" s="51"/>
       <c r="O133" s="17"/>
       <c r="P133" s="17"/>
     </row>
     <row r="134" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B134" s="46" t="s">
+      <c r="A134" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134" s="51" t="s">
         <v>37</v>
       </c>
       <c r="C134" s="24" t="s">
@@ -8673,38 +8673,38 @@
         <v>70</v>
       </c>
       <c r="F134" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G134" s="41" t="s">
         <v>70</v>
       </c>
       <c r="H134" s="28" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I134" s="41" t="s">
         <v>70</v>
       </c>
       <c r="J134" s="28" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K134" s="41" t="s">
         <v>70</v>
       </c>
       <c r="L134" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="M134" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="N134" s="46" t="s">
+        <v>617</v>
+      </c>
+      <c r="M134" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="N134" s="51" t="s">
         <v>84</v>
       </c>
       <c r="O134" s="17"/>
       <c r="P134" s="17"/>
     </row>
     <row r="135" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="46"/>
-      <c r="B135" s="46"/>
+      <c r="A135" s="51"/>
+      <c r="B135" s="51"/>
       <c r="C135" s="25" t="s">
         <v>70</v>
       </c>
@@ -8715,36 +8715,36 @@
         <v>70</v>
       </c>
       <c r="F135" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G135" s="41" t="s">
         <v>70</v>
       </c>
       <c r="H135" s="28" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I135" s="41" t="s">
         <v>70</v>
       </c>
       <c r="J135" s="28" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K135" s="41" t="s">
         <v>70</v>
       </c>
       <c r="L135" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="M135" s="46"/>
-      <c r="N135" s="46"/>
+        <v>618</v>
+      </c>
+      <c r="M135" s="51"/>
+      <c r="N135" s="51"/>
       <c r="O135" s="17"/>
       <c r="P135" s="17"/>
     </row>
     <row r="136" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B136" s="46" t="s">
+      <c r="A136" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B136" s="51" t="s">
         <v>41</v>
       </c>
       <c r="C136" s="24" t="s">
@@ -8757,38 +8757,38 @@
         <v>70</v>
       </c>
       <c r="F136" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G136" s="41" t="s">
         <v>70</v>
       </c>
       <c r="H136" s="28" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I136" s="41" t="s">
         <v>70</v>
       </c>
       <c r="J136" s="28" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="K136" s="41" t="s">
         <v>70</v>
       </c>
       <c r="L136" s="28" t="s">
-        <v>621</v>
-      </c>
-      <c r="M136" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="N136" s="46" t="s">
+        <v>619</v>
+      </c>
+      <c r="M136" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="N136" s="51" t="s">
         <v>85</v>
       </c>
       <c r="O136" s="17"/>
       <c r="P136" s="17"/>
     </row>
     <row r="137" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="46"/>
-      <c r="B137" s="46"/>
+      <c r="A137" s="51"/>
+      <c r="B137" s="51"/>
       <c r="C137" s="21" t="s">
         <v>70</v>
       </c>
@@ -8799,80 +8799,80 @@
         <v>70</v>
       </c>
       <c r="F137" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" s="41" t="s">
         <v>70</v>
       </c>
       <c r="H137" s="28" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I137" s="41" t="s">
         <v>70</v>
       </c>
       <c r="J137" s="28" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K137" s="41" t="s">
         <v>70</v>
       </c>
       <c r="L137" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="M137" s="46"/>
-      <c r="N137" s="46"/>
+        <v>620</v>
+      </c>
+      <c r="M137" s="51"/>
+      <c r="N137" s="51"/>
       <c r="O137" s="17"/>
       <c r="P137" s="17"/>
     </row>
     <row r="138" spans="1:16" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="65" t="s">
+      <c r="A138" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B138" s="66"/>
-      <c r="C138" s="65" t="s">
+      <c r="B138" s="48"/>
+      <c r="C138" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D138" s="66"/>
-      <c r="E138" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="F138" s="72"/>
-      <c r="G138" s="72"/>
-      <c r="H138" s="72"/>
-      <c r="I138" s="72"/>
-      <c r="J138" s="72"/>
-      <c r="K138" s="72"/>
-      <c r="L138" s="70"/>
-      <c r="M138" s="65" t="s">
+      <c r="D138" s="48"/>
+      <c r="E138" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="F138" s="53"/>
+      <c r="G138" s="53"/>
+      <c r="H138" s="53"/>
+      <c r="I138" s="53"/>
+      <c r="J138" s="53"/>
+      <c r="K138" s="53"/>
+      <c r="L138" s="54"/>
+      <c r="M138" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="N138" s="66"/>
+      <c r="N138" s="48"/>
       <c r="O138" s="19"/>
       <c r="P138" s="19"/>
     </row>
     <row r="139" spans="1:16" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="67"/>
-      <c r="B139" s="68"/>
-      <c r="C139" s="67"/>
-      <c r="D139" s="68"/>
-      <c r="E139" s="69" t="s">
+      <c r="A139" s="55"/>
+      <c r="B139" s="56"/>
+      <c r="C139" s="55"/>
+      <c r="D139" s="56"/>
+      <c r="E139" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="F139" s="70"/>
-      <c r="G139" s="69" t="s">
+      <c r="F139" s="54"/>
+      <c r="G139" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="H139" s="70"/>
-      <c r="I139" s="69" t="s">
+      <c r="H139" s="54"/>
+      <c r="I139" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="J139" s="70"/>
-      <c r="K139" s="69" t="s">
+      <c r="J139" s="54"/>
+      <c r="K139" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="L139" s="70"/>
-      <c r="M139" s="67"/>
-      <c r="N139" s="68"/>
+      <c r="L139" s="54"/>
+      <c r="M139" s="55"/>
+      <c r="N139" s="56"/>
       <c r="O139" s="19"/>
       <c r="P139" s="19"/>
     </row>
@@ -8923,10 +8923,10 @@
       <c r="P140" s="19"/>
     </row>
     <row r="141" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="46" t="s">
+      <c r="A141" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B141" s="46" t="s">
+      <c r="B141" s="51" t="s">
         <v>32</v>
       </c>
       <c r="C141" s="24" t="s">
@@ -8936,41 +8936,41 @@
         <v>77</v>
       </c>
       <c r="E141" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="F141" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="G141" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="F141" s="28" t="s">
+      <c r="H141" s="28" t="s">
         <v>624</v>
       </c>
-      <c r="G141" s="28" t="s">
+      <c r="I141" s="28" t="s">
         <v>625</v>
       </c>
-      <c r="H141" s="28" t="s">
+      <c r="J141" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="I141" s="28" t="s">
+      <c r="K141" s="28" t="s">
         <v>627</v>
       </c>
-      <c r="J141" s="28" t="s">
+      <c r="L141" s="28" t="s">
         <v>628</v>
       </c>
-      <c r="K141" s="28" t="s">
-        <v>629</v>
-      </c>
-      <c r="L141" s="28" t="s">
-        <v>630</v>
-      </c>
-      <c r="M141" s="46" t="s">
+      <c r="M141" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="N141" s="46" t="s">
+      <c r="N141" s="51" t="s">
         <v>73</v>
       </c>
       <c r="O141" s="17"/>
       <c r="P141" s="17"/>
     </row>
     <row r="142" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="46"/>
-      <c r="B142" s="46"/>
+      <c r="A142" s="51"/>
+      <c r="B142" s="51"/>
       <c r="C142" s="20">
         <v>-0.5</v>
       </c>
@@ -8978,39 +8978,39 @@
         <v>-0.5</v>
       </c>
       <c r="E142" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="F142" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="G142" s="28" t="s">
         <v>631</v>
       </c>
-      <c r="F142" s="28" t="s">
+      <c r="H142" s="28" t="s">
         <v>632</v>
       </c>
-      <c r="G142" s="28" t="s">
+      <c r="I142" s="28" t="s">
         <v>633</v>
       </c>
-      <c r="H142" s="28" t="s">
+      <c r="J142" s="28" t="s">
         <v>634</v>
       </c>
-      <c r="I142" s="28" t="s">
+      <c r="K142" s="28" t="s">
         <v>635</v>
       </c>
-      <c r="J142" s="28" t="s">
+      <c r="L142" s="28" t="s">
         <v>636</v>
       </c>
-      <c r="K142" s="28" t="s">
-        <v>637</v>
-      </c>
-      <c r="L142" s="28" t="s">
-        <v>638</v>
-      </c>
-      <c r="M142" s="46"/>
-      <c r="N142" s="46"/>
+      <c r="M142" s="51"/>
+      <c r="N142" s="51"/>
       <c r="O142" s="17"/>
       <c r="P142" s="17"/>
     </row>
     <row r="143" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="46" t="s">
+      <c r="A143" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B143" s="46" t="s">
+      <c r="B143" s="51" t="s">
         <v>33</v>
       </c>
       <c r="C143" s="24" t="s">
@@ -9020,41 +9020,41 @@
         <v>78</v>
       </c>
       <c r="E143" s="28" t="s">
+        <v>637</v>
+      </c>
+      <c r="F143" s="28" t="s">
+        <v>638</v>
+      </c>
+      <c r="G143" s="28" t="s">
         <v>639</v>
       </c>
-      <c r="F143" s="28" t="s">
+      <c r="H143" s="28" t="s">
         <v>640</v>
       </c>
-      <c r="G143" s="28" t="s">
+      <c r="I143" s="28" t="s">
         <v>641</v>
       </c>
-      <c r="H143" s="28" t="s">
+      <c r="J143" s="28" t="s">
         <v>642</v>
       </c>
-      <c r="I143" s="28" t="s">
+      <c r="K143" s="28" t="s">
         <v>643</v>
       </c>
-      <c r="J143" s="28" t="s">
+      <c r="L143" s="28" t="s">
         <v>644</v>
       </c>
-      <c r="K143" s="28" t="s">
-        <v>645</v>
-      </c>
-      <c r="L143" s="28" t="s">
-        <v>646</v>
-      </c>
-      <c r="M143" s="46" t="s">
+      <c r="M143" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="N143" s="46" t="s">
+      <c r="N143" s="51" t="s">
         <v>74</v>
       </c>
       <c r="O143" s="17"/>
       <c r="P143" s="17"/>
     </row>
     <row r="144" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="46"/>
-      <c r="B144" s="46"/>
+      <c r="A144" s="51"/>
+      <c r="B144" s="51"/>
       <c r="C144" s="20">
         <v>-1.4</v>
       </c>
@@ -9062,39 +9062,39 @@
         <v>-1.4</v>
       </c>
       <c r="E144" s="28" t="s">
+        <v>645</v>
+      </c>
+      <c r="F144" s="28" t="s">
+        <v>646</v>
+      </c>
+      <c r="G144" s="28" t="s">
         <v>647</v>
       </c>
-      <c r="F144" s="28" t="s">
+      <c r="H144" s="28" t="s">
         <v>648</v>
       </c>
-      <c r="G144" s="28" t="s">
+      <c r="I144" s="28" t="s">
         <v>649</v>
       </c>
-      <c r="H144" s="28" t="s">
+      <c r="J144" s="28" t="s">
         <v>650</v>
       </c>
-      <c r="I144" s="28" t="s">
+      <c r="K144" s="28" t="s">
         <v>651</v>
       </c>
-      <c r="J144" s="28" t="s">
+      <c r="L144" s="28" t="s">
         <v>652</v>
       </c>
-      <c r="K144" s="28" t="s">
-        <v>653</v>
-      </c>
-      <c r="L144" s="28" t="s">
-        <v>654</v>
-      </c>
-      <c r="M144" s="46"/>
-      <c r="N144" s="46"/>
+      <c r="M144" s="51"/>
+      <c r="N144" s="51"/>
       <c r="O144" s="17"/>
       <c r="P144" s="17"/>
     </row>
     <row r="145" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="46" t="s">
+      <c r="A145" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B145" s="46" t="s">
+      <c r="B145" s="51" t="s">
         <v>34</v>
       </c>
       <c r="C145" s="24" t="s">
@@ -9104,41 +9104,41 @@
         <v>79</v>
       </c>
       <c r="E145" s="28" t="s">
+        <v>653</v>
+      </c>
+      <c r="F145" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="G145" s="28" t="s">
         <v>655</v>
       </c>
-      <c r="F145" s="28" t="s">
+      <c r="H145" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="G145" s="28" t="s">
+      <c r="I145" s="28" t="s">
         <v>657</v>
       </c>
-      <c r="H145" s="28" t="s">
+      <c r="J145" s="28" t="s">
         <v>658</v>
       </c>
-      <c r="I145" s="28" t="s">
+      <c r="K145" s="28" t="s">
         <v>659</v>
       </c>
-      <c r="J145" s="28" t="s">
+      <c r="L145" s="28" t="s">
         <v>660</v>
       </c>
-      <c r="K145" s="28" t="s">
-        <v>661</v>
-      </c>
-      <c r="L145" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="M145" s="46" t="s">
+      <c r="M145" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="N145" s="46" t="s">
+      <c r="N145" s="51" t="s">
         <v>75</v>
       </c>
       <c r="O145" s="17"/>
       <c r="P145" s="17"/>
     </row>
     <row r="146" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="46"/>
-      <c r="B146" s="46"/>
+      <c r="A146" s="51"/>
+      <c r="B146" s="51"/>
       <c r="C146" s="21">
         <v>-2.8</v>
       </c>
@@ -9146,39 +9146,39 @@
         <v>-2.8</v>
       </c>
       <c r="E146" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="F146" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="G146" s="28" t="s">
         <v>663</v>
       </c>
-      <c r="F146" s="28" t="s">
+      <c r="H146" s="28" t="s">
         <v>664</v>
       </c>
-      <c r="G146" s="28" t="s">
+      <c r="I146" s="28" t="s">
         <v>665</v>
       </c>
-      <c r="H146" s="28" t="s">
+      <c r="J146" s="28" t="s">
         <v>666</v>
       </c>
-      <c r="I146" s="28" t="s">
+      <c r="K146" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="J146" s="28" t="s">
+      <c r="L146" s="28" t="s">
         <v>668</v>
       </c>
-      <c r="K146" s="28" t="s">
-        <v>669</v>
-      </c>
-      <c r="L146" s="28" t="s">
-        <v>670</v>
-      </c>
-      <c r="M146" s="46"/>
-      <c r="N146" s="46"/>
+      <c r="M146" s="51"/>
+      <c r="N146" s="51"/>
       <c r="O146" s="17"/>
       <c r="P146" s="17"/>
     </row>
     <row r="147" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="46" t="s">
+      <c r="A147" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B147" s="46" t="s">
+      <c r="B147" s="51" t="s">
         <v>35</v>
       </c>
       <c r="C147" s="24" t="s">
@@ -9188,41 +9188,41 @@
         <v>51</v>
       </c>
       <c r="E147" s="28" t="s">
+        <v>669</v>
+      </c>
+      <c r="F147" s="28" t="s">
+        <v>670</v>
+      </c>
+      <c r="G147" s="28" t="s">
         <v>671</v>
       </c>
-      <c r="F147" s="28" t="s">
+      <c r="H147" s="28" t="s">
         <v>672</v>
       </c>
-      <c r="G147" s="28" t="s">
+      <c r="I147" s="28" t="s">
         <v>673</v>
       </c>
-      <c r="H147" s="28" t="s">
+      <c r="J147" s="28" t="s">
         <v>674</v>
       </c>
-      <c r="I147" s="28" t="s">
+      <c r="K147" s="28" t="s">
         <v>675</v>
       </c>
-      <c r="J147" s="28" t="s">
+      <c r="L147" s="28" t="s">
         <v>676</v>
       </c>
-      <c r="K147" s="28" t="s">
-        <v>677</v>
-      </c>
-      <c r="L147" s="28" t="s">
-        <v>678</v>
-      </c>
-      <c r="M147" s="46" t="s">
+      <c r="M147" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="N147" s="46" t="s">
+      <c r="N147" s="51" t="s">
         <v>83</v>
       </c>
       <c r="O147" s="17"/>
       <c r="P147" s="17"/>
     </row>
     <row r="148" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="46"/>
-      <c r="B148" s="46"/>
+      <c r="A148" s="51"/>
+      <c r="B148" s="51"/>
       <c r="C148" s="21">
         <v>-4</v>
       </c>
@@ -9230,83 +9230,83 @@
         <v>-6</v>
       </c>
       <c r="E148" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="F148" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="G148" s="28" t="s">
         <v>679</v>
       </c>
-      <c r="F148" s="28" t="s">
+      <c r="H148" s="28" t="s">
         <v>680</v>
       </c>
-      <c r="G148" s="28" t="s">
+      <c r="I148" s="28" t="s">
         <v>681</v>
       </c>
-      <c r="H148" s="28" t="s">
+      <c r="J148" s="28" t="s">
         <v>682</v>
       </c>
-      <c r="I148" s="28" t="s">
+      <c r="K148" s="28" t="s">
         <v>683</v>
       </c>
-      <c r="J148" s="28" t="s">
+      <c r="L148" s="28" t="s">
         <v>684</v>
       </c>
-      <c r="K148" s="28" t="s">
-        <v>685</v>
-      </c>
-      <c r="L148" s="28" t="s">
-        <v>686</v>
-      </c>
-      <c r="M148" s="46"/>
-      <c r="N148" s="46"/>
+      <c r="M148" s="51"/>
+      <c r="N148" s="51"/>
       <c r="O148" s="17"/>
       <c r="P148" s="17"/>
     </row>
     <row r="149" spans="1:16" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="65" t="s">
+      <c r="A149" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B149" s="66"/>
-      <c r="C149" s="65" t="s">
+      <c r="B149" s="48"/>
+      <c r="C149" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D149" s="66"/>
-      <c r="E149" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="F149" s="72"/>
-      <c r="G149" s="72"/>
-      <c r="H149" s="72"/>
-      <c r="I149" s="72"/>
-      <c r="J149" s="72"/>
-      <c r="K149" s="72"/>
-      <c r="L149" s="70"/>
-      <c r="M149" s="65" t="s">
+      <c r="D149" s="48"/>
+      <c r="E149" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="F149" s="53"/>
+      <c r="G149" s="53"/>
+      <c r="H149" s="53"/>
+      <c r="I149" s="53"/>
+      <c r="J149" s="53"/>
+      <c r="K149" s="53"/>
+      <c r="L149" s="54"/>
+      <c r="M149" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="N149" s="66"/>
+      <c r="N149" s="48"/>
       <c r="O149" s="19"/>
       <c r="P149" s="19"/>
     </row>
     <row r="150" spans="1:16" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="67"/>
-      <c r="B150" s="68"/>
-      <c r="C150" s="67"/>
-      <c r="D150" s="68"/>
-      <c r="E150" s="69" t="s">
+      <c r="A150" s="55"/>
+      <c r="B150" s="56"/>
+      <c r="C150" s="55"/>
+      <c r="D150" s="56"/>
+      <c r="E150" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="F150" s="70"/>
-      <c r="G150" s="69" t="s">
+      <c r="F150" s="54"/>
+      <c r="G150" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="H150" s="70"/>
-      <c r="I150" s="69" t="s">
+      <c r="H150" s="54"/>
+      <c r="I150" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="J150" s="70"/>
-      <c r="K150" s="69" t="s">
+      <c r="J150" s="54"/>
+      <c r="K150" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="L150" s="70"/>
-      <c r="M150" s="67"/>
-      <c r="N150" s="68"/>
+      <c r="L150" s="54"/>
+      <c r="M150" s="55"/>
+      <c r="N150" s="56"/>
       <c r="O150" s="19"/>
       <c r="P150" s="19"/>
     </row>
@@ -9357,10 +9357,10 @@
       <c r="P151" s="19"/>
     </row>
     <row r="152" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B152" s="46" t="s">
+      <c r="A152" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B152" s="51" t="s">
         <v>37</v>
       </c>
       <c r="C152" s="24" t="s">
@@ -9373,38 +9373,38 @@
         <v>70</v>
       </c>
       <c r="F152" s="28" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G152" s="40" t="s">
         <v>70</v>
       </c>
       <c r="H152" s="28" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I152" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J152" s="28" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="K152" s="40" t="s">
         <v>70</v>
       </c>
       <c r="L152" s="28" t="s">
-        <v>699</v>
-      </c>
-      <c r="M152" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="N152" s="46" t="s">
+        <v>697</v>
+      </c>
+      <c r="M152" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="N152" s="51" t="s">
         <v>84</v>
       </c>
       <c r="O152" s="17"/>
       <c r="P152" s="17"/>
     </row>
     <row r="153" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="46"/>
-      <c r="B153" s="46"/>
+      <c r="A153" s="51"/>
+      <c r="B153" s="51"/>
       <c r="C153" s="25" t="s">
         <v>70</v>
       </c>
@@ -9415,36 +9415,36 @@
         <v>70</v>
       </c>
       <c r="F153" s="28" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G153" s="40" t="s">
         <v>70</v>
       </c>
       <c r="H153" s="28" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I153" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J153" s="28" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="K153" s="40" t="s">
         <v>70</v>
       </c>
       <c r="L153" s="28" t="s">
-        <v>700</v>
-      </c>
-      <c r="M153" s="46"/>
-      <c r="N153" s="46"/>
+        <v>698</v>
+      </c>
+      <c r="M153" s="51"/>
+      <c r="N153" s="51"/>
       <c r="O153" s="17"/>
       <c r="P153" s="17"/>
     </row>
     <row r="154" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B154" s="46" t="s">
+      <c r="A154" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B154" s="51" t="s">
         <v>41</v>
       </c>
       <c r="C154" s="24" t="s">
@@ -9457,38 +9457,38 @@
         <v>70</v>
       </c>
       <c r="F154" s="28" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G154" s="40" t="s">
         <v>70</v>
       </c>
       <c r="H154" s="28" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I154" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J154" s="28" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="K154" s="40" t="s">
         <v>70</v>
       </c>
       <c r="L154" s="28" t="s">
-        <v>701</v>
-      </c>
-      <c r="M154" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="N154" s="46" t="s">
+        <v>699</v>
+      </c>
+      <c r="M154" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="N154" s="51" t="s">
         <v>85</v>
       </c>
       <c r="O154" s="17"/>
       <c r="P154" s="17"/>
     </row>
     <row r="155" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="46"/>
-      <c r="B155" s="46"/>
+      <c r="A155" s="51"/>
+      <c r="B155" s="51"/>
       <c r="C155" s="21" t="s">
         <v>70</v>
       </c>
@@ -9499,28 +9499,28 @@
         <v>70</v>
       </c>
       <c r="F155" s="28" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G155" s="40" t="s">
         <v>70</v>
       </c>
       <c r="H155" s="28" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I155" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J155" s="28" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="K155" s="40" t="s">
         <v>70</v>
       </c>
       <c r="L155" s="28" t="s">
-        <v>702</v>
-      </c>
-      <c r="M155" s="46"/>
-      <c r="N155" s="46"/>
+        <v>700</v>
+      </c>
+      <c r="M155" s="51"/>
+      <c r="N155" s="51"/>
       <c r="O155" s="17"/>
       <c r="P155" s="17"/>
     </row>
@@ -9581,50 +9581,50 @@
       <c r="P158" s="17"/>
     </row>
     <row r="159" spans="1:16" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="48" t="s">
+      <c r="A159" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B159" s="48"/>
-      <c r="C159" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="D159" s="48"/>
-      <c r="E159" s="48"/>
-      <c r="F159" s="48"/>
-      <c r="G159" s="48"/>
-      <c r="H159" s="48"/>
-      <c r="I159" s="48"/>
-      <c r="J159" s="48"/>
-      <c r="K159" s="48" t="s">
+      <c r="B159" s="58"/>
+      <c r="C159" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D159" s="58"/>
+      <c r="E159" s="58"/>
+      <c r="F159" s="58"/>
+      <c r="G159" s="58"/>
+      <c r="H159" s="58"/>
+      <c r="I159" s="58"/>
+      <c r="J159" s="58"/>
+      <c r="K159" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="L159" s="48"/>
+      <c r="L159" s="58"/>
       <c r="M159" s="17"/>
       <c r="N159" s="17"/>
       <c r="O159" s="17"/>
       <c r="P159" s="17"/>
     </row>
     <row r="160" spans="1:16" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="48"/>
-      <c r="B160" s="48"/>
-      <c r="C160" s="48" t="s">
+      <c r="A160" s="58"/>
+      <c r="B160" s="58"/>
+      <c r="C160" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D160" s="48"/>
-      <c r="E160" s="48" t="s">
+      <c r="D160" s="58"/>
+      <c r="E160" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="F160" s="48"/>
-      <c r="G160" s="48" t="s">
+      <c r="F160" s="58"/>
+      <c r="G160" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="H160" s="48"/>
-      <c r="I160" s="48" t="s">
+      <c r="H160" s="58"/>
+      <c r="I160" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="J160" s="48"/>
-      <c r="K160" s="48"/>
-      <c r="L160" s="48"/>
+      <c r="J160" s="58"/>
+      <c r="K160" s="58"/>
+      <c r="L160" s="58"/>
       <c r="M160" s="17"/>
       <c r="N160" s="17"/>
       <c r="O160" s="17"/>
@@ -9661,8 +9661,8 @@
       <c r="J161" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K161" s="48"/>
-      <c r="L161" s="48"/>
+      <c r="K161" s="58"/>
+      <c r="L161" s="58"/>
       <c r="M161" s="17"/>
       <c r="N161" s="17"/>
       <c r="O161" s="17"/>
@@ -9676,33 +9676,33 @@
         <v>32</v>
       </c>
       <c r="C162" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E162" s="35" t="s">
+        <v>701</v>
+      </c>
+      <c r="F162" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="G162" s="35" t="s">
         <v>703</v>
       </c>
-      <c r="F162" s="35" t="s">
+      <c r="H162" s="35" t="s">
         <v>704</v>
       </c>
-      <c r="G162" s="35" t="s">
+      <c r="I162" s="35" t="s">
         <v>705</v>
       </c>
-      <c r="H162" s="35" t="s">
+      <c r="J162" s="35" t="s">
         <v>706</v>
       </c>
-      <c r="I162" s="35" t="s">
-        <v>707</v>
-      </c>
-      <c r="J162" s="35" t="s">
-        <v>708</v>
-      </c>
-      <c r="K162" s="46">
+      <c r="K162" s="51">
         <v>1000</v>
       </c>
-      <c r="L162" s="46"/>
+      <c r="L162" s="51"/>
       <c r="M162" s="17"/>
       <c r="N162" s="17"/>
       <c r="O162" s="17"/>
@@ -9716,31 +9716,31 @@
         <v>33</v>
       </c>
       <c r="C163" s="35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E163" s="35" t="s">
+        <v>707</v>
+      </c>
+      <c r="F163" s="35" t="s">
+        <v>708</v>
+      </c>
+      <c r="G163" s="35" t="s">
         <v>709</v>
       </c>
-      <c r="F163" s="35" t="s">
+      <c r="H163" s="35" t="s">
         <v>710</v>
       </c>
-      <c r="G163" s="35" t="s">
+      <c r="I163" s="35" t="s">
         <v>711</v>
       </c>
-      <c r="H163" s="35" t="s">
+      <c r="J163" s="35" t="s">
         <v>712</v>
       </c>
-      <c r="I163" s="35" t="s">
-        <v>713</v>
-      </c>
-      <c r="J163" s="35" t="s">
-        <v>714</v>
-      </c>
-      <c r="K163" s="46"/>
-      <c r="L163" s="46"/>
+      <c r="K163" s="51"/>
+      <c r="L163" s="51"/>
       <c r="M163" s="17"/>
       <c r="N163" s="17"/>
       <c r="O163" s="17"/>
@@ -9754,31 +9754,31 @@
         <v>34</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E164" s="35" t="s">
+        <v>713</v>
+      </c>
+      <c r="F164" s="35" t="s">
+        <v>714</v>
+      </c>
+      <c r="G164" s="35" t="s">
         <v>715</v>
       </c>
-      <c r="F164" s="35" t="s">
+      <c r="H164" s="35" t="s">
         <v>716</v>
       </c>
-      <c r="G164" s="35" t="s">
+      <c r="I164" s="35" t="s">
         <v>717</v>
       </c>
-      <c r="H164" s="35" t="s">
+      <c r="J164" s="35" t="s">
         <v>718</v>
       </c>
-      <c r="I164" s="35" t="s">
-        <v>719</v>
-      </c>
-      <c r="J164" s="35" t="s">
-        <v>720</v>
-      </c>
-      <c r="K164" s="46"/>
-      <c r="L164" s="46"/>
+      <c r="K164" s="51"/>
+      <c r="L164" s="51"/>
       <c r="M164" s="17"/>
       <c r="N164" s="17"/>
       <c r="O164" s="17"/>
@@ -9792,31 +9792,31 @@
         <v>35</v>
       </c>
       <c r="C165" s="35" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E165" s="35" t="s">
+        <v>719</v>
+      </c>
+      <c r="F165" s="35" t="s">
+        <v>720</v>
+      </c>
+      <c r="G165" s="35" t="s">
         <v>721</v>
       </c>
-      <c r="F165" s="35" t="s">
+      <c r="H165" s="35" t="s">
         <v>722</v>
       </c>
-      <c r="G165" s="35" t="s">
+      <c r="I165" s="35" t="s">
         <v>723</v>
       </c>
-      <c r="H165" s="35" t="s">
+      <c r="J165" s="35" t="s">
         <v>724</v>
       </c>
-      <c r="I165" s="35" t="s">
-        <v>725</v>
-      </c>
-      <c r="J165" s="35" t="s">
-        <v>726</v>
-      </c>
-      <c r="K165" s="46"/>
-      <c r="L165" s="46"/>
+      <c r="K165" s="51"/>
+      <c r="L165" s="51"/>
       <c r="M165" s="17"/>
       <c r="N165" s="17"/>
       <c r="O165" s="17"/>
@@ -9830,31 +9830,31 @@
         <v>9</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E166" s="35" t="s">
+        <v>725</v>
+      </c>
+      <c r="F166" s="35" t="s">
+        <v>726</v>
+      </c>
+      <c r="G166" s="35" t="s">
         <v>727</v>
       </c>
-      <c r="F166" s="35" t="s">
+      <c r="H166" s="35" t="s">
         <v>728</v>
       </c>
-      <c r="G166" s="35" t="s">
+      <c r="I166" s="35" t="s">
         <v>729</v>
       </c>
-      <c r="H166" s="35" t="s">
+      <c r="J166" s="35" t="s">
         <v>730</v>
       </c>
-      <c r="I166" s="35" t="s">
-        <v>731</v>
-      </c>
-      <c r="J166" s="35" t="s">
-        <v>732</v>
-      </c>
-      <c r="K166" s="46"/>
-      <c r="L166" s="46"/>
+      <c r="K166" s="51"/>
+      <c r="L166" s="51"/>
       <c r="M166" s="17"/>
       <c r="N166" s="17"/>
       <c r="O166" s="17"/>
@@ -9868,31 +9868,31 @@
         <v>36</v>
       </c>
       <c r="C167" s="35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E167" s="35" t="s">
+        <v>731</v>
+      </c>
+      <c r="F167" s="35" t="s">
+        <v>732</v>
+      </c>
+      <c r="G167" s="35" t="s">
         <v>733</v>
       </c>
-      <c r="F167" s="35" t="s">
+      <c r="H167" s="35" t="s">
         <v>734</v>
       </c>
-      <c r="G167" s="35" t="s">
+      <c r="I167" s="35" t="s">
         <v>735</v>
       </c>
-      <c r="H167" s="35" t="s">
+      <c r="J167" s="35" t="s">
         <v>736</v>
       </c>
-      <c r="I167" s="35" t="s">
-        <v>737</v>
-      </c>
-      <c r="J167" s="35" t="s">
-        <v>738</v>
-      </c>
-      <c r="K167" s="46"/>
-      <c r="L167" s="46"/>
+      <c r="K167" s="51"/>
+      <c r="L167" s="51"/>
       <c r="M167" s="17"/>
       <c r="N167" s="17"/>
       <c r="O167" s="17"/>
@@ -9906,31 +9906,31 @@
         <v>37</v>
       </c>
       <c r="C168" s="35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E168" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="F168" s="35" t="s">
+        <v>738</v>
+      </c>
+      <c r="G168" s="35" t="s">
         <v>739</v>
       </c>
-      <c r="F168" s="35" t="s">
+      <c r="H168" s="35" t="s">
         <v>740</v>
       </c>
-      <c r="G168" s="35" t="s">
+      <c r="I168" s="35" t="s">
         <v>741</v>
       </c>
-      <c r="H168" s="35" t="s">
+      <c r="J168" s="35" t="s">
         <v>742</v>
       </c>
-      <c r="I168" s="35" t="s">
-        <v>743</v>
-      </c>
-      <c r="J168" s="35" t="s">
-        <v>744</v>
-      </c>
-      <c r="K168" s="46"/>
-      <c r="L168" s="46"/>
+      <c r="K168" s="51"/>
+      <c r="L168" s="51"/>
       <c r="M168" s="17"/>
       <c r="N168" s="17"/>
       <c r="O168" s="17"/>
@@ -9944,31 +9944,31 @@
         <v>38</v>
       </c>
       <c r="C169" s="35" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E169" s="35" t="s">
+        <v>743</v>
+      </c>
+      <c r="F169" s="35" t="s">
+        <v>744</v>
+      </c>
+      <c r="G169" s="35" t="s">
         <v>745</v>
       </c>
-      <c r="F169" s="35" t="s">
+      <c r="H169" s="35" t="s">
         <v>746</v>
       </c>
-      <c r="G169" s="35" t="s">
+      <c r="I169" s="35" t="s">
         <v>747</v>
       </c>
-      <c r="H169" s="35" t="s">
+      <c r="J169" s="35" t="s">
         <v>748</v>
       </c>
-      <c r="I169" s="35" t="s">
-        <v>749</v>
-      </c>
-      <c r="J169" s="35" t="s">
-        <v>750</v>
-      </c>
-      <c r="K169" s="46"/>
-      <c r="L169" s="46"/>
+      <c r="K169" s="51"/>
+      <c r="L169" s="51"/>
       <c r="M169" s="17"/>
       <c r="N169" s="17"/>
       <c r="O169" s="17"/>
@@ -9982,31 +9982,31 @@
         <v>7</v>
       </c>
       <c r="C170" s="35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E170" s="35" t="s">
+        <v>749</v>
+      </c>
+      <c r="F170" s="35" t="s">
+        <v>750</v>
+      </c>
+      <c r="G170" s="35" t="s">
         <v>751</v>
       </c>
-      <c r="F170" s="35" t="s">
+      <c r="H170" s="35" t="s">
         <v>752</v>
       </c>
-      <c r="G170" s="35" t="s">
+      <c r="I170" s="35" t="s">
         <v>753</v>
       </c>
-      <c r="H170" s="35" t="s">
+      <c r="J170" s="35" t="s">
         <v>754</v>
       </c>
-      <c r="I170" s="35" t="s">
-        <v>755</v>
-      </c>
-      <c r="J170" s="35" t="s">
-        <v>756</v>
-      </c>
-      <c r="K170" s="46"/>
-      <c r="L170" s="46"/>
+      <c r="K170" s="51"/>
+      <c r="L170" s="51"/>
       <c r="M170" s="17"/>
       <c r="N170" s="17"/>
       <c r="O170" s="17"/>
@@ -10023,28 +10023,28 @@
         <v>70</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E171" s="40" t="s">
         <v>70</v>
       </c>
       <c r="F171" s="35" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G171" s="40" t="s">
         <v>70</v>
       </c>
       <c r="H171" s="35" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I171" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J171" s="35" t="s">
-        <v>763</v>
-      </c>
-      <c r="K171" s="46"/>
-      <c r="L171" s="46"/>
+        <v>761</v>
+      </c>
+      <c r="K171" s="51"/>
+      <c r="L171" s="51"/>
       <c r="M171" s="17"/>
       <c r="N171" s="17"/>
       <c r="O171" s="17"/>
@@ -10061,28 +10061,28 @@
         <v>70</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E172" s="40" t="s">
         <v>70</v>
       </c>
       <c r="F172" s="35" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G172" s="40" t="s">
         <v>70</v>
       </c>
       <c r="H172" s="35" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I172" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J172" s="35" t="s">
-        <v>764</v>
-      </c>
-      <c r="K172" s="46"/>
-      <c r="L172" s="46"/>
+        <v>762</v>
+      </c>
+      <c r="K172" s="51"/>
+      <c r="L172" s="51"/>
       <c r="M172" s="17"/>
       <c r="N172" s="17"/>
       <c r="O172" s="17"/>
@@ -10099,78 +10099,78 @@
         <v>70</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E173" s="40" t="s">
         <v>70</v>
       </c>
       <c r="F173" s="35" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G173" s="40" t="s">
         <v>70</v>
       </c>
       <c r="H173" s="35" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I173" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J173" s="35" t="s">
-        <v>765</v>
-      </c>
-      <c r="K173" s="46"/>
-      <c r="L173" s="46"/>
+        <v>763</v>
+      </c>
+      <c r="K173" s="51"/>
+      <c r="L173" s="51"/>
       <c r="M173" s="17"/>
       <c r="N173" s="17"/>
       <c r="O173" s="17"/>
       <c r="P173" s="17"/>
     </row>
     <row r="174" spans="1:16" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="48" t="s">
+      <c r="A174" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B174" s="48"/>
-      <c r="C174" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="D174" s="48"/>
-      <c r="E174" s="48"/>
-      <c r="F174" s="48"/>
-      <c r="G174" s="48"/>
-      <c r="H174" s="48"/>
-      <c r="I174" s="48"/>
-      <c r="J174" s="48"/>
-      <c r="K174" s="48" t="s">
+      <c r="B174" s="58"/>
+      <c r="C174" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D174" s="58"/>
+      <c r="E174" s="58"/>
+      <c r="F174" s="58"/>
+      <c r="G174" s="58"/>
+      <c r="H174" s="58"/>
+      <c r="I174" s="58"/>
+      <c r="J174" s="58"/>
+      <c r="K174" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="L174" s="48"/>
+      <c r="L174" s="58"/>
       <c r="M174" s="17"/>
       <c r="N174" s="17"/>
       <c r="O174" s="17"/>
       <c r="P174" s="17"/>
     </row>
     <row r="175" spans="1:16" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="48"/>
-      <c r="B175" s="48"/>
-      <c r="C175" s="48" t="s">
+      <c r="A175" s="58"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="D175" s="48"/>
-      <c r="E175" s="48" t="s">
+      <c r="D175" s="58"/>
+      <c r="E175" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="F175" s="48"/>
-      <c r="G175" s="48" t="s">
+      <c r="F175" s="58"/>
+      <c r="G175" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="H175" s="48"/>
-      <c r="I175" s="48" t="s">
+      <c r="H175" s="58"/>
+      <c r="I175" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="J175" s="48"/>
-      <c r="K175" s="48"/>
-      <c r="L175" s="48"/>
+      <c r="J175" s="58"/>
+      <c r="K175" s="58"/>
+      <c r="L175" s="58"/>
       <c r="M175" s="17"/>
       <c r="N175" s="17"/>
       <c r="O175" s="17"/>
@@ -10207,8 +10207,8 @@
       <c r="J176" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K176" s="48"/>
-      <c r="L176" s="48"/>
+      <c r="K176" s="58"/>
+      <c r="L176" s="58"/>
       <c r="M176" s="17"/>
       <c r="N176" s="17"/>
       <c r="O176" s="17"/>
@@ -10222,33 +10222,33 @@
         <v>32</v>
       </c>
       <c r="C177" s="35" t="s">
+        <v>764</v>
+      </c>
+      <c r="D177" s="35" t="s">
+        <v>765</v>
+      </c>
+      <c r="E177" s="35" t="s">
         <v>766</v>
       </c>
-      <c r="D177" s="35" t="s">
+      <c r="F177" s="35" t="s">
         <v>767</v>
       </c>
-      <c r="E177" s="35" t="s">
+      <c r="G177" s="35" t="s">
         <v>768</v>
       </c>
-      <c r="F177" s="35" t="s">
+      <c r="H177" s="35" t="s">
         <v>769</v>
       </c>
-      <c r="G177" s="35" t="s">
+      <c r="I177" s="35" t="s">
         <v>770</v>
       </c>
-      <c r="H177" s="35" t="s">
+      <c r="J177" s="35" t="s">
         <v>771</v>
       </c>
-      <c r="I177" s="35" t="s">
-        <v>772</v>
-      </c>
-      <c r="J177" s="35" t="s">
-        <v>773</v>
-      </c>
-      <c r="K177" s="55">
+      <c r="K177" s="63">
         <v>1000</v>
       </c>
-      <c r="L177" s="56"/>
+      <c r="L177" s="64"/>
       <c r="M177" s="17"/>
       <c r="N177" s="17"/>
       <c r="O177" s="17"/>
@@ -10262,31 +10262,31 @@
         <v>33</v>
       </c>
       <c r="C178" s="35" t="s">
+        <v>772</v>
+      </c>
+      <c r="D178" s="35" t="s">
+        <v>773</v>
+      </c>
+      <c r="E178" s="35" t="s">
         <v>774</v>
       </c>
-      <c r="D178" s="35" t="s">
+      <c r="F178" s="35" t="s">
         <v>775</v>
       </c>
-      <c r="E178" s="35" t="s">
+      <c r="G178" s="35" t="s">
         <v>776</v>
       </c>
-      <c r="F178" s="35" t="s">
+      <c r="H178" s="35" t="s">
         <v>777</v>
       </c>
-      <c r="G178" s="35" t="s">
+      <c r="I178" s="35" t="s">
         <v>778</v>
       </c>
-      <c r="H178" s="35" t="s">
+      <c r="J178" s="35" t="s">
         <v>779</v>
       </c>
-      <c r="I178" s="35" t="s">
-        <v>780</v>
-      </c>
-      <c r="J178" s="35" t="s">
-        <v>781</v>
-      </c>
-      <c r="K178" s="78"/>
-      <c r="L178" s="79"/>
+      <c r="K178" s="65"/>
+      <c r="L178" s="66"/>
       <c r="M178" s="17"/>
       <c r="N178" s="17"/>
       <c r="O178" s="17"/>
@@ -10300,31 +10300,31 @@
         <v>34</v>
       </c>
       <c r="C179" s="35" t="s">
+        <v>780</v>
+      </c>
+      <c r="D179" s="35" t="s">
+        <v>781</v>
+      </c>
+      <c r="E179" s="35" t="s">
         <v>782</v>
       </c>
-      <c r="D179" s="35" t="s">
+      <c r="F179" s="35" t="s">
         <v>783</v>
       </c>
-      <c r="E179" s="35" t="s">
+      <c r="G179" s="35" t="s">
         <v>784</v>
       </c>
-      <c r="F179" s="35" t="s">
+      <c r="H179" s="35" t="s">
         <v>785</v>
       </c>
-      <c r="G179" s="35" t="s">
+      <c r="I179" s="35" t="s">
         <v>786</v>
       </c>
-      <c r="H179" s="35" t="s">
+      <c r="J179" s="35" t="s">
         <v>787</v>
       </c>
-      <c r="I179" s="35" t="s">
-        <v>788</v>
-      </c>
-      <c r="J179" s="35" t="s">
-        <v>789</v>
-      </c>
-      <c r="K179" s="78"/>
-      <c r="L179" s="79"/>
+      <c r="K179" s="65"/>
+      <c r="L179" s="66"/>
       <c r="M179" s="17"/>
       <c r="N179" s="17"/>
       <c r="O179" s="17"/>
@@ -10338,31 +10338,31 @@
         <v>35</v>
       </c>
       <c r="C180" s="35" t="s">
+        <v>788</v>
+      </c>
+      <c r="D180" s="35" t="s">
+        <v>789</v>
+      </c>
+      <c r="E180" s="35" t="s">
         <v>790</v>
       </c>
-      <c r="D180" s="35" t="s">
+      <c r="F180" s="35" t="s">
         <v>791</v>
       </c>
-      <c r="E180" s="35" t="s">
+      <c r="G180" s="35" t="s">
         <v>792</v>
       </c>
-      <c r="F180" s="35" t="s">
+      <c r="H180" s="35" t="s">
         <v>793</v>
       </c>
-      <c r="G180" s="35" t="s">
+      <c r="I180" s="35" t="s">
         <v>794</v>
       </c>
-      <c r="H180" s="35" t="s">
+      <c r="J180" s="35" t="s">
         <v>795</v>
       </c>
-      <c r="I180" s="35" t="s">
-        <v>796</v>
-      </c>
-      <c r="J180" s="35" t="s">
-        <v>797</v>
-      </c>
-      <c r="K180" s="78"/>
-      <c r="L180" s="79"/>
+      <c r="K180" s="65"/>
+      <c r="L180" s="66"/>
       <c r="M180" s="17"/>
       <c r="N180" s="17"/>
       <c r="O180" s="17"/>
@@ -10376,31 +10376,31 @@
         <v>9</v>
       </c>
       <c r="C181" s="35" t="s">
+        <v>796</v>
+      </c>
+      <c r="D181" s="35" t="s">
+        <v>797</v>
+      </c>
+      <c r="E181" s="35" t="s">
         <v>798</v>
       </c>
-      <c r="D181" s="35" t="s">
+      <c r="F181" s="35" t="s">
         <v>799</v>
       </c>
-      <c r="E181" s="35" t="s">
+      <c r="G181" s="35" t="s">
         <v>800</v>
       </c>
-      <c r="F181" s="35" t="s">
+      <c r="H181" s="35" t="s">
         <v>801</v>
       </c>
-      <c r="G181" s="35" t="s">
+      <c r="I181" s="35" t="s">
         <v>802</v>
       </c>
-      <c r="H181" s="35" t="s">
+      <c r="J181" s="35" t="s">
         <v>803</v>
       </c>
-      <c r="I181" s="35" t="s">
-        <v>804</v>
-      </c>
-      <c r="J181" s="35" t="s">
-        <v>805</v>
-      </c>
-      <c r="K181" s="78"/>
-      <c r="L181" s="79"/>
+      <c r="K181" s="65"/>
+      <c r="L181" s="66"/>
       <c r="M181" s="17"/>
       <c r="N181" s="17"/>
       <c r="O181" s="17"/>
@@ -10414,31 +10414,31 @@
         <v>36</v>
       </c>
       <c r="C182" s="35" t="s">
+        <v>804</v>
+      </c>
+      <c r="D182" s="35" t="s">
+        <v>805</v>
+      </c>
+      <c r="E182" s="35" t="s">
         <v>806</v>
       </c>
-      <c r="D182" s="35" t="s">
+      <c r="F182" s="35" t="s">
         <v>807</v>
       </c>
-      <c r="E182" s="35" t="s">
+      <c r="G182" s="35" t="s">
         <v>808</v>
       </c>
-      <c r="F182" s="35" t="s">
+      <c r="H182" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="G182" s="35" t="s">
+      <c r="I182" s="35" t="s">
         <v>810</v>
       </c>
-      <c r="H182" s="35" t="s">
+      <c r="J182" s="35" t="s">
         <v>811</v>
       </c>
-      <c r="I182" s="35" t="s">
-        <v>812</v>
-      </c>
-      <c r="J182" s="35" t="s">
-        <v>813</v>
-      </c>
-      <c r="K182" s="78"/>
-      <c r="L182" s="79"/>
+      <c r="K182" s="65"/>
+      <c r="L182" s="66"/>
       <c r="M182" s="17"/>
       <c r="N182" s="17"/>
       <c r="O182" s="17"/>
@@ -10452,31 +10452,31 @@
         <v>37</v>
       </c>
       <c r="C183" s="35" t="s">
+        <v>812</v>
+      </c>
+      <c r="D183" s="35" t="s">
+        <v>813</v>
+      </c>
+      <c r="E183" s="35" t="s">
         <v>814</v>
       </c>
-      <c r="D183" s="35" t="s">
+      <c r="F183" s="35" t="s">
         <v>815</v>
       </c>
-      <c r="E183" s="35" t="s">
+      <c r="G183" s="35" t="s">
         <v>816</v>
       </c>
-      <c r="F183" s="35" t="s">
+      <c r="H183" s="35" t="s">
         <v>817</v>
       </c>
-      <c r="G183" s="35" t="s">
+      <c r="I183" s="35" t="s">
         <v>818</v>
       </c>
-      <c r="H183" s="35" t="s">
+      <c r="J183" s="35" t="s">
         <v>819</v>
       </c>
-      <c r="I183" s="35" t="s">
-        <v>820</v>
-      </c>
-      <c r="J183" s="35" t="s">
-        <v>821</v>
-      </c>
-      <c r="K183" s="78"/>
-      <c r="L183" s="79"/>
+      <c r="K183" s="65"/>
+      <c r="L183" s="66"/>
       <c r="M183" s="17"/>
       <c r="N183" s="17"/>
       <c r="O183" s="17"/>
@@ -10490,31 +10490,31 @@
         <v>38</v>
       </c>
       <c r="C184" s="35" t="s">
+        <v>820</v>
+      </c>
+      <c r="D184" s="35" t="s">
+        <v>821</v>
+      </c>
+      <c r="E184" s="35" t="s">
         <v>822</v>
       </c>
-      <c r="D184" s="35" t="s">
+      <c r="F184" s="35" t="s">
         <v>823</v>
       </c>
-      <c r="E184" s="35" t="s">
+      <c r="G184" s="35" t="s">
         <v>824</v>
       </c>
-      <c r="F184" s="35" t="s">
+      <c r="H184" s="35" t="s">
         <v>825</v>
       </c>
-      <c r="G184" s="35" t="s">
+      <c r="I184" s="35" t="s">
         <v>826</v>
       </c>
-      <c r="H184" s="35" t="s">
+      <c r="J184" s="35" t="s">
         <v>827</v>
       </c>
-      <c r="I184" s="35" t="s">
-        <v>828</v>
-      </c>
-      <c r="J184" s="35" t="s">
-        <v>829</v>
-      </c>
-      <c r="K184" s="78"/>
-      <c r="L184" s="79"/>
+      <c r="K184" s="65"/>
+      <c r="L184" s="66"/>
       <c r="M184" s="17"/>
       <c r="N184" s="17"/>
       <c r="O184" s="17"/>
@@ -10528,31 +10528,31 @@
         <v>7</v>
       </c>
       <c r="C185" s="35" t="s">
+        <v>828</v>
+      </c>
+      <c r="D185" s="35" t="s">
+        <v>829</v>
+      </c>
+      <c r="E185" s="35" t="s">
         <v>830</v>
       </c>
-      <c r="D185" s="35" t="s">
+      <c r="F185" s="35" t="s">
         <v>831</v>
       </c>
-      <c r="E185" s="35" t="s">
+      <c r="G185" s="35" t="s">
         <v>832</v>
       </c>
-      <c r="F185" s="35" t="s">
+      <c r="H185" s="35" t="s">
         <v>833</v>
       </c>
-      <c r="G185" s="35" t="s">
+      <c r="I185" s="35" t="s">
         <v>834</v>
       </c>
-      <c r="H185" s="35" t="s">
+      <c r="J185" s="35" t="s">
         <v>835</v>
       </c>
-      <c r="I185" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="J185" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="K185" s="78"/>
-      <c r="L185" s="79"/>
+      <c r="K185" s="65"/>
+      <c r="L185" s="66"/>
       <c r="M185" s="17"/>
       <c r="N185" s="17"/>
       <c r="O185" s="17"/>
@@ -10569,28 +10569,28 @@
         <v>70</v>
       </c>
       <c r="D186" s="35" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E186" s="40" t="s">
         <v>70</v>
       </c>
       <c r="F186" s="35" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G186" s="40" t="s">
         <v>70</v>
       </c>
       <c r="H186" s="35" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I186" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J186" s="35" t="s">
-        <v>847</v>
-      </c>
-      <c r="K186" s="78"/>
-      <c r="L186" s="79"/>
+        <v>845</v>
+      </c>
+      <c r="K186" s="65"/>
+      <c r="L186" s="66"/>
       <c r="M186" s="17"/>
       <c r="N186" s="17"/>
       <c r="O186" s="17"/>
@@ -10607,28 +10607,28 @@
         <v>70</v>
       </c>
       <c r="D187" s="35" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E187" s="40" t="s">
         <v>70</v>
       </c>
       <c r="F187" s="35" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G187" s="40" t="s">
         <v>70</v>
       </c>
       <c r="H187" s="35" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="I187" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J187" s="35" t="s">
-        <v>848</v>
-      </c>
-      <c r="K187" s="78"/>
-      <c r="L187" s="79"/>
+        <v>846</v>
+      </c>
+      <c r="K187" s="65"/>
+      <c r="L187" s="66"/>
       <c r="M187" s="17"/>
       <c r="N187" s="17"/>
       <c r="O187" s="17"/>
@@ -10645,28 +10645,28 @@
         <v>70</v>
       </c>
       <c r="D188" s="35" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E188" s="40" t="s">
         <v>70</v>
       </c>
       <c r="F188" s="35" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G188" s="40" t="s">
         <v>70</v>
       </c>
       <c r="H188" s="35" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I188" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J188" s="35" t="s">
-        <v>849</v>
-      </c>
-      <c r="K188" s="57"/>
-      <c r="L188" s="58"/>
+        <v>847</v>
+      </c>
+      <c r="K188" s="67"/>
+      <c r="L188" s="68"/>
       <c r="M188" s="17"/>
       <c r="N188" s="17"/>
       <c r="O188" s="17"/>
@@ -10729,32 +10729,32 @@
       <c r="P191" s="17"/>
     </row>
     <row r="192" spans="1:16" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="48" t="s">
+      <c r="A192" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B192" s="48"/>
-      <c r="C192" s="46" t="s">
+      <c r="B192" s="58"/>
+      <c r="C192" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="D192" s="46"/>
-      <c r="E192" s="46"/>
-      <c r="F192" s="46"/>
-      <c r="G192" s="46"/>
-      <c r="H192" s="46"/>
-      <c r="I192" s="46"/>
-      <c r="J192" s="46"/>
-      <c r="K192" s="48" t="s">
+      <c r="D192" s="51"/>
+      <c r="E192" s="51"/>
+      <c r="F192" s="51"/>
+      <c r="G192" s="51"/>
+      <c r="H192" s="51"/>
+      <c r="I192" s="51"/>
+      <c r="J192" s="51"/>
+      <c r="K192" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="L192" s="48"/>
+      <c r="L192" s="58"/>
       <c r="M192" s="17"/>
       <c r="N192" s="17"/>
       <c r="O192" s="17"/>
       <c r="P192" s="17"/>
     </row>
     <row r="193" spans="1:21" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="48"/>
-      <c r="B193" s="48"/>
+      <c r="A193" s="58"/>
+      <c r="B193" s="58"/>
       <c r="C193" s="13" t="s">
         <v>25</v>
       </c>
@@ -10779,46 +10779,46 @@
       <c r="J193" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K193" s="48"/>
-      <c r="L193" s="48"/>
+      <c r="K193" s="58"/>
+      <c r="L193" s="58"/>
       <c r="M193" s="17"/>
       <c r="N193" s="17"/>
       <c r="O193" s="17"/>
       <c r="P193" s="17"/>
     </row>
     <row r="194" spans="1:21" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="46" t="s">
+      <c r="A194" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B194" s="46"/>
+      <c r="B194" s="51"/>
       <c r="C194" s="35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D194" s="35" t="s">
+        <v>848</v>
+      </c>
+      <c r="E194" s="35" t="s">
+        <v>849</v>
+      </c>
+      <c r="F194" s="35" t="s">
         <v>850</v>
       </c>
-      <c r="E194" s="35" t="s">
+      <c r="G194" s="35" t="s">
         <v>851</v>
       </c>
-      <c r="F194" s="35" t="s">
+      <c r="H194" s="35" t="s">
         <v>852</v>
       </c>
-      <c r="G194" s="35" t="s">
+      <c r="I194" s="35" t="s">
         <v>853</v>
       </c>
-      <c r="H194" s="35" t="s">
+      <c r="J194" s="35" t="s">
         <v>854</v>
       </c>
-      <c r="I194" s="35" t="s">
-        <v>855</v>
-      </c>
-      <c r="J194" s="35" t="s">
-        <v>856</v>
-      </c>
-      <c r="K194" s="46">
+      <c r="K194" s="51">
         <v>450</v>
       </c>
-      <c r="L194" s="46"/>
+      <c r="L194" s="51"/>
       <c r="M194" s="17"/>
       <c r="N194" s="34"/>
       <c r="O194" s="34"/>
@@ -10830,36 +10830,36 @@
       <c r="U194" s="34"/>
     </row>
     <row r="195" spans="1:21" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="46" t="s">
+      <c r="A195" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B195" s="46"/>
+      <c r="B195" s="51"/>
       <c r="C195" s="35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D195" s="35" t="s">
+        <v>855</v>
+      </c>
+      <c r="E195" s="35" t="s">
+        <v>856</v>
+      </c>
+      <c r="F195" s="35" t="s">
         <v>857</v>
       </c>
-      <c r="E195" s="35" t="s">
+      <c r="G195" s="35" t="s">
         <v>858</v>
       </c>
-      <c r="F195" s="35" t="s">
+      <c r="H195" s="35" t="s">
         <v>859</v>
       </c>
-      <c r="G195" s="35" t="s">
+      <c r="I195" s="35" t="s">
         <v>860</v>
       </c>
-      <c r="H195" s="35" t="s">
+      <c r="J195" s="35" t="s">
         <v>861</v>
       </c>
-      <c r="I195" s="35" t="s">
-        <v>862</v>
-      </c>
-      <c r="J195" s="35" t="s">
-        <v>863</v>
-      </c>
-      <c r="K195" s="46"/>
-      <c r="L195" s="46"/>
+      <c r="K195" s="51"/>
+      <c r="L195" s="51"/>
       <c r="M195" s="17"/>
       <c r="N195" s="34"/>
       <c r="O195" s="34"/>
@@ -10871,36 +10871,36 @@
       <c r="U195" s="34"/>
     </row>
     <row r="196" spans="1:21" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="46" t="s">
+      <c r="A196" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B196" s="46"/>
+      <c r="B196" s="51"/>
       <c r="C196" s="35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D196" s="35" t="s">
+        <v>862</v>
+      </c>
+      <c r="E196" s="35" t="s">
+        <v>863</v>
+      </c>
+      <c r="F196" s="35" t="s">
         <v>864</v>
       </c>
-      <c r="E196" s="35" t="s">
+      <c r="G196" s="35" t="s">
         <v>865</v>
       </c>
-      <c r="F196" s="35" t="s">
+      <c r="H196" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="G196" s="35" t="s">
+      <c r="I196" s="35" t="s">
         <v>867</v>
       </c>
-      <c r="H196" s="35" t="s">
+      <c r="J196" s="35" t="s">
         <v>868</v>
       </c>
-      <c r="I196" s="35" t="s">
-        <v>869</v>
-      </c>
-      <c r="J196" s="35" t="s">
-        <v>870</v>
-      </c>
-      <c r="K196" s="46"/>
-      <c r="L196" s="46"/>
+      <c r="K196" s="51"/>
+      <c r="L196" s="51"/>
       <c r="M196" s="17"/>
       <c r="N196" s="34"/>
       <c r="O196" s="34"/>
@@ -10912,36 +10912,36 @@
       <c r="U196" s="34"/>
     </row>
     <row r="197" spans="1:21" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="46" t="s">
+      <c r="A197" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B197" s="46"/>
+      <c r="B197" s="51"/>
       <c r="C197" s="35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D197" s="35" t="s">
+        <v>869</v>
+      </c>
+      <c r="E197" s="35" t="s">
+        <v>870</v>
+      </c>
+      <c r="F197" s="35" t="s">
         <v>871</v>
       </c>
-      <c r="E197" s="35" t="s">
+      <c r="G197" s="35" t="s">
         <v>872</v>
       </c>
-      <c r="F197" s="35" t="s">
+      <c r="H197" s="35" t="s">
         <v>873</v>
       </c>
-      <c r="G197" s="35" t="s">
+      <c r="I197" s="35" t="s">
         <v>874</v>
       </c>
-      <c r="H197" s="35" t="s">
+      <c r="J197" s="35" t="s">
         <v>875</v>
       </c>
-      <c r="I197" s="35" t="s">
-        <v>876</v>
-      </c>
-      <c r="J197" s="35" t="s">
-        <v>877</v>
-      </c>
-      <c r="K197" s="46"/>
-      <c r="L197" s="46"/>
+      <c r="K197" s="51"/>
+      <c r="L197" s="51"/>
       <c r="M197" s="17"/>
       <c r="N197" s="34"/>
       <c r="O197" s="34"/>
@@ -10953,36 +10953,36 @@
       <c r="U197" s="34"/>
     </row>
     <row r="198" spans="1:21" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="46" t="s">
+      <c r="A198" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B198" s="46"/>
+      <c r="B198" s="51"/>
       <c r="C198" s="35" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D198" s="35" t="s">
+        <v>876</v>
+      </c>
+      <c r="E198" s="35" t="s">
+        <v>877</v>
+      </c>
+      <c r="F198" s="35" t="s">
         <v>878</v>
       </c>
-      <c r="E198" s="35" t="s">
+      <c r="G198" s="35" t="s">
         <v>879</v>
       </c>
-      <c r="F198" s="35" t="s">
+      <c r="H198" s="35" t="s">
         <v>880</v>
       </c>
-      <c r="G198" s="35" t="s">
+      <c r="I198" s="35" t="s">
         <v>881</v>
       </c>
-      <c r="H198" s="35" t="s">
+      <c r="J198" s="35" t="s">
         <v>882</v>
       </c>
-      <c r="I198" s="35" t="s">
-        <v>883</v>
-      </c>
-      <c r="J198" s="35" t="s">
-        <v>884</v>
-      </c>
-      <c r="K198" s="46"/>
-      <c r="L198" s="46"/>
+      <c r="K198" s="51"/>
+      <c r="L198" s="51"/>
       <c r="M198" s="17"/>
       <c r="N198" s="34"/>
       <c r="O198" s="34"/>
@@ -10994,36 +10994,36 @@
       <c r="U198" s="34"/>
     </row>
     <row r="199" spans="1:21" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="46" t="s">
+      <c r="A199" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B199" s="46"/>
+      <c r="B199" s="51"/>
       <c r="C199" s="35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D199" s="35" t="s">
+        <v>883</v>
+      </c>
+      <c r="E199" s="35" t="s">
+        <v>884</v>
+      </c>
+      <c r="F199" s="35" t="s">
         <v>885</v>
       </c>
-      <c r="E199" s="35" t="s">
+      <c r="G199" s="35" t="s">
         <v>886</v>
       </c>
-      <c r="F199" s="35" t="s">
+      <c r="H199" s="35" t="s">
         <v>887</v>
       </c>
-      <c r="G199" s="35" t="s">
+      <c r="I199" s="35" t="s">
         <v>888</v>
       </c>
-      <c r="H199" s="35" t="s">
+      <c r="J199" s="35" t="s">
         <v>889</v>
       </c>
-      <c r="I199" s="35" t="s">
-        <v>890</v>
-      </c>
-      <c r="J199" s="35" t="s">
-        <v>891</v>
-      </c>
-      <c r="K199" s="46"/>
-      <c r="L199" s="46"/>
+      <c r="K199" s="51"/>
+      <c r="L199" s="51"/>
       <c r="M199" s="17"/>
       <c r="N199" s="34"/>
       <c r="O199" s="34"/>
@@ -11035,36 +11035,36 @@
       <c r="U199" s="34"/>
     </row>
     <row r="200" spans="1:21" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="46" t="s">
+      <c r="A200" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B200" s="46"/>
+      <c r="B200" s="51"/>
       <c r="C200" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D200" s="35" t="s">
+        <v>890</v>
+      </c>
+      <c r="E200" s="35" t="s">
+        <v>891</v>
+      </c>
+      <c r="F200" s="35" t="s">
         <v>892</v>
       </c>
-      <c r="E200" s="35" t="s">
+      <c r="G200" s="35" t="s">
         <v>893</v>
       </c>
-      <c r="F200" s="35" t="s">
+      <c r="H200" s="35" t="s">
         <v>894</v>
       </c>
-      <c r="G200" s="35" t="s">
+      <c r="I200" s="35" t="s">
         <v>895</v>
       </c>
-      <c r="H200" s="35" t="s">
+      <c r="J200" s="35" t="s">
         <v>896</v>
       </c>
-      <c r="I200" s="35" t="s">
-        <v>897</v>
-      </c>
-      <c r="J200" s="35" t="s">
-        <v>898</v>
-      </c>
-      <c r="K200" s="46"/>
-      <c r="L200" s="46"/>
+      <c r="K200" s="51"/>
+      <c r="L200" s="51"/>
       <c r="M200" s="17"/>
       <c r="N200" s="34"/>
       <c r="O200" s="34"/>
@@ -11114,22 +11114,22 @@
       <c r="P202" s="17"/>
     </row>
     <row r="203" spans="1:21" s="18" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="46" t="s">
+      <c r="A203" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="B203" s="46"/>
-      <c r="C203" s="46" t="s">
+      <c r="B203" s="51"/>
+      <c r="C203" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="D203" s="46"/>
-      <c r="E203" s="46" t="s">
+      <c r="D203" s="51"/>
+      <c r="E203" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="F203" s="46"/>
-      <c r="G203" s="48" t="s">
+      <c r="F203" s="51"/>
+      <c r="G203" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="H203" s="48"/>
+      <c r="H203" s="58"/>
       <c r="I203" s="17"/>
       <c r="J203" s="17"/>
       <c r="K203" s="17"/>
@@ -11140,24 +11140,24 @@
       <c r="P203" s="17"/>
     </row>
     <row r="204" spans="1:21" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="53">
+      <c r="A204" s="70">
         <v>8001.8</v>
       </c>
-      <c r="B204" s="53"/>
-      <c r="C204" s="53">
+      <c r="B204" s="70"/>
+      <c r="C204" s="70">
         <f>A204-8000</f>
         <v>1.8000000000001819</v>
       </c>
-      <c r="D204" s="53"/>
-      <c r="E204" s="53">
+      <c r="D204" s="70"/>
+      <c r="E204" s="70">
         <f>C204/10000000</f>
         <v>1.8000000000001818E-7</v>
       </c>
-      <c r="F204" s="53"/>
-      <c r="G204" s="46" t="s">
+      <c r="F204" s="70"/>
+      <c r="G204" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="H204" s="46"/>
+      <c r="H204" s="51"/>
       <c r="I204" s="17"/>
       <c r="J204" s="17"/>
       <c r="K204" s="17"/>
@@ -11224,32 +11224,32 @@
       <c r="P207" s="17"/>
     </row>
     <row r="208" spans="1:21" s="22" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="48" t="s">
+      <c r="A208" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B208" s="48"/>
-      <c r="C208" s="48" t="s">
+      <c r="B208" s="58"/>
+      <c r="C208" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="D208" s="48"/>
-      <c r="E208" s="48"/>
-      <c r="F208" s="48"/>
-      <c r="G208" s="48"/>
-      <c r="H208" s="48"/>
-      <c r="I208" s="48"/>
-      <c r="J208" s="48"/>
-      <c r="K208" s="48" t="s">
+      <c r="D208" s="58"/>
+      <c r="E208" s="58"/>
+      <c r="F208" s="58"/>
+      <c r="G208" s="58"/>
+      <c r="H208" s="58"/>
+      <c r="I208" s="58"/>
+      <c r="J208" s="58"/>
+      <c r="K208" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="L208" s="48"/>
+      <c r="L208" s="58"/>
       <c r="M208" s="19"/>
       <c r="N208" s="19"/>
       <c r="O208" s="19"/>
       <c r="P208" s="19"/>
     </row>
     <row r="209" spans="1:16" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="48"/>
-      <c r="B209" s="48"/>
+      <c r="A209" s="58"/>
+      <c r="B209" s="58"/>
       <c r="C209" s="13" t="s">
         <v>25</v>
       </c>
@@ -11274,160 +11274,160 @@
       <c r="J209" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K209" s="48"/>
-      <c r="L209" s="48"/>
+      <c r="K209" s="58"/>
+      <c r="L209" s="58"/>
       <c r="M209" s="19"/>
       <c r="N209" s="19"/>
       <c r="O209" s="19"/>
       <c r="P209" s="19"/>
     </row>
     <row r="210" spans="1:16" s="18" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="46" t="s">
+      <c r="A210" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="B210" s="46"/>
-      <c r="C210" s="81" t="s">
-        <v>244</v>
-      </c>
-      <c r="D210" s="81" t="s">
+      <c r="B210" s="51"/>
+      <c r="C210" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="D210" s="45" t="s">
+        <v>897</v>
+      </c>
+      <c r="E210" s="45" t="s">
+        <v>921</v>
+      </c>
+      <c r="F210" s="45" t="s">
+        <v>898</v>
+      </c>
+      <c r="G210" s="45" t="s">
         <v>899</v>
       </c>
-      <c r="E210" s="81" t="s">
-        <v>923</v>
-      </c>
-      <c r="F210" s="81" t="s">
+      <c r="H210" s="45" t="s">
         <v>900</v>
       </c>
-      <c r="G210" s="81" t="s">
+      <c r="I210" s="45" t="s">
         <v>901</v>
       </c>
-      <c r="H210" s="81" t="s">
+      <c r="J210" s="45" t="s">
         <v>902</v>
       </c>
-      <c r="I210" s="81" t="s">
-        <v>903</v>
-      </c>
-      <c r="J210" s="81" t="s">
-        <v>904</v>
-      </c>
-      <c r="K210" s="46" t="s">
+      <c r="K210" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="L210" s="46"/>
+      <c r="L210" s="51"/>
       <c r="M210" s="17"/>
       <c r="N210" s="17"/>
       <c r="O210" s="17"/>
       <c r="P210" s="17"/>
     </row>
     <row r="211" spans="1:16" s="18" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="46" t="s">
+      <c r="A211" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="B211" s="46"/>
-      <c r="C211" s="82" t="s">
-        <v>245</v>
-      </c>
-      <c r="D211" s="82" t="s">
+      <c r="B211" s="51"/>
+      <c r="C211" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="D211" s="46" t="s">
+        <v>903</v>
+      </c>
+      <c r="E211" s="46" t="s">
+        <v>922</v>
+      </c>
+      <c r="F211" s="46" t="s">
+        <v>904</v>
+      </c>
+      <c r="G211" s="46" t="s">
         <v>905</v>
       </c>
-      <c r="E211" s="82" t="s">
-        <v>924</v>
-      </c>
-      <c r="F211" s="82" t="s">
+      <c r="H211" s="46" t="s">
         <v>906</v>
       </c>
-      <c r="G211" s="82" t="s">
+      <c r="I211" s="46" t="s">
         <v>907</v>
       </c>
-      <c r="H211" s="82" t="s">
+      <c r="J211" s="46" t="s">
         <v>908</v>
       </c>
-      <c r="I211" s="82" t="s">
-        <v>909</v>
-      </c>
-      <c r="J211" s="82" t="s">
-        <v>910</v>
-      </c>
-      <c r="K211" s="46" t="s">
+      <c r="K211" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="L211" s="46"/>
+      <c r="L211" s="51"/>
       <c r="M211" s="17"/>
       <c r="N211" s="17"/>
       <c r="O211" s="17"/>
       <c r="P211" s="17"/>
     </row>
     <row r="212" spans="1:16" s="18" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="46" t="s">
+      <c r="A212" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B212" s="46"/>
-      <c r="C212" s="82" t="s">
-        <v>246</v>
-      </c>
-      <c r="D212" s="82" t="s">
+      <c r="B212" s="51"/>
+      <c r="C212" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D212" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="E212" s="46" t="s">
+        <v>923</v>
+      </c>
+      <c r="F212" s="46" t="s">
+        <v>910</v>
+      </c>
+      <c r="G212" s="46" t="s">
         <v>911</v>
       </c>
-      <c r="E212" s="82" t="s">
+      <c r="H212" s="46" t="s">
+        <v>912</v>
+      </c>
+      <c r="I212" s="46" t="s">
+        <v>913</v>
+      </c>
+      <c r="J212" s="46" t="s">
+        <v>914</v>
+      </c>
+      <c r="K212" s="51" t="s">
         <v>925</v>
       </c>
-      <c r="F212" s="82" t="s">
-        <v>912</v>
-      </c>
-      <c r="G212" s="82" t="s">
-        <v>913</v>
-      </c>
-      <c r="H212" s="82" t="s">
-        <v>914</v>
-      </c>
-      <c r="I212" s="82" t="s">
-        <v>915</v>
-      </c>
-      <c r="J212" s="82" t="s">
-        <v>916</v>
-      </c>
-      <c r="K212" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="L212" s="46"/>
+      <c r="L212" s="51"/>
       <c r="M212" s="17"/>
       <c r="N212" s="17"/>
       <c r="O212" s="17"/>
       <c r="P212" s="17"/>
     </row>
     <row r="213" spans="1:16" s="18" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="46" t="s">
+      <c r="A213" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="B213" s="46"/>
-      <c r="C213" s="82" t="s">
-        <v>247</v>
-      </c>
-      <c r="D213" s="82" t="s">
+      <c r="B213" s="51"/>
+      <c r="C213" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="D213" s="46" t="s">
+        <v>915</v>
+      </c>
+      <c r="E213" s="46" t="s">
+        <v>924</v>
+      </c>
+      <c r="F213" s="46" t="s">
+        <v>916</v>
+      </c>
+      <c r="G213" s="46" t="s">
         <v>917</v>
       </c>
-      <c r="E213" s="82" t="s">
+      <c r="H213" s="46" t="s">
+        <v>918</v>
+      </c>
+      <c r="I213" s="46" t="s">
+        <v>919</v>
+      </c>
+      <c r="J213" s="46" t="s">
+        <v>920</v>
+      </c>
+      <c r="K213" s="51" t="s">
         <v>926</v>
       </c>
-      <c r="F213" s="82" t="s">
-        <v>918</v>
-      </c>
-      <c r="G213" s="82" t="s">
-        <v>919</v>
-      </c>
-      <c r="H213" s="82" t="s">
-        <v>920</v>
-      </c>
-      <c r="I213" s="82" t="s">
-        <v>921</v>
-      </c>
-      <c r="J213" s="82" t="s">
-        <v>922</v>
-      </c>
-      <c r="K213" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L213" s="46"/>
+      <c r="L213" s="51"/>
       <c r="M213" s="17"/>
       <c r="N213" s="17"/>
       <c r="O213" s="17"/>
@@ -11471,7 +11471,7 @@
     </row>
     <row r="216" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B216" s="17"/>
       <c r="C216" s="17"/>
@@ -11527,19 +11527,19 @@
     </row>
     <row r="219" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="26"/>
-      <c r="B219" s="45" t="s">
+      <c r="B219" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="C219" s="84"/>
+      <c r="D219" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E219" s="83" t="s">
         <v>137</v>
-      </c>
-      <c r="C219" s="45"/>
-      <c r="D219" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E219" s="83" t="s">
-        <v>139</v>
       </c>
       <c r="F219" s="83"/>
       <c r="G219" s="37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H219" s="17"/>
       <c r="I219" s="17"/>
@@ -11588,20 +11588,20 @@
       <c r="P221" s="17"/>
     </row>
     <row r="222" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="44" t="s">
+      <c r="A222" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="B222" s="82"/>
+      <c r="C222" s="82"/>
+      <c r="D222" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="B222" s="44"/>
-      <c r="C222" s="44"/>
-      <c r="D222" s="38" t="s">
+      <c r="E222" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="F222" s="81"/>
+      <c r="G222" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="E222" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="F222" s="84"/>
-      <c r="G222" s="26" t="s">
-        <v>140</v>
       </c>
       <c r="H222" s="17"/>
       <c r="I222" s="17"/>
@@ -11632,13 +11632,13 @@
       <c r="P223" s="17"/>
     </row>
     <row r="224" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="B224" s="44"/>
-      <c r="C224" s="44"/>
+      <c r="A224" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="B224" s="82"/>
+      <c r="C224" s="82"/>
       <c r="D224" s="83" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E224" s="83"/>
       <c r="F224" s="17"/>
@@ -11997,6 +11997,413 @@
     </row>
   </sheetData>
   <mergeCells count="431">
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E123:L123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="K211:L211"/>
+    <mergeCell ref="K212:L212"/>
+    <mergeCell ref="K213:L213"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="M117:N118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="M119:N120"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="M113:N114"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="M115:N116"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="M109:N110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="M111:N112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="M105:N106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="M107:N108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="M101:N102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="M103:N104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="M97:N98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="M99:N100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A94:B95"/>
+    <mergeCell ref="C94:D96"/>
+    <mergeCell ref="E94:L94"/>
+    <mergeCell ref="M94:N96"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="M82:N83"/>
+    <mergeCell ref="M84:N85"/>
+    <mergeCell ref="M86:N87"/>
+    <mergeCell ref="M88:N89"/>
+    <mergeCell ref="M90:N91"/>
+    <mergeCell ref="M92:N93"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="M70:N71"/>
+    <mergeCell ref="M72:N73"/>
+    <mergeCell ref="M74:N75"/>
+    <mergeCell ref="M76:N77"/>
+    <mergeCell ref="M78:N79"/>
+    <mergeCell ref="M80:N81"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C67:D69"/>
+    <mergeCell ref="E67:L67"/>
+    <mergeCell ref="M67:N69"/>
+    <mergeCell ref="A67:B68"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="K58:L59"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="A56:B59"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K54:L55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K56:L57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="A60:B63"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L61"/>
+    <mergeCell ref="E62:F63"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A52:B55"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="A44:B47"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="A48:B51"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="K48:L49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="K38:L39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A40:B43"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A36:B39"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A123:B124"/>
+    <mergeCell ref="C149:D150"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="K162:L173"/>
+    <mergeCell ref="C174:J174"/>
+    <mergeCell ref="K174:L176"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="K159:L161"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="A149:B150"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="I175:J175"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="A174:B175"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="A159:B160"/>
+    <mergeCell ref="A192:B193"/>
+    <mergeCell ref="C192:J192"/>
+    <mergeCell ref="C159:J159"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="N154:N155"/>
+    <mergeCell ref="M145:M146"/>
+    <mergeCell ref="N145:N146"/>
+    <mergeCell ref="M147:M148"/>
+    <mergeCell ref="N147:N148"/>
+    <mergeCell ref="M152:M153"/>
+    <mergeCell ref="N152:N153"/>
+    <mergeCell ref="N128:N129"/>
+    <mergeCell ref="N130:N131"/>
+    <mergeCell ref="N132:N133"/>
+    <mergeCell ref="N134:N135"/>
+    <mergeCell ref="N136:N137"/>
+    <mergeCell ref="M136:M137"/>
+    <mergeCell ref="M128:M129"/>
+    <mergeCell ref="M130:M131"/>
+    <mergeCell ref="M132:M133"/>
+    <mergeCell ref="M134:M135"/>
+    <mergeCell ref="M138:N139"/>
+    <mergeCell ref="A138:B139"/>
+    <mergeCell ref="C138:D139"/>
+    <mergeCell ref="E138:L138"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="M126:M127"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="C123:D124"/>
+    <mergeCell ref="A208:B209"/>
+    <mergeCell ref="C208:J208"/>
+    <mergeCell ref="K208:L209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="K177:L188"/>
+    <mergeCell ref="K192:L193"/>
+    <mergeCell ref="K194:L200"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="M141:M142"/>
+    <mergeCell ref="M143:M144"/>
+    <mergeCell ref="M154:M155"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A144"/>
     <mergeCell ref="M123:N124"/>
     <mergeCell ref="N126:N127"/>
     <mergeCell ref="E149:L149"/>
@@ -12021,413 +12428,6 @@
     <mergeCell ref="G62:H62"/>
     <mergeCell ref="N141:N142"/>
     <mergeCell ref="N143:N144"/>
-    <mergeCell ref="C123:D124"/>
-    <mergeCell ref="A208:B209"/>
-    <mergeCell ref="C208:J208"/>
-    <mergeCell ref="K208:L209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="K177:L188"/>
-    <mergeCell ref="K192:L193"/>
-    <mergeCell ref="K194:L200"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="M141:M142"/>
-    <mergeCell ref="M143:M144"/>
-    <mergeCell ref="M154:M155"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A138:B139"/>
-    <mergeCell ref="C138:D139"/>
-    <mergeCell ref="E138:L138"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="K139:L139"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="M126:M127"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="N154:N155"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="N145:N146"/>
-    <mergeCell ref="M147:M148"/>
-    <mergeCell ref="N147:N148"/>
-    <mergeCell ref="M152:M153"/>
-    <mergeCell ref="N152:N153"/>
-    <mergeCell ref="N128:N129"/>
-    <mergeCell ref="N130:N131"/>
-    <mergeCell ref="N132:N133"/>
-    <mergeCell ref="N134:N135"/>
-    <mergeCell ref="N136:N137"/>
-    <mergeCell ref="M136:M137"/>
-    <mergeCell ref="M128:M129"/>
-    <mergeCell ref="M130:M131"/>
-    <mergeCell ref="M132:M133"/>
-    <mergeCell ref="M134:M135"/>
-    <mergeCell ref="M138:N139"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="A159:B160"/>
-    <mergeCell ref="A192:B193"/>
-    <mergeCell ref="C192:J192"/>
-    <mergeCell ref="C159:J159"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="A174:B175"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A123:B124"/>
-    <mergeCell ref="C149:D150"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="K162:L173"/>
-    <mergeCell ref="C174:J174"/>
-    <mergeCell ref="K174:L176"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="K159:L161"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="A149:B150"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="I175:J175"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="I160:J160"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="K31:L32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K38:L39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="A40:B43"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A36:B39"/>
-    <mergeCell ref="A44:B47"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="A48:B51"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K44:L45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="K48:L49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F51"/>
-    <mergeCell ref="A60:B63"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L61"/>
-    <mergeCell ref="E62:F63"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A52:B55"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K54:L55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K56:L57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="C67:D69"/>
-    <mergeCell ref="E67:L67"/>
-    <mergeCell ref="M67:N69"/>
-    <mergeCell ref="A67:B68"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="K58:L59"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="A56:B59"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="M70:N71"/>
-    <mergeCell ref="M72:N73"/>
-    <mergeCell ref="M74:N75"/>
-    <mergeCell ref="M76:N77"/>
-    <mergeCell ref="M78:N79"/>
-    <mergeCell ref="M80:N81"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A94:B95"/>
-    <mergeCell ref="C94:D96"/>
-    <mergeCell ref="E94:L94"/>
-    <mergeCell ref="M94:N96"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="M82:N83"/>
-    <mergeCell ref="M84:N85"/>
-    <mergeCell ref="M86:N87"/>
-    <mergeCell ref="M88:N89"/>
-    <mergeCell ref="M90:N91"/>
-    <mergeCell ref="M92:N93"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="M97:N98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="M99:N100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="M101:N102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="M103:N104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="M105:N106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="M107:N108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="M109:N110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="M111:N112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="M117:N118"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="M119:N120"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="M113:N114"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="M115:N116"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="E219:F219"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="E123:L123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="K210:L210"/>
-    <mergeCell ref="K211:L211"/>
-    <mergeCell ref="K212:L212"/>
-    <mergeCell ref="K213:L213"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.59055118110236227" bottom="0.70866141732283472" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Shablon/HDO8108A.xlsx
+++ b/Shablon/HDO8108A.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="926">
   <si>
     <t>Параметр</t>
   </si>
@@ -1546,23 +1546,6 @@
     <t>ti1_4</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Протокол поверки № </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10/11-11-2022/</t>
-    </r>
-  </si>
-  <si>
     <t>odcv1_50_1</t>
   </si>
   <si>
@@ -3647,7 +3630,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3735,6 +3718,11 @@
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -3887,10 +3875,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4026,9 +4015,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4055,35 +4041,94 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4095,15 +4140,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4118,14 +4176,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4134,77 +4184,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4536,8 +4522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U243"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A205" zoomScale="115" zoomScaleNormal="90" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="N212" sqref="N212"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="90" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4550,22 +4536,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
@@ -4591,24 +4577,23 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="83" t="str">
+        <f>"Протокол поверки № 10/"&amp;D224&amp;"/"&amp;E6</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -4640,19 +4625,19 @@
       <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="30" t="s">
         <v>125</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>126</v>
       </c>
       <c r="J5" s="31"/>
@@ -4661,13 +4646,13 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="43" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="42" t="s">
         <v>127</v>
       </c>
       <c r="F6" s="31"/>
@@ -4680,12 +4665,12 @@
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="33">
         <v>2018</v>
       </c>
@@ -4699,12 +4684,12 @@
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="30" t="s">
         <v>117</v>
       </c>
@@ -4718,13 +4703,13 @@
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="43" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="42" t="s">
         <v>128</v>
       </c>
       <c r="F9" s="31"/>
@@ -4737,31 +4722,31 @@
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="30" t="s">
         <v>119</v>
       </c>
@@ -4831,20 +4816,20 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="58" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58" t="s">
+      <c r="F15" s="52"/>
+      <c r="G15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="52"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -4855,20 +4840,20 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="75" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="71" t="s">
+      <c r="F16" s="63"/>
+      <c r="G16" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="72"/>
+      <c r="H16" s="65"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -4879,20 +4864,20 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="75" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="75"/>
-      <c r="G17" s="71" t="s">
+      <c r="F17" s="63"/>
+      <c r="G17" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="72"/>
+      <c r="H17" s="65"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -4903,20 +4888,20 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="75" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="71" t="s">
+      <c r="F18" s="63"/>
+      <c r="G18" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="72"/>
+      <c r="H18" s="65"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -5135,942 +5120,942 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" s="16" customFormat="1" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58" t="s">
+      <c r="B30" s="52"/>
+      <c r="C30" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58" t="s">
+      <c r="D30" s="52"/>
+      <c r="E30" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="73" t="s">
+      <c r="F30" s="52"/>
+      <c r="G30" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="73"/>
-      <c r="I30" s="58" t="s">
+      <c r="H30" s="58"/>
+      <c r="I30" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58" t="s">
+      <c r="J30" s="52"/>
+      <c r="K30" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="58"/>
+      <c r="L30" s="52"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
     </row>
     <row r="31" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63">
+      <c r="A31" s="59">
         <v>1</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="51">
+      <c r="B31" s="60"/>
+      <c r="C31" s="50">
         <v>50</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51">
+      <c r="D31" s="50"/>
+      <c r="E31" s="50">
         <v>50</v>
       </c>
-      <c r="F31" s="51"/>
-      <c r="G31" s="57" t="s">
+      <c r="F31" s="50"/>
+      <c r="G31" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="H31" s="57"/>
-      <c r="I31" s="70" t="e">
+      <c r="H31" s="56"/>
+      <c r="I31" s="57" t="e">
         <f>G31-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J31" s="70"/>
-      <c r="K31" s="51" t="s">
+      <c r="J31" s="57"/>
+      <c r="K31" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="51"/>
+      <c r="L31" s="50"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
     </row>
     <row r="32" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="67"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="51">
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="50">
         <v>200</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="57" t="s">
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="H32" s="57"/>
-      <c r="I32" s="70" t="e">
+      <c r="H32" s="56"/>
+      <c r="I32" s="57" t="e">
         <f>G32-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J32" s="70"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
     </row>
     <row r="33" spans="1:16" s="16" customFormat="1" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58" t="s">
+      <c r="B33" s="52"/>
+      <c r="C33" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58" t="s">
+      <c r="D33" s="52"/>
+      <c r="E33" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="73" t="s">
+      <c r="F33" s="52"/>
+      <c r="G33" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="H33" s="73"/>
-      <c r="I33" s="58" t="s">
+      <c r="H33" s="58"/>
+      <c r="I33" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58" t="s">
+      <c r="J33" s="52"/>
+      <c r="K33" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="58"/>
+      <c r="L33" s="52"/>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
     </row>
     <row r="34" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="63">
+      <c r="A34" s="59">
         <v>1</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="51">
+      <c r="B34" s="60"/>
+      <c r="C34" s="50">
         <v>50</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51" t="s">
+      <c r="D34" s="50"/>
+      <c r="E34" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="57" t="s">
+      <c r="F34" s="50"/>
+      <c r="G34" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="H34" s="57"/>
-      <c r="I34" s="77" t="e">
+      <c r="H34" s="56"/>
+      <c r="I34" s="55" t="e">
         <f>(G34-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J34" s="77"/>
-      <c r="K34" s="51" t="s">
+      <c r="J34" s="55"/>
+      <c r="K34" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="51"/>
+      <c r="L34" s="50"/>
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
     </row>
     <row r="35" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="67"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="51">
+      <c r="A35" s="61"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="50">
         <v>200</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="57" t="s">
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="H35" s="57"/>
-      <c r="I35" s="77" t="e">
+      <c r="H35" s="56"/>
+      <c r="I35" s="55" t="e">
         <f>(G35-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J35" s="77"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
     </row>
     <row r="36" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="51">
+      <c r="A36" s="50">
         <v>2</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51">
+      <c r="B36" s="50"/>
+      <c r="C36" s="50">
         <v>50</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51">
+      <c r="D36" s="50"/>
+      <c r="E36" s="50">
         <v>50</v>
       </c>
-      <c r="F36" s="51"/>
-      <c r="G36" s="57" t="s">
+      <c r="F36" s="50"/>
+      <c r="G36" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="57"/>
-      <c r="I36" s="77" t="e">
+      <c r="H36" s="56"/>
+      <c r="I36" s="55" t="e">
         <f>G36-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J36" s="77"/>
-      <c r="K36" s="51" t="s">
+      <c r="J36" s="55"/>
+      <c r="K36" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="51"/>
+      <c r="L36" s="50"/>
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
       <c r="O36" s="17"/>
       <c r="P36" s="17"/>
     </row>
     <row r="37" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51">
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50">
         <v>200</v>
       </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="57" t="s">
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="H37" s="57"/>
-      <c r="I37" s="77" t="e">
+      <c r="H37" s="56"/>
+      <c r="I37" s="55" t="e">
         <f>G37-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J37" s="77"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
     </row>
     <row r="38" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="51"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51">
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50">
         <v>50</v>
       </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51" t="s">
+      <c r="D38" s="50"/>
+      <c r="E38" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="57" t="s">
+      <c r="F38" s="50"/>
+      <c r="G38" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="H38" s="57"/>
-      <c r="I38" s="77" t="e">
+      <c r="H38" s="56"/>
+      <c r="I38" s="55" t="e">
         <f>(G38-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J38" s="77"/>
-      <c r="K38" s="51" t="s">
+      <c r="J38" s="55"/>
+      <c r="K38" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L38" s="51"/>
+      <c r="L38" s="50"/>
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
       <c r="P38" s="17"/>
     </row>
     <row r="39" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50">
         <v>200</v>
       </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="57" t="s">
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="H39" s="57"/>
-      <c r="I39" s="77" t="e">
+      <c r="H39" s="56"/>
+      <c r="I39" s="55" t="e">
         <f>(G39-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J39" s="77"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
       <c r="O39" s="17"/>
       <c r="P39" s="17"/>
     </row>
     <row r="40" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="51">
+      <c r="A40" s="50">
         <v>3</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51">
+      <c r="B40" s="50"/>
+      <c r="C40" s="50">
         <v>50</v>
       </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51">
+      <c r="D40" s="50"/>
+      <c r="E40" s="50">
         <v>50</v>
       </c>
-      <c r="F40" s="51"/>
-      <c r="G40" s="57" t="s">
+      <c r="F40" s="50"/>
+      <c r="G40" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="H40" s="57"/>
-      <c r="I40" s="77" t="e">
+      <c r="H40" s="56"/>
+      <c r="I40" s="55" t="e">
         <f>G40-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J40" s="77"/>
-      <c r="K40" s="51" t="s">
+      <c r="J40" s="55"/>
+      <c r="K40" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L40" s="51"/>
+      <c r="L40" s="50"/>
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
       <c r="O40" s="17"/>
       <c r="P40" s="17"/>
     </row>
     <row r="41" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="51"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51">
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50">
         <v>200</v>
       </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="57" t="s">
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="H41" s="57"/>
-      <c r="I41" s="77" t="e">
+      <c r="H41" s="56"/>
+      <c r="I41" s="55" t="e">
         <f>G41-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J41" s="77"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
       <c r="O41" s="17"/>
       <c r="P41" s="17"/>
     </row>
     <row r="42" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51">
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50">
         <v>50</v>
       </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51" t="s">
+      <c r="D42" s="50"/>
+      <c r="E42" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="51"/>
-      <c r="G42" s="57" t="s">
+      <c r="F42" s="50"/>
+      <c r="G42" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="H42" s="57"/>
-      <c r="I42" s="77" t="e">
+      <c r="H42" s="56"/>
+      <c r="I42" s="55" t="e">
         <f>(G42-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J42" s="77"/>
-      <c r="K42" s="51" t="s">
+      <c r="J42" s="55"/>
+      <c r="K42" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L42" s="51"/>
+      <c r="L42" s="50"/>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
       <c r="P42" s="17"/>
     </row>
     <row r="43" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51">
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50">
         <v>200</v>
       </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="57" t="s">
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="H43" s="57"/>
-      <c r="I43" s="77" t="e">
+      <c r="H43" s="56"/>
+      <c r="I43" s="55" t="e">
         <f>(G43-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J43" s="77"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
       <c r="O43" s="17"/>
       <c r="P43" s="17"/>
     </row>
     <row r="44" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="51">
+      <c r="A44" s="50">
         <v>4</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51">
+      <c r="B44" s="50"/>
+      <c r="C44" s="50">
         <v>50</v>
       </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51">
+      <c r="D44" s="50"/>
+      <c r="E44" s="50">
         <v>50</v>
       </c>
-      <c r="F44" s="51"/>
-      <c r="G44" s="57" t="s">
+      <c r="F44" s="50"/>
+      <c r="G44" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="H44" s="57"/>
-      <c r="I44" s="77" t="e">
+      <c r="H44" s="56"/>
+      <c r="I44" s="55" t="e">
         <f>G44-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J44" s="77"/>
-      <c r="K44" s="51" t="s">
+      <c r="J44" s="55"/>
+      <c r="K44" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="51"/>
+      <c r="L44" s="50"/>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
     </row>
     <row r="45" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="51"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51">
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50">
         <v>200</v>
       </c>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="57" t="s">
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="H45" s="57"/>
-      <c r="I45" s="77" t="e">
+      <c r="H45" s="56"/>
+      <c r="I45" s="55" t="e">
         <f>G45-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J45" s="77"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
     </row>
     <row r="46" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51">
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50">
         <v>50</v>
       </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51" t="s">
+      <c r="D46" s="50"/>
+      <c r="E46" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="51"/>
-      <c r="G46" s="57" t="s">
+      <c r="F46" s="50"/>
+      <c r="G46" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H46" s="57"/>
-      <c r="I46" s="77" t="e">
+      <c r="H46" s="56"/>
+      <c r="I46" s="55" t="e">
         <f>(G46-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J46" s="77"/>
-      <c r="K46" s="51" t="s">
+      <c r="J46" s="55"/>
+      <c r="K46" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L46" s="51"/>
+      <c r="L46" s="50"/>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
     </row>
     <row r="47" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51">
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50">
         <v>200</v>
       </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="57" t="s">
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="H47" s="57"/>
-      <c r="I47" s="77" t="e">
+      <c r="H47" s="56"/>
+      <c r="I47" s="55" t="e">
         <f>(G47-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J47" s="77"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
       <c r="O47" s="17"/>
       <c r="P47" s="17"/>
     </row>
     <row r="48" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="51">
+      <c r="A48" s="50">
         <v>5</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51">
+      <c r="B48" s="50"/>
+      <c r="C48" s="50">
         <v>50</v>
       </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51">
+      <c r="D48" s="50"/>
+      <c r="E48" s="50">
         <v>50</v>
       </c>
-      <c r="F48" s="51"/>
-      <c r="G48" s="57" t="s">
+      <c r="F48" s="50"/>
+      <c r="G48" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="H48" s="57"/>
-      <c r="I48" s="77" t="e">
+      <c r="H48" s="56"/>
+      <c r="I48" s="55" t="e">
         <f>G48-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J48" s="77"/>
-      <c r="K48" s="51" t="s">
+      <c r="J48" s="55"/>
+      <c r="K48" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="51"/>
+      <c r="L48" s="50"/>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
       <c r="O48" s="17"/>
       <c r="P48" s="17"/>
     </row>
     <row r="49" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="51"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51">
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50">
         <v>200</v>
       </c>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="57" t="s">
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="H49" s="57"/>
-      <c r="I49" s="77" t="e">
+      <c r="H49" s="56"/>
+      <c r="I49" s="55" t="e">
         <f>G49-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J49" s="77"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
       <c r="O49" s="17"/>
       <c r="P49" s="17"/>
     </row>
     <row r="50" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="51"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50">
         <v>50</v>
       </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51" t="s">
+      <c r="D50" s="50"/>
+      <c r="E50" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="51"/>
-      <c r="G50" s="57" t="s">
+      <c r="F50" s="50"/>
+      <c r="G50" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="H50" s="57"/>
-      <c r="I50" s="77" t="e">
+      <c r="H50" s="56"/>
+      <c r="I50" s="55" t="e">
         <f>(G50-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J50" s="77"/>
-      <c r="K50" s="51" t="s">
+      <c r="J50" s="55"/>
+      <c r="K50" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L50" s="51"/>
+      <c r="L50" s="50"/>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
       <c r="O50" s="17"/>
       <c r="P50" s="17"/>
     </row>
     <row r="51" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51">
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50">
         <v>200</v>
       </c>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="57" t="s">
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="H51" s="57"/>
-      <c r="I51" s="77" t="e">
+      <c r="H51" s="56"/>
+      <c r="I51" s="55" t="e">
         <f>(G51-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J51" s="77"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
       <c r="O51" s="17"/>
       <c r="P51" s="17"/>
     </row>
     <row r="52" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="51">
+      <c r="A52" s="50">
         <v>6</v>
       </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51">
+      <c r="B52" s="50"/>
+      <c r="C52" s="50">
         <v>50</v>
       </c>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51">
+      <c r="D52" s="50"/>
+      <c r="E52" s="50">
         <v>50</v>
       </c>
-      <c r="F52" s="51"/>
-      <c r="G52" s="57" t="s">
+      <c r="F52" s="50"/>
+      <c r="G52" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="H52" s="57"/>
-      <c r="I52" s="77" t="e">
+      <c r="H52" s="56"/>
+      <c r="I52" s="55" t="e">
         <f>G52-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J52" s="77"/>
-      <c r="K52" s="51" t="s">
+      <c r="J52" s="55"/>
+      <c r="K52" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L52" s="51"/>
+      <c r="L52" s="50"/>
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
       <c r="O52" s="17"/>
       <c r="P52" s="17"/>
     </row>
     <row r="53" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="51"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51">
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50">
         <v>200</v>
       </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="57" t="s">
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="H53" s="57"/>
-      <c r="I53" s="77" t="e">
+      <c r="H53" s="56"/>
+      <c r="I53" s="55" t="e">
         <f>G53-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J53" s="77"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="51"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
       <c r="O53" s="17"/>
       <c r="P53" s="17"/>
     </row>
     <row r="54" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51">
+      <c r="A54" s="50"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50">
         <v>50</v>
       </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51" t="s">
+      <c r="D54" s="50"/>
+      <c r="E54" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="51"/>
-      <c r="G54" s="57" t="s">
+      <c r="F54" s="50"/>
+      <c r="G54" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="H54" s="57"/>
-      <c r="I54" s="77" t="e">
+      <c r="H54" s="56"/>
+      <c r="I54" s="55" t="e">
         <f>(G54-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J54" s="77"/>
-      <c r="K54" s="51" t="s">
+      <c r="J54" s="55"/>
+      <c r="K54" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L54" s="51"/>
+      <c r="L54" s="50"/>
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
       <c r="O54" s="17"/>
       <c r="P54" s="17"/>
     </row>
     <row r="55" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="51"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51">
+      <c r="A55" s="50"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50">
         <v>200</v>
       </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="57" t="s">
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="H55" s="57"/>
-      <c r="I55" s="77" t="e">
+      <c r="H55" s="56"/>
+      <c r="I55" s="55" t="e">
         <f>(G55-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J55" s="77"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
       <c r="O55" s="17"/>
       <c r="P55" s="17"/>
     </row>
     <row r="56" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="51">
+      <c r="A56" s="50">
         <v>7</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51">
+      <c r="B56" s="50"/>
+      <c r="C56" s="50">
         <v>50</v>
       </c>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51">
+      <c r="D56" s="50"/>
+      <c r="E56" s="50">
         <v>50</v>
       </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="57" t="s">
+      <c r="F56" s="50"/>
+      <c r="G56" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="H56" s="57"/>
-      <c r="I56" s="77" t="e">
+      <c r="H56" s="56"/>
+      <c r="I56" s="55" t="e">
         <f>G56-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J56" s="77"/>
-      <c r="K56" s="51" t="s">
+      <c r="J56" s="55"/>
+      <c r="K56" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L56" s="51"/>
+      <c r="L56" s="50"/>
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
       <c r="O56" s="17"/>
       <c r="P56" s="17"/>
     </row>
     <row r="57" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="51"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51">
+      <c r="A57" s="50"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50">
         <v>200</v>
       </c>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="57" t="s">
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="H57" s="57"/>
-      <c r="I57" s="77" t="e">
+      <c r="H57" s="56"/>
+      <c r="I57" s="55" t="e">
         <f>G57-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J57" s="77"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="51"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
       <c r="O57" s="17"/>
       <c r="P57" s="17"/>
     </row>
     <row r="58" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="51"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51">
+      <c r="A58" s="50"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50">
         <v>50</v>
       </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51" t="s">
+      <c r="D58" s="50"/>
+      <c r="E58" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="51"/>
-      <c r="G58" s="57" t="s">
+      <c r="F58" s="50"/>
+      <c r="G58" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="H58" s="57"/>
-      <c r="I58" s="77" t="e">
+      <c r="H58" s="56"/>
+      <c r="I58" s="55" t="e">
         <f>(G58-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J58" s="77"/>
-      <c r="K58" s="51" t="s">
+      <c r="J58" s="55"/>
+      <c r="K58" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L58" s="51"/>
+      <c r="L58" s="50"/>
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
       <c r="O58" s="17"/>
       <c r="P58" s="17"/>
     </row>
     <row r="59" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="51"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51">
+      <c r="A59" s="50"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50">
         <v>200</v>
       </c>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="57" t="s">
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="H59" s="57"/>
-      <c r="I59" s="77" t="e">
+      <c r="H59" s="56"/>
+      <c r="I59" s="55" t="e">
         <f>(G59-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J59" s="77"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="51"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
       <c r="O59" s="17"/>
       <c r="P59" s="17"/>
     </row>
     <row r="60" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="51">
+      <c r="A60" s="50">
         <v>8</v>
       </c>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51">
+      <c r="B60" s="50"/>
+      <c r="C60" s="50">
         <v>50</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51">
+      <c r="D60" s="50"/>
+      <c r="E60" s="50">
         <v>50</v>
       </c>
-      <c r="F60" s="51"/>
-      <c r="G60" s="57" t="s">
+      <c r="F60" s="50"/>
+      <c r="G60" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="H60" s="57"/>
-      <c r="I60" s="77" t="e">
+      <c r="H60" s="56"/>
+      <c r="I60" s="55" t="e">
         <f>G60-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J60" s="77"/>
-      <c r="K60" s="51" t="s">
+      <c r="J60" s="55"/>
+      <c r="K60" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L60" s="51"/>
+      <c r="L60" s="50"/>
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
       <c r="O60" s="17"/>
       <c r="P60" s="17"/>
     </row>
     <row r="61" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="51"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51">
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50">
         <v>200</v>
       </c>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="57" t="s">
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="H61" s="57"/>
-      <c r="I61" s="77" t="e">
+      <c r="H61" s="56"/>
+      <c r="I61" s="55" t="e">
         <f>G61-50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J61" s="77"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="51"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
     </row>
     <row r="62" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="51"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51">
+      <c r="A62" s="50"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50">
         <v>50</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51" t="s">
+      <c r="D62" s="50"/>
+      <c r="E62" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="51"/>
-      <c r="G62" s="57" t="s">
+      <c r="F62" s="50"/>
+      <c r="G62" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="H62" s="57"/>
-      <c r="I62" s="77" t="e">
+      <c r="H62" s="56"/>
+      <c r="I62" s="55" t="e">
         <f>(G62-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J62" s="77"/>
-      <c r="K62" s="51" t="s">
+      <c r="J62" s="55"/>
+      <c r="K62" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L62" s="51"/>
+      <c r="L62" s="50"/>
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
     </row>
     <row r="63" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="51"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51">
+      <c r="A63" s="50"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50">
         <v>200</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="57" t="s">
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="H63" s="57"/>
-      <c r="I63" s="77" t="e">
+      <c r="H63" s="56"/>
+      <c r="I63" s="55" t="e">
         <f>(G63-1)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J63" s="77"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="51"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="50"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
       <c r="O63" s="17"/>
@@ -6133,54 +6118,54 @@
       <c r="P66" s="12"/>
     </row>
     <row r="67" spans="1:16" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="58" t="s">
+      <c r="A67" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58" t="s">
+      <c r="B67" s="52"/>
+      <c r="C67" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58" t="s">
+      <c r="D67" s="52"/>
+      <c r="E67" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="58"/>
-      <c r="M67" s="58" t="s">
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="N67" s="58"/>
+      <c r="N67" s="52"/>
       <c r="O67" s="19"/>
       <c r="P67" s="19"/>
     </row>
     <row r="68" spans="1:16" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="58"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58" t="s">
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58" t="s">
+      <c r="F68" s="52"/>
+      <c r="G68" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="H68" s="58"/>
-      <c r="I68" s="58" t="s">
+      <c r="H68" s="52"/>
+      <c r="I68" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J68" s="58"/>
-      <c r="K68" s="58" t="s">
+      <c r="J68" s="52"/>
+      <c r="K68" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="L68" s="58"/>
-      <c r="M68" s="58"/>
-      <c r="N68" s="58"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="52"/>
       <c r="O68" s="19"/>
       <c r="P68" s="19"/>
     </row>
@@ -6191,8 +6176,8 @@
       <c r="B69" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
       <c r="E69" s="23" t="s">
         <v>30</v>
       </c>
@@ -6217,996 +6202,996 @@
       <c r="L69" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M69" s="58"/>
-      <c r="N69" s="58"/>
+      <c r="M69" s="52"/>
+      <c r="N69" s="52"/>
       <c r="O69" s="19"/>
       <c r="P69" s="19"/>
     </row>
     <row r="70" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="78" t="s">
+      <c r="C70" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="51"/>
-      <c r="E70" s="44" t="s">
+      <c r="D70" s="50"/>
+      <c r="E70" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="F70" s="44" t="s">
+      <c r="F70" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="G70" s="44" t="s">
+      <c r="G70" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="H70" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="H70" s="44" t="s">
+      <c r="I70" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="I70" s="44" t="s">
+      <c r="J70" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="J70" s="44" t="s">
+      <c r="K70" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="K70" s="44" t="s">
+      <c r="L70" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="L70" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="M70" s="51" t="s">
+      <c r="M70" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="N70" s="51"/>
+      <c r="N70" s="50"/>
       <c r="O70" s="17"/>
       <c r="P70" s="17"/>
     </row>
     <row r="71" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="51"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51">
+      <c r="A71" s="50"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="50">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="D71" s="51"/>
-      <c r="E71" s="44" t="s">
+      <c r="D71" s="50"/>
+      <c r="E71" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="F71" s="44" t="s">
+      <c r="F71" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="G71" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="H71" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="I71" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="J71" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="K71" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="L71" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="M71" s="51"/>
-      <c r="N71" s="51"/>
+      <c r="G71" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="H71" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="I71" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="J71" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="K71" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="L71" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="M71" s="50"/>
+      <c r="N71" s="50"/>
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
     </row>
     <row r="72" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="51" t="s">
+      <c r="A72" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="78" t="s">
+      <c r="C72" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="51"/>
-      <c r="E72" s="44" t="s">
+      <c r="D72" s="50"/>
+      <c r="E72" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="F72" s="44" t="s">
+      <c r="F72" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="G72" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="H72" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="I72" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="J72" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="K72" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="L72" s="44" t="s">
-        <v>371</v>
-      </c>
-      <c r="M72" s="51" t="s">
+      <c r="G72" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="H72" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="I72" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="J72" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="K72" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="L72" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="M72" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="N72" s="51"/>
+      <c r="N72" s="50"/>
       <c r="O72" s="17"/>
       <c r="P72" s="17"/>
     </row>
     <row r="73" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="51"/>
-      <c r="B73" s="51"/>
-      <c r="C73" s="51">
+      <c r="A73" s="50"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="50">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="D73" s="51"/>
-      <c r="E73" s="44" t="s">
+      <c r="D73" s="50"/>
+      <c r="E73" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="F73" s="44" t="s">
+      <c r="F73" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="G73" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="H73" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="I73" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="J73" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="K73" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="L73" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="M73" s="51"/>
-      <c r="N73" s="51"/>
+      <c r="G73" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="H73" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="I73" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="J73" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="K73" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="L73" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="M73" s="50"/>
+      <c r="N73" s="50"/>
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
     </row>
     <row r="74" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="51" t="s">
+      <c r="A74" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="78" t="s">
+      <c r="C74" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D74" s="51"/>
-      <c r="E74" s="44" t="s">
+      <c r="D74" s="50"/>
+      <c r="E74" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="F74" s="44" t="s">
+      <c r="F74" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="G74" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="H74" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="I74" s="44" t="s">
-        <v>316</v>
-      </c>
-      <c r="J74" s="44" t="s">
-        <v>333</v>
-      </c>
-      <c r="K74" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="L74" s="44" t="s">
-        <v>373</v>
-      </c>
-      <c r="M74" s="51" t="s">
+      <c r="G74" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="H74" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="I74" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="J74" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="K74" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="L74" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="M74" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="N74" s="51"/>
+      <c r="N74" s="50"/>
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
     </row>
     <row r="75" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="51"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="79">
+      <c r="A75" s="50"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="54">
         <v>-0.03</v>
       </c>
-      <c r="D75" s="79"/>
-      <c r="E75" s="44" t="s">
+      <c r="D75" s="54"/>
+      <c r="E75" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="F75" s="44" t="s">
+      <c r="F75" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="G75" s="44" t="s">
-        <v>277</v>
-      </c>
-      <c r="H75" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="I75" s="44" t="s">
-        <v>317</v>
-      </c>
-      <c r="J75" s="44" t="s">
-        <v>334</v>
-      </c>
-      <c r="K75" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="L75" s="44" t="s">
-        <v>374</v>
-      </c>
-      <c r="M75" s="51"/>
-      <c r="N75" s="51"/>
+      <c r="G75" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="H75" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="I75" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="J75" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="K75" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="L75" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="M75" s="50"/>
+      <c r="N75" s="50"/>
       <c r="O75" s="17"/>
       <c r="P75" s="17"/>
     </row>
     <row r="76" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="51" t="s">
+      <c r="A76" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="51" t="s">
+      <c r="B76" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="78" t="s">
+      <c r="C76" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D76" s="51"/>
-      <c r="E76" s="44" t="s">
+      <c r="D76" s="50"/>
+      <c r="E76" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="F76" s="44" t="s">
+      <c r="F76" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="G76" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="H76" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="I76" s="44" t="s">
-        <v>318</v>
-      </c>
-      <c r="J76" s="44" t="s">
-        <v>335</v>
-      </c>
-      <c r="K76" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="L76" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="M76" s="51" t="s">
+      <c r="G76" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="H76" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="I76" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="J76" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="K76" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="L76" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="M76" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="N76" s="51"/>
+      <c r="N76" s="50"/>
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
     </row>
     <row r="77" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="51"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51">
+      <c r="A77" s="50"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="50">
         <v>-0.06</v>
       </c>
-      <c r="D77" s="51"/>
-      <c r="E77" s="44" t="s">
+      <c r="D77" s="50"/>
+      <c r="E77" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="F77" s="44" t="s">
+      <c r="F77" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="G77" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="H77" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="I77" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="J77" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="K77" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="L77" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="M77" s="51"/>
-      <c r="N77" s="51"/>
+      <c r="G77" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="H77" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="I77" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="J77" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="K77" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="L77" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="M77" s="50"/>
+      <c r="N77" s="50"/>
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
     </row>
     <row r="78" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="51" t="s">
+      <c r="A78" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="78" t="s">
+      <c r="C78" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D78" s="51"/>
-      <c r="E78" s="44" t="s">
+      <c r="D78" s="50"/>
+      <c r="E78" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="F78" s="44" t="s">
+      <c r="F78" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="G78" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="H78" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="I78" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="J78" s="44" t="s">
-        <v>337</v>
-      </c>
-      <c r="K78" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="L78" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="M78" s="51" t="s">
+      <c r="G78" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="H78" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="I78" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="J78" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="K78" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="L78" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="M78" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="N78" s="51"/>
+      <c r="N78" s="50"/>
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
     </row>
     <row r="79" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="51"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51">
+      <c r="A79" s="50"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50">
         <v>-0.15</v>
       </c>
-      <c r="D79" s="51"/>
-      <c r="E79" s="44" t="s">
+      <c r="D79" s="50"/>
+      <c r="E79" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="F79" s="44" t="s">
+      <c r="F79" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="G79" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="H79" s="44" t="s">
-        <v>298</v>
-      </c>
-      <c r="I79" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="J79" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="K79" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="L79" s="44" t="s">
-        <v>378</v>
-      </c>
-      <c r="M79" s="51"/>
-      <c r="N79" s="51"/>
+      <c r="G79" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="H79" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="I79" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="J79" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="K79" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="L79" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="M79" s="50"/>
+      <c r="N79" s="50"/>
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
     </row>
     <row r="80" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="51" t="s">
+      <c r="A80" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B80" s="51" t="s">
+      <c r="B80" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C80" s="78" t="s">
+      <c r="C80" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D80" s="51"/>
-      <c r="E80" s="44" t="s">
+      <c r="D80" s="50"/>
+      <c r="E80" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="F80" s="44" t="s">
+      <c r="F80" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="G80" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="H80" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="I80" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="J80" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="K80" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="L80" s="44" t="s">
-        <v>379</v>
-      </c>
-      <c r="M80" s="51" t="s">
+      <c r="G80" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="H80" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="I80" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="J80" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="K80" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="L80" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="M80" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="N80" s="51"/>
+      <c r="N80" s="50"/>
       <c r="O80" s="17"/>
       <c r="P80" s="17"/>
     </row>
     <row r="81" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="51"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="79">
+      <c r="A81" s="50"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="54">
         <v>-0.3</v>
       </c>
-      <c r="D81" s="79"/>
-      <c r="E81" s="44" t="s">
+      <c r="D81" s="54"/>
+      <c r="E81" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="F81" s="44" t="s">
+      <c r="F81" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="G81" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="H81" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="I81" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="J81" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="K81" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="L81" s="44" t="s">
-        <v>380</v>
-      </c>
-      <c r="M81" s="51"/>
-      <c r="N81" s="51"/>
+      <c r="G81" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="H81" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="I81" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="J81" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="K81" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="L81" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="M81" s="50"/>
+      <c r="N81" s="50"/>
       <c r="O81" s="17"/>
       <c r="P81" s="17"/>
     </row>
     <row r="82" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="51" t="s">
+      <c r="A82" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B82" s="51" t="s">
+      <c r="B82" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C82" s="78" t="s">
+      <c r="C82" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D82" s="51"/>
-      <c r="E82" s="44" t="s">
+      <c r="D82" s="50"/>
+      <c r="E82" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="F82" s="44" t="s">
+      <c r="F82" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="G82" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="H82" s="44" t="s">
-        <v>301</v>
-      </c>
-      <c r="I82" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="J82" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="K82" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="L82" s="44" t="s">
-        <v>381</v>
-      </c>
-      <c r="M82" s="51" t="s">
+      <c r="G82" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="H82" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I82" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="J82" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="K82" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="L82" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="M82" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="N82" s="51"/>
+      <c r="N82" s="50"/>
       <c r="O82" s="17"/>
       <c r="P82" s="17"/>
     </row>
     <row r="83" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="51"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="79">
+      <c r="A83" s="50"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="54">
         <v>-0.6</v>
       </c>
-      <c r="D83" s="79"/>
-      <c r="E83" s="44" t="s">
+      <c r="D83" s="54"/>
+      <c r="E83" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="F83" s="44" t="s">
+      <c r="F83" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="G83" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="H83" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="I83" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="J83" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="K83" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="L83" s="44" t="s">
-        <v>382</v>
-      </c>
-      <c r="M83" s="51"/>
-      <c r="N83" s="51"/>
+      <c r="G83" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="H83" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="I83" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="J83" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="K83" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="L83" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="M83" s="50"/>
+      <c r="N83" s="50"/>
       <c r="O83" s="17"/>
       <c r="P83" s="17"/>
     </row>
     <row r="84" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="51" t="s">
+      <c r="A84" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="51" t="s">
+      <c r="B84" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="78" t="s">
+      <c r="C84" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D84" s="51"/>
-      <c r="E84" s="44" t="s">
+      <c r="D84" s="50"/>
+      <c r="E84" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="F84" s="44" t="s">
+      <c r="F84" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="G84" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="H84" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="I84" s="44" t="s">
-        <v>326</v>
-      </c>
-      <c r="J84" s="44" t="s">
-        <v>343</v>
-      </c>
-      <c r="K84" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="L84" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="M84" s="51" t="s">
+      <c r="G84" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="H84" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="I84" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="J84" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="K84" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="L84" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="M84" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="N84" s="51"/>
+      <c r="N84" s="50"/>
       <c r="O84" s="17"/>
       <c r="P84" s="17"/>
     </row>
     <row r="85" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="51"/>
-      <c r="B85" s="51"/>
-      <c r="C85" s="51">
+      <c r="A85" s="50"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="50">
         <v>-1.5</v>
       </c>
-      <c r="D85" s="51"/>
-      <c r="E85" s="44" t="s">
+      <c r="D85" s="50"/>
+      <c r="E85" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="F85" s="44" t="s">
+      <c r="F85" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="G85" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="H85" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="I85" s="44" t="s">
-        <v>327</v>
-      </c>
-      <c r="J85" s="44" t="s">
-        <v>344</v>
-      </c>
-      <c r="K85" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="L85" s="44" t="s">
-        <v>384</v>
-      </c>
-      <c r="M85" s="51"/>
-      <c r="N85" s="51"/>
+      <c r="G85" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="H85" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="I85" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="J85" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="K85" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="L85" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="M85" s="50"/>
+      <c r="N85" s="50"/>
       <c r="O85" s="17"/>
       <c r="P85" s="17"/>
     </row>
     <row r="86" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="51" t="s">
+      <c r="A86" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="78" t="s">
+      <c r="C86" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D86" s="51"/>
-      <c r="E86" s="44" t="s">
+      <c r="D86" s="50"/>
+      <c r="E86" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="F86" s="44" t="s">
+      <c r="F86" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="G86" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="H86" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I86" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="J86" s="44" t="s">
-        <v>345</v>
-      </c>
-      <c r="K86" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="L86" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="M86" s="51" t="s">
+      <c r="G86" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="H86" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="I86" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="J86" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="K86" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="L86" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="M86" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="N86" s="51"/>
+      <c r="N86" s="50"/>
       <c r="O86" s="17"/>
       <c r="P86" s="17"/>
     </row>
     <row r="87" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="51"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="80">
+      <c r="A87" s="50"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="53">
         <v>-3</v>
       </c>
-      <c r="D87" s="80"/>
-      <c r="E87" s="44" t="s">
+      <c r="D87" s="53"/>
+      <c r="E87" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="F87" s="44" t="s">
+      <c r="F87" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="G87" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="H87" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="I87" s="44" t="s">
-        <v>329</v>
-      </c>
-      <c r="J87" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="K87" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="L87" s="44" t="s">
-        <v>386</v>
-      </c>
-      <c r="M87" s="51"/>
-      <c r="N87" s="51"/>
+      <c r="G87" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="H87" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="I87" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="J87" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="K87" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="L87" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="M87" s="50"/>
+      <c r="N87" s="50"/>
       <c r="O87" s="17"/>
       <c r="P87" s="17"/>
     </row>
     <row r="88" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B88" s="51" t="s">
+      <c r="A88" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C88" s="78" t="s">
+      <c r="C88" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D88" s="51"/>
-      <c r="E88" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F88" s="44" t="s">
+      <c r="D88" s="50"/>
+      <c r="E88" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F88" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="G88" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H88" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="I88" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="J88" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="K88" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="L88" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="M88" s="51" t="s">
+      <c r="G88" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H88" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="I88" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J88" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="K88" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L88" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="M88" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="N88" s="51"/>
+      <c r="N88" s="50"/>
       <c r="O88" s="17"/>
       <c r="P88" s="17"/>
     </row>
     <row r="89" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="51"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="80">
+      <c r="A89" s="50"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="53">
         <v>-6</v>
       </c>
-      <c r="D89" s="80"/>
-      <c r="E89" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F89" s="44" t="s">
+      <c r="D89" s="53"/>
+      <c r="E89" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F89" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="G89" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H89" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="I89" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="J89" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="K89" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="L89" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="M89" s="51"/>
-      <c r="N89" s="51"/>
+      <c r="G89" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H89" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="I89" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J89" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="K89" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L89" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="M89" s="50"/>
+      <c r="N89" s="50"/>
       <c r="O89" s="17"/>
       <c r="P89" s="17"/>
     </row>
     <row r="90" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B90" s="51" t="s">
+      <c r="A90" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C90" s="78" t="s">
+      <c r="C90" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D90" s="51"/>
-      <c r="E90" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F90" s="44" t="s">
+      <c r="D90" s="50"/>
+      <c r="E90" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F90" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="G90" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H90" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="I90" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="J90" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="K90" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="L90" s="44" t="s">
-        <v>389</v>
-      </c>
-      <c r="M90" s="51" t="s">
+      <c r="G90" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H90" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="I90" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J90" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="K90" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L90" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="M90" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N90" s="51"/>
+      <c r="N90" s="50"/>
       <c r="O90" s="17"/>
       <c r="P90" s="17"/>
     </row>
     <row r="91" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="51"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="80">
+      <c r="A91" s="50"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="53">
         <v>-15</v>
       </c>
-      <c r="D91" s="80"/>
-      <c r="E91" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F91" s="44" t="s">
+      <c r="D91" s="53"/>
+      <c r="E91" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F91" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="G91" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H91" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="I91" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="J91" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="K91" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="L91" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="M91" s="51"/>
-      <c r="N91" s="51"/>
+      <c r="G91" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H91" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="I91" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J91" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K91" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L91" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="M91" s="50"/>
+      <c r="N91" s="50"/>
       <c r="O91" s="17"/>
       <c r="P91" s="17"/>
     </row>
     <row r="92" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B92" s="51" t="s">
+      <c r="A92" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C92" s="78" t="s">
+      <c r="C92" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D92" s="51"/>
-      <c r="E92" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F92" s="44" t="s">
+      <c r="D92" s="50"/>
+      <c r="E92" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F92" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="G92" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H92" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="I92" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="J92" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="K92" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="L92" s="44" t="s">
-        <v>391</v>
-      </c>
-      <c r="M92" s="51" t="s">
+      <c r="G92" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H92" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="I92" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J92" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="K92" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L92" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="M92" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="N92" s="51"/>
+      <c r="N92" s="50"/>
       <c r="O92" s="17"/>
       <c r="P92" s="17"/>
     </row>
     <row r="93" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="51"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="80">
+      <c r="A93" s="50"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="53">
         <v>-30</v>
       </c>
-      <c r="D93" s="80"/>
-      <c r="E93" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F93" s="44" t="s">
+      <c r="D93" s="53"/>
+      <c r="E93" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F93" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="G93" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H93" s="44" t="s">
-        <v>312</v>
-      </c>
-      <c r="I93" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="J93" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="K93" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="L93" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="M93" s="51"/>
-      <c r="N93" s="51"/>
+      <c r="G93" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H93" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="I93" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J93" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="K93" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L93" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="M93" s="50"/>
+      <c r="N93" s="50"/>
       <c r="O93" s="17"/>
       <c r="P93" s="17"/>
     </row>
     <row r="94" spans="1:16" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="58" t="s">
+      <c r="A94" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="58"/>
-      <c r="C94" s="58" t="s">
+      <c r="B94" s="52"/>
+      <c r="C94" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58" t="s">
+      <c r="D94" s="52"/>
+      <c r="E94" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="58"/>
-      <c r="L94" s="58"/>
-      <c r="M94" s="58" t="s">
+      <c r="F94" s="52"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="52"/>
+      <c r="J94" s="52"/>
+      <c r="K94" s="52"/>
+      <c r="L94" s="52"/>
+      <c r="M94" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="N94" s="58"/>
+      <c r="N94" s="52"/>
       <c r="O94" s="19"/>
       <c r="P94" s="19"/>
     </row>
     <row r="95" spans="1:16" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="58"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="58"/>
-      <c r="D95" s="58"/>
-      <c r="E95" s="58" t="s">
+      <c r="A95" s="52"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="52"/>
+      <c r="E95" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="F95" s="58"/>
-      <c r="G95" s="58" t="s">
+      <c r="F95" s="52"/>
+      <c r="G95" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="H95" s="58"/>
-      <c r="I95" s="58" t="s">
+      <c r="H95" s="52"/>
+      <c r="I95" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="J95" s="58"/>
-      <c r="K95" s="58" t="s">
+      <c r="J95" s="52"/>
+      <c r="K95" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="L95" s="58"/>
-      <c r="M95" s="58"/>
-      <c r="N95" s="58"/>
+      <c r="L95" s="52"/>
+      <c r="M95" s="52"/>
+      <c r="N95" s="52"/>
       <c r="O95" s="19"/>
       <c r="P95" s="19"/>
     </row>
@@ -7217,8 +7202,8 @@
       <c r="B96" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C96" s="58"/>
-      <c r="D96" s="58"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="52"/>
       <c r="E96" s="23" t="s">
         <v>30</v>
       </c>
@@ -7243,944 +7228,944 @@
       <c r="L96" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M96" s="58"/>
-      <c r="N96" s="58"/>
+      <c r="M96" s="52"/>
+      <c r="N96" s="52"/>
       <c r="O96" s="19"/>
       <c r="P96" s="19"/>
     </row>
     <row r="97" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="51" t="s">
+      <c r="A97" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="51" t="s">
+      <c r="B97" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C97" s="78" t="s">
+      <c r="C97" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D97" s="51"/>
-      <c r="E97" s="44" t="s">
+      <c r="D97" s="50"/>
+      <c r="E97" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="F97" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="F97" s="44" t="s">
+      <c r="G97" s="43" t="s">
         <v>394</v>
       </c>
-      <c r="G97" s="44" t="s">
+      <c r="H97" s="43" t="s">
         <v>395</v>
       </c>
-      <c r="H97" s="44" t="s">
+      <c r="I97" s="43" t="s">
         <v>396</v>
       </c>
-      <c r="I97" s="44" t="s">
+      <c r="J97" s="43" t="s">
         <v>397</v>
       </c>
-      <c r="J97" s="44" t="s">
+      <c r="K97" s="43" t="s">
         <v>398</v>
       </c>
-      <c r="K97" s="44" t="s">
+      <c r="L97" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="L97" s="44" t="s">
-        <v>400</v>
-      </c>
-      <c r="M97" s="51" t="s">
+      <c r="M97" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="N97" s="51"/>
+      <c r="N97" s="50"/>
       <c r="O97" s="17"/>
       <c r="P97" s="17"/>
     </row>
     <row r="98" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="51"/>
-      <c r="B98" s="51"/>
-      <c r="C98" s="51">
+      <c r="A98" s="50"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="50">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="D98" s="51"/>
-      <c r="E98" s="44" t="s">
-        <v>401</v>
-      </c>
-      <c r="F98" s="44" t="s">
+      <c r="D98" s="50"/>
+      <c r="E98" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="F98" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="G98" s="43" t="s">
         <v>418</v>
       </c>
-      <c r="G98" s="44" t="s">
+      <c r="H98" s="43" t="s">
         <v>419</v>
       </c>
-      <c r="H98" s="44" t="s">
+      <c r="I98" s="43" t="s">
         <v>420</v>
       </c>
-      <c r="I98" s="44" t="s">
+      <c r="J98" s="43" t="s">
         <v>421</v>
       </c>
-      <c r="J98" s="44" t="s">
+      <c r="K98" s="43" t="s">
         <v>422</v>
       </c>
-      <c r="K98" s="44" t="s">
+      <c r="L98" s="43" t="s">
         <v>423</v>
       </c>
-      <c r="L98" s="44" t="s">
-        <v>424</v>
-      </c>
-      <c r="M98" s="51"/>
-      <c r="N98" s="51"/>
+      <c r="M98" s="50"/>
+      <c r="N98" s="50"/>
       <c r="O98" s="17"/>
       <c r="P98" s="17"/>
     </row>
     <row r="99" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="51" t="s">
+      <c r="A99" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="51" t="s">
+      <c r="B99" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C99" s="78" t="s">
+      <c r="C99" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D99" s="51"/>
-      <c r="E99" s="44" t="s">
-        <v>402</v>
-      </c>
-      <c r="F99" s="44" t="s">
+      <c r="D99" s="50"/>
+      <c r="E99" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="F99" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="G99" s="43" t="s">
         <v>425</v>
       </c>
-      <c r="G99" s="44" t="s">
+      <c r="H99" s="43" t="s">
         <v>426</v>
       </c>
-      <c r="H99" s="44" t="s">
+      <c r="I99" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="I99" s="44" t="s">
+      <c r="J99" s="43" t="s">
         <v>428</v>
       </c>
-      <c r="J99" s="44" t="s">
+      <c r="K99" s="43" t="s">
         <v>429</v>
       </c>
-      <c r="K99" s="44" t="s">
+      <c r="L99" s="43" t="s">
         <v>430</v>
       </c>
-      <c r="L99" s="44" t="s">
-        <v>431</v>
-      </c>
-      <c r="M99" s="51" t="s">
+      <c r="M99" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="N99" s="51"/>
+      <c r="N99" s="50"/>
       <c r="O99" s="17"/>
       <c r="P99" s="17"/>
     </row>
     <row r="100" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="51"/>
-      <c r="B100" s="51"/>
-      <c r="C100" s="51">
+      <c r="A100" s="50"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="50">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="D100" s="51"/>
-      <c r="E100" s="44" t="s">
-        <v>403</v>
-      </c>
-      <c r="F100" s="44" t="s">
+      <c r="D100" s="50"/>
+      <c r="E100" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="F100" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="G100" s="43" t="s">
         <v>432</v>
       </c>
-      <c r="G100" s="44" t="s">
+      <c r="H100" s="43" t="s">
         <v>433</v>
       </c>
-      <c r="H100" s="44" t="s">
+      <c r="I100" s="43" t="s">
         <v>434</v>
       </c>
-      <c r="I100" s="44" t="s">
+      <c r="J100" s="43" t="s">
         <v>435</v>
       </c>
-      <c r="J100" s="44" t="s">
+      <c r="K100" s="43" t="s">
         <v>436</v>
       </c>
-      <c r="K100" s="44" t="s">
+      <c r="L100" s="43" t="s">
         <v>437</v>
       </c>
-      <c r="L100" s="44" t="s">
-        <v>438</v>
-      </c>
-      <c r="M100" s="51"/>
-      <c r="N100" s="51"/>
+      <c r="M100" s="50"/>
+      <c r="N100" s="50"/>
       <c r="O100" s="17"/>
       <c r="P100" s="17"/>
     </row>
     <row r="101" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="51" t="s">
+      <c r="A101" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B101" s="51" t="s">
+      <c r="B101" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C101" s="78" t="s">
+      <c r="C101" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D101" s="51"/>
-      <c r="E101" s="44" t="s">
-        <v>404</v>
-      </c>
-      <c r="F101" s="44" t="s">
+      <c r="D101" s="50"/>
+      <c r="E101" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="F101" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="G101" s="43" t="s">
         <v>439</v>
       </c>
-      <c r="G101" s="44" t="s">
+      <c r="H101" s="43" t="s">
         <v>440</v>
       </c>
-      <c r="H101" s="44" t="s">
+      <c r="I101" s="43" t="s">
         <v>441</v>
       </c>
-      <c r="I101" s="44" t="s">
+      <c r="J101" s="43" t="s">
         <v>442</v>
       </c>
-      <c r="J101" s="44" t="s">
+      <c r="K101" s="43" t="s">
         <v>443</v>
       </c>
-      <c r="K101" s="44" t="s">
+      <c r="L101" s="43" t="s">
         <v>444</v>
       </c>
-      <c r="L101" s="44" t="s">
-        <v>445</v>
-      </c>
-      <c r="M101" s="51" t="s">
+      <c r="M101" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="N101" s="51"/>
+      <c r="N101" s="50"/>
       <c r="O101" s="17"/>
       <c r="P101" s="17"/>
     </row>
     <row r="102" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="51"/>
-      <c r="B102" s="51"/>
-      <c r="C102" s="79">
+      <c r="A102" s="50"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="54">
         <v>-0.03</v>
       </c>
-      <c r="D102" s="79"/>
-      <c r="E102" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="F102" s="44" t="s">
+      <c r="D102" s="54"/>
+      <c r="E102" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="F102" s="43" t="s">
+        <v>445</v>
+      </c>
+      <c r="G102" s="43" t="s">
         <v>446</v>
       </c>
-      <c r="G102" s="44" t="s">
+      <c r="H102" s="43" t="s">
         <v>447</v>
       </c>
-      <c r="H102" s="44" t="s">
+      <c r="I102" s="43" t="s">
         <v>448</v>
       </c>
-      <c r="I102" s="44" t="s">
+      <c r="J102" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="J102" s="44" t="s">
+      <c r="K102" s="43" t="s">
         <v>450</v>
       </c>
-      <c r="K102" s="44" t="s">
+      <c r="L102" s="43" t="s">
         <v>451</v>
       </c>
-      <c r="L102" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="M102" s="51"/>
-      <c r="N102" s="51"/>
+      <c r="M102" s="50"/>
+      <c r="N102" s="50"/>
       <c r="O102" s="17"/>
       <c r="P102" s="17"/>
     </row>
     <row r="103" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="51" t="s">
+      <c r="A103" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B103" s="51" t="s">
+      <c r="B103" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C103" s="78" t="s">
+      <c r="C103" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D103" s="51"/>
-      <c r="E103" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="F103" s="44" t="s">
+      <c r="D103" s="50"/>
+      <c r="E103" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="F103" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="G103" s="43" t="s">
         <v>453</v>
       </c>
-      <c r="G103" s="44" t="s">
+      <c r="H103" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="H103" s="44" t="s">
+      <c r="I103" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="I103" s="44" t="s">
+      <c r="J103" s="43" t="s">
         <v>456</v>
       </c>
-      <c r="J103" s="44" t="s">
+      <c r="K103" s="43" t="s">
         <v>457</v>
       </c>
-      <c r="K103" s="44" t="s">
+      <c r="L103" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="L103" s="44" t="s">
-        <v>459</v>
-      </c>
-      <c r="M103" s="51" t="s">
+      <c r="M103" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="N103" s="51"/>
+      <c r="N103" s="50"/>
       <c r="O103" s="17"/>
       <c r="P103" s="17"/>
     </row>
     <row r="104" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="51"/>
-      <c r="B104" s="51"/>
-      <c r="C104" s="51">
+      <c r="A104" s="50"/>
+      <c r="B104" s="50"/>
+      <c r="C104" s="50">
         <v>-0.06</v>
       </c>
-      <c r="D104" s="51"/>
-      <c r="E104" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="F104" s="44" t="s">
+      <c r="D104" s="50"/>
+      <c r="E104" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="F104" s="43" t="s">
+        <v>459</v>
+      </c>
+      <c r="G104" s="43" t="s">
         <v>460</v>
       </c>
-      <c r="G104" s="44" t="s">
+      <c r="H104" s="43" t="s">
         <v>461</v>
       </c>
-      <c r="H104" s="44" t="s">
+      <c r="I104" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="I104" s="44" t="s">
+      <c r="J104" s="43" t="s">
         <v>463</v>
       </c>
-      <c r="J104" s="44" t="s">
+      <c r="K104" s="43" t="s">
         <v>464</v>
       </c>
-      <c r="K104" s="44" t="s">
+      <c r="L104" s="43" t="s">
         <v>465</v>
       </c>
-      <c r="L104" s="44" t="s">
-        <v>466</v>
-      </c>
-      <c r="M104" s="51"/>
-      <c r="N104" s="51"/>
+      <c r="M104" s="50"/>
+      <c r="N104" s="50"/>
       <c r="O104" s="17"/>
       <c r="P104" s="17"/>
     </row>
     <row r="105" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="51" t="s">
+      <c r="A105" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="51" t="s">
+      <c r="B105" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="78" t="s">
+      <c r="C105" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D105" s="51"/>
-      <c r="E105" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="F105" s="44" t="s">
+      <c r="D105" s="50"/>
+      <c r="E105" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="F105" s="43" t="s">
+        <v>466</v>
+      </c>
+      <c r="G105" s="43" t="s">
         <v>467</v>
       </c>
-      <c r="G105" s="44" t="s">
+      <c r="H105" s="43" t="s">
         <v>468</v>
       </c>
-      <c r="H105" s="44" t="s">
+      <c r="I105" s="43" t="s">
         <v>469</v>
       </c>
-      <c r="I105" s="44" t="s">
+      <c r="J105" s="43" t="s">
         <v>470</v>
       </c>
-      <c r="J105" s="44" t="s">
+      <c r="K105" s="43" t="s">
         <v>471</v>
       </c>
-      <c r="K105" s="44" t="s">
+      <c r="L105" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="L105" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="M105" s="51" t="s">
+      <c r="M105" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="N105" s="51"/>
+      <c r="N105" s="50"/>
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
     </row>
     <row r="106" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="51"/>
-      <c r="B106" s="51"/>
-      <c r="C106" s="51">
+      <c r="A106" s="50"/>
+      <c r="B106" s="50"/>
+      <c r="C106" s="50">
         <v>-0.15</v>
       </c>
-      <c r="D106" s="51"/>
-      <c r="E106" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="F106" s="44" t="s">
+      <c r="D106" s="50"/>
+      <c r="E106" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="F106" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="G106" s="43" t="s">
         <v>474</v>
       </c>
-      <c r="G106" s="44" t="s">
+      <c r="H106" s="43" t="s">
         <v>475</v>
       </c>
-      <c r="H106" s="44" t="s">
+      <c r="I106" s="43" t="s">
         <v>476</v>
       </c>
-      <c r="I106" s="44" t="s">
+      <c r="J106" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="J106" s="44" t="s">
+      <c r="K106" s="43" t="s">
         <v>478</v>
       </c>
-      <c r="K106" s="44" t="s">
+      <c r="L106" s="43" t="s">
         <v>479</v>
       </c>
-      <c r="L106" s="44" t="s">
-        <v>480</v>
-      </c>
-      <c r="M106" s="51"/>
-      <c r="N106" s="51"/>
+      <c r="M106" s="50"/>
+      <c r="N106" s="50"/>
       <c r="O106" s="17"/>
       <c r="P106" s="17"/>
     </row>
     <row r="107" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="51" t="s">
+      <c r="A107" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B107" s="51" t="s">
+      <c r="B107" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C107" s="78" t="s">
+      <c r="C107" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D107" s="51"/>
-      <c r="E107" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="F107" s="44" t="s">
+      <c r="D107" s="50"/>
+      <c r="E107" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="F107" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="G107" s="43" t="s">
         <v>481</v>
       </c>
-      <c r="G107" s="44" t="s">
+      <c r="H107" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="H107" s="44" t="s">
+      <c r="I107" s="43" t="s">
         <v>483</v>
       </c>
-      <c r="I107" s="44" t="s">
+      <c r="J107" s="43" t="s">
         <v>484</v>
       </c>
-      <c r="J107" s="44" t="s">
+      <c r="K107" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="K107" s="44" t="s">
+      <c r="L107" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="L107" s="44" t="s">
-        <v>487</v>
-      </c>
-      <c r="M107" s="51" t="s">
+      <c r="M107" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="N107" s="51"/>
+      <c r="N107" s="50"/>
       <c r="O107" s="17"/>
       <c r="P107" s="17"/>
     </row>
     <row r="108" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="51"/>
-      <c r="B108" s="51"/>
-      <c r="C108" s="79">
+      <c r="A108" s="50"/>
+      <c r="B108" s="50"/>
+      <c r="C108" s="54">
         <v>-0.3</v>
       </c>
-      <c r="D108" s="79"/>
-      <c r="E108" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="F108" s="44" t="s">
+      <c r="D108" s="54"/>
+      <c r="E108" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="F108" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="G108" s="43" t="s">
         <v>488</v>
       </c>
-      <c r="G108" s="44" t="s">
+      <c r="H108" s="43" t="s">
         <v>489</v>
       </c>
-      <c r="H108" s="44" t="s">
+      <c r="I108" s="43" t="s">
         <v>490</v>
       </c>
-      <c r="I108" s="44" t="s">
+      <c r="J108" s="43" t="s">
         <v>491</v>
       </c>
-      <c r="J108" s="44" t="s">
+      <c r="K108" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="K108" s="44" t="s">
+      <c r="L108" s="43" t="s">
         <v>493</v>
       </c>
-      <c r="L108" s="44" t="s">
-        <v>494</v>
-      </c>
-      <c r="M108" s="51"/>
-      <c r="N108" s="51"/>
+      <c r="M108" s="50"/>
+      <c r="N108" s="50"/>
       <c r="O108" s="17"/>
       <c r="P108" s="17"/>
     </row>
     <row r="109" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="51" t="s">
+      <c r="A109" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B109" s="51" t="s">
+      <c r="B109" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C109" s="78" t="s">
+      <c r="C109" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D109" s="51"/>
-      <c r="E109" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="F109" s="44" t="s">
+      <c r="D109" s="50"/>
+      <c r="E109" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="F109" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="G109" s="43" t="s">
         <v>495</v>
       </c>
-      <c r="G109" s="44" t="s">
+      <c r="H109" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="H109" s="44" t="s">
+      <c r="I109" s="43" t="s">
         <v>497</v>
       </c>
-      <c r="I109" s="44" t="s">
+      <c r="J109" s="43" t="s">
         <v>498</v>
       </c>
-      <c r="J109" s="44" t="s">
+      <c r="K109" s="43" t="s">
         <v>499</v>
       </c>
-      <c r="K109" s="44" t="s">
+      <c r="L109" s="43" t="s">
         <v>500</v>
       </c>
-      <c r="L109" s="44" t="s">
-        <v>501</v>
-      </c>
-      <c r="M109" s="51" t="s">
+      <c r="M109" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="N109" s="51"/>
+      <c r="N109" s="50"/>
       <c r="O109" s="17"/>
       <c r="P109" s="17"/>
     </row>
     <row r="110" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="51"/>
-      <c r="B110" s="51"/>
-      <c r="C110" s="79">
+      <c r="A110" s="50"/>
+      <c r="B110" s="50"/>
+      <c r="C110" s="54">
         <v>-0.6</v>
       </c>
-      <c r="D110" s="79"/>
-      <c r="E110" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="F110" s="44" t="s">
+      <c r="D110" s="54"/>
+      <c r="E110" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="F110" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="G110" s="43" t="s">
         <v>502</v>
       </c>
-      <c r="G110" s="44" t="s">
+      <c r="H110" s="43" t="s">
         <v>503</v>
       </c>
-      <c r="H110" s="44" t="s">
+      <c r="I110" s="43" t="s">
         <v>504</v>
       </c>
-      <c r="I110" s="44" t="s">
+      <c r="J110" s="43" t="s">
         <v>505</v>
       </c>
-      <c r="J110" s="44" t="s">
+      <c r="K110" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="K110" s="44" t="s">
+      <c r="L110" s="43" t="s">
         <v>507</v>
       </c>
-      <c r="L110" s="44" t="s">
-        <v>508</v>
-      </c>
-      <c r="M110" s="51"/>
-      <c r="N110" s="51"/>
+      <c r="M110" s="50"/>
+      <c r="N110" s="50"/>
       <c r="O110" s="17"/>
       <c r="P110" s="17"/>
     </row>
     <row r="111" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="51" t="s">
+      <c r="A111" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B111" s="51" t="s">
+      <c r="B111" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C111" s="78" t="s">
+      <c r="C111" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D111" s="51"/>
-      <c r="E111" s="44" t="s">
-        <v>414</v>
-      </c>
-      <c r="F111" s="44" t="s">
+      <c r="D111" s="50"/>
+      <c r="E111" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="F111" s="43" t="s">
+        <v>508</v>
+      </c>
+      <c r="G111" s="43" t="s">
         <v>509</v>
       </c>
-      <c r="G111" s="44" t="s">
+      <c r="H111" s="43" t="s">
         <v>510</v>
       </c>
-      <c r="H111" s="44" t="s">
+      <c r="I111" s="43" t="s">
         <v>511</v>
       </c>
-      <c r="I111" s="44" t="s">
+      <c r="J111" s="43" t="s">
         <v>512</v>
       </c>
-      <c r="J111" s="44" t="s">
+      <c r="K111" s="43" t="s">
         <v>513</v>
       </c>
-      <c r="K111" s="44" t="s">
+      <c r="L111" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="L111" s="44" t="s">
-        <v>515</v>
-      </c>
-      <c r="M111" s="51" t="s">
+      <c r="M111" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="N111" s="51"/>
+      <c r="N111" s="50"/>
       <c r="O111" s="17"/>
       <c r="P111" s="17"/>
     </row>
     <row r="112" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="51"/>
-      <c r="B112" s="51"/>
-      <c r="C112" s="51">
+      <c r="A112" s="50"/>
+      <c r="B112" s="50"/>
+      <c r="C112" s="50">
         <v>-1.5</v>
       </c>
-      <c r="D112" s="51"/>
-      <c r="E112" s="44" t="s">
-        <v>415</v>
-      </c>
-      <c r="F112" s="44" t="s">
+      <c r="D112" s="50"/>
+      <c r="E112" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="F112" s="43" t="s">
+        <v>515</v>
+      </c>
+      <c r="G112" s="43" t="s">
         <v>516</v>
       </c>
-      <c r="G112" s="44" t="s">
+      <c r="H112" s="43" t="s">
         <v>517</v>
       </c>
-      <c r="H112" s="44" t="s">
+      <c r="I112" s="43" t="s">
         <v>518</v>
       </c>
-      <c r="I112" s="44" t="s">
+      <c r="J112" s="43" t="s">
         <v>519</v>
       </c>
-      <c r="J112" s="44" t="s">
+      <c r="K112" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="K112" s="44" t="s">
+      <c r="L112" s="43" t="s">
         <v>521</v>
       </c>
-      <c r="L112" s="44" t="s">
-        <v>522</v>
-      </c>
-      <c r="M112" s="51"/>
-      <c r="N112" s="51"/>
+      <c r="M112" s="50"/>
+      <c r="N112" s="50"/>
       <c r="O112" s="17"/>
       <c r="P112" s="17"/>
     </row>
     <row r="113" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="51" t="s">
+      <c r="A113" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B113" s="51" t="s">
+      <c r="B113" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C113" s="78" t="s">
+      <c r="C113" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D113" s="51"/>
-      <c r="E113" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="F113" s="44" t="s">
+      <c r="D113" s="50"/>
+      <c r="E113" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="F113" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="G113" s="43" t="s">
         <v>523</v>
       </c>
-      <c r="G113" s="44" t="s">
+      <c r="H113" s="43" t="s">
         <v>524</v>
       </c>
-      <c r="H113" s="44" t="s">
+      <c r="I113" s="43" t="s">
         <v>525</v>
       </c>
-      <c r="I113" s="44" t="s">
+      <c r="J113" s="43" t="s">
         <v>526</v>
       </c>
-      <c r="J113" s="44" t="s">
+      <c r="K113" s="43" t="s">
         <v>527</v>
       </c>
-      <c r="K113" s="44" t="s">
+      <c r="L113" s="43" t="s">
         <v>528</v>
       </c>
-      <c r="L113" s="44" t="s">
-        <v>529</v>
-      </c>
-      <c r="M113" s="51" t="s">
+      <c r="M113" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="N113" s="51"/>
+      <c r="N113" s="50"/>
       <c r="O113" s="17"/>
       <c r="P113" s="17"/>
     </row>
     <row r="114" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="51"/>
-      <c r="B114" s="51"/>
-      <c r="C114" s="80">
+      <c r="A114" s="50"/>
+      <c r="B114" s="50"/>
+      <c r="C114" s="53">
         <v>-3</v>
       </c>
-      <c r="D114" s="80"/>
-      <c r="E114" s="44" t="s">
-        <v>417</v>
-      </c>
-      <c r="F114" s="44" t="s">
+      <c r="D114" s="53"/>
+      <c r="E114" s="43" t="s">
+        <v>416</v>
+      </c>
+      <c r="F114" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="G114" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="G114" s="44" t="s">
+      <c r="H114" s="43" t="s">
         <v>531</v>
       </c>
-      <c r="H114" s="44" t="s">
+      <c r="I114" s="43" t="s">
         <v>532</v>
       </c>
-      <c r="I114" s="44" t="s">
+      <c r="J114" s="43" t="s">
         <v>533</v>
       </c>
-      <c r="J114" s="44" t="s">
+      <c r="K114" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="K114" s="44" t="s">
+      <c r="L114" s="43" t="s">
         <v>535</v>
       </c>
-      <c r="L114" s="44" t="s">
-        <v>536</v>
-      </c>
-      <c r="M114" s="51"/>
-      <c r="N114" s="51"/>
+      <c r="M114" s="50"/>
+      <c r="N114" s="50"/>
       <c r="O114" s="17"/>
       <c r="P114" s="17"/>
     </row>
     <row r="115" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B115" s="51" t="s">
+      <c r="A115" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C115" s="78" t="s">
+      <c r="C115" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D115" s="51"/>
-      <c r="E115" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F115" s="44" t="s">
-        <v>537</v>
-      </c>
-      <c r="G115" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H115" s="44" t="s">
-        <v>543</v>
-      </c>
-      <c r="I115" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="J115" s="44" t="s">
-        <v>549</v>
-      </c>
-      <c r="K115" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="L115" s="44" t="s">
-        <v>555</v>
-      </c>
-      <c r="M115" s="51" t="s">
+      <c r="D115" s="50"/>
+      <c r="E115" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F115" s="43" t="s">
+        <v>536</v>
+      </c>
+      <c r="G115" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H115" s="43" t="s">
+        <v>542</v>
+      </c>
+      <c r="I115" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J115" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="K115" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L115" s="43" t="s">
+        <v>554</v>
+      </c>
+      <c r="M115" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="N115" s="51"/>
+      <c r="N115" s="50"/>
       <c r="O115" s="17"/>
       <c r="P115" s="17"/>
     </row>
     <row r="116" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="51"/>
-      <c r="B116" s="51"/>
-      <c r="C116" s="80">
+      <c r="A116" s="50"/>
+      <c r="B116" s="50"/>
+      <c r="C116" s="53">
         <v>-6</v>
       </c>
-      <c r="D116" s="80"/>
-      <c r="E116" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F116" s="44" t="s">
-        <v>538</v>
-      </c>
-      <c r="G116" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H116" s="44" t="s">
-        <v>544</v>
-      </c>
-      <c r="I116" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="J116" s="44" t="s">
-        <v>550</v>
-      </c>
-      <c r="K116" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="L116" s="44" t="s">
-        <v>556</v>
-      </c>
-      <c r="M116" s="51"/>
-      <c r="N116" s="51"/>
+      <c r="D116" s="53"/>
+      <c r="E116" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F116" s="43" t="s">
+        <v>537</v>
+      </c>
+      <c r="G116" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H116" s="43" t="s">
+        <v>543</v>
+      </c>
+      <c r="I116" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J116" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="K116" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L116" s="43" t="s">
+        <v>555</v>
+      </c>
+      <c r="M116" s="50"/>
+      <c r="N116" s="50"/>
       <c r="O116" s="17"/>
       <c r="P116" s="17"/>
     </row>
     <row r="117" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B117" s="51" t="s">
+      <c r="A117" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C117" s="78" t="s">
+      <c r="C117" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D117" s="51"/>
-      <c r="E117" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F117" s="44" t="s">
-        <v>539</v>
-      </c>
-      <c r="G117" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H117" s="44" t="s">
-        <v>545</v>
-      </c>
-      <c r="I117" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="J117" s="44" t="s">
-        <v>551</v>
-      </c>
-      <c r="K117" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="L117" s="44" t="s">
-        <v>557</v>
-      </c>
-      <c r="M117" s="51" t="s">
+      <c r="D117" s="50"/>
+      <c r="E117" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F117" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="G117" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H117" s="43" t="s">
+        <v>544</v>
+      </c>
+      <c r="I117" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J117" s="43" t="s">
+        <v>550</v>
+      </c>
+      <c r="K117" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L117" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="M117" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N117" s="51"/>
+      <c r="N117" s="50"/>
       <c r="O117" s="17"/>
       <c r="P117" s="17"/>
     </row>
     <row r="118" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="51"/>
-      <c r="B118" s="51"/>
-      <c r="C118" s="80">
+      <c r="A118" s="50"/>
+      <c r="B118" s="50"/>
+      <c r="C118" s="53">
         <v>-15</v>
       </c>
-      <c r="D118" s="80"/>
-      <c r="E118" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F118" s="44" t="s">
-        <v>540</v>
-      </c>
-      <c r="G118" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H118" s="44" t="s">
-        <v>546</v>
-      </c>
-      <c r="I118" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="J118" s="44" t="s">
-        <v>552</v>
-      </c>
-      <c r="K118" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="L118" s="44" t="s">
-        <v>558</v>
-      </c>
-      <c r="M118" s="51"/>
-      <c r="N118" s="51"/>
+      <c r="D118" s="53"/>
+      <c r="E118" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F118" s="43" t="s">
+        <v>539</v>
+      </c>
+      <c r="G118" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H118" s="43" t="s">
+        <v>545</v>
+      </c>
+      <c r="I118" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J118" s="43" t="s">
+        <v>551</v>
+      </c>
+      <c r="K118" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L118" s="43" t="s">
+        <v>557</v>
+      </c>
+      <c r="M118" s="50"/>
+      <c r="N118" s="50"/>
       <c r="O118" s="17"/>
       <c r="P118" s="17"/>
     </row>
     <row r="119" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B119" s="51" t="s">
+      <c r="A119" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B119" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C119" s="78" t="s">
+      <c r="C119" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D119" s="51"/>
-      <c r="E119" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F119" s="44" t="s">
-        <v>541</v>
-      </c>
-      <c r="G119" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H119" s="44" t="s">
-        <v>547</v>
-      </c>
-      <c r="I119" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="J119" s="44" t="s">
-        <v>553</v>
-      </c>
-      <c r="K119" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="L119" s="44" t="s">
-        <v>559</v>
-      </c>
-      <c r="M119" s="51" t="s">
+      <c r="D119" s="50"/>
+      <c r="E119" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F119" s="43" t="s">
+        <v>540</v>
+      </c>
+      <c r="G119" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H119" s="43" t="s">
+        <v>546</v>
+      </c>
+      <c r="I119" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J119" s="43" t="s">
+        <v>552</v>
+      </c>
+      <c r="K119" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L119" s="43" t="s">
+        <v>558</v>
+      </c>
+      <c r="M119" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="N119" s="51"/>
+      <c r="N119" s="50"/>
       <c r="O119" s="17"/>
       <c r="P119" s="17"/>
     </row>
     <row r="120" spans="1:16" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="51"/>
-      <c r="B120" s="51"/>
-      <c r="C120" s="80">
+      <c r="A120" s="50"/>
+      <c r="B120" s="50"/>
+      <c r="C120" s="53">
         <v>-30</v>
       </c>
-      <c r="D120" s="80"/>
-      <c r="E120" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F120" s="44" t="s">
-        <v>542</v>
-      </c>
-      <c r="G120" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H120" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="I120" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="J120" s="44" t="s">
-        <v>554</v>
-      </c>
-      <c r="K120" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="L120" s="44" t="s">
-        <v>560</v>
-      </c>
-      <c r="M120" s="51"/>
-      <c r="N120" s="51"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F120" s="43" t="s">
+        <v>541</v>
+      </c>
+      <c r="G120" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H120" s="43" t="s">
+        <v>547</v>
+      </c>
+      <c r="I120" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J120" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="K120" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L120" s="43" t="s">
+        <v>559</v>
+      </c>
+      <c r="M120" s="50"/>
+      <c r="N120" s="50"/>
       <c r="O120" s="17"/>
       <c r="P120" s="17"/>
     </row>
@@ -8223,54 +8208,54 @@
       <c r="P122" s="17"/>
     </row>
     <row r="123" spans="1:16" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="58" t="s">
+      <c r="A123" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B123" s="58"/>
-      <c r="C123" s="47" t="s">
+      <c r="B123" s="52"/>
+      <c r="C123" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="D123" s="48"/>
-      <c r="E123" s="58" t="s">
+      <c r="D123" s="69"/>
+      <c r="E123" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="F123" s="58"/>
-      <c r="G123" s="58"/>
-      <c r="H123" s="58"/>
-      <c r="I123" s="58"/>
-      <c r="J123" s="58"/>
-      <c r="K123" s="58"/>
-      <c r="L123" s="58"/>
-      <c r="M123" s="47" t="s">
+      <c r="F123" s="52"/>
+      <c r="G123" s="52"/>
+      <c r="H123" s="52"/>
+      <c r="I123" s="52"/>
+      <c r="J123" s="52"/>
+      <c r="K123" s="52"/>
+      <c r="L123" s="52"/>
+      <c r="M123" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="N123" s="48"/>
+      <c r="N123" s="69"/>
       <c r="O123" s="19"/>
       <c r="P123" s="19"/>
     </row>
     <row r="124" spans="1:16" s="22" customFormat="1" ht="55.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="58"/>
-      <c r="B124" s="58"/>
-      <c r="C124" s="49"/>
-      <c r="D124" s="50"/>
-      <c r="E124" s="58" t="s">
+      <c r="A124" s="52"/>
+      <c r="B124" s="52"/>
+      <c r="C124" s="76"/>
+      <c r="D124" s="77"/>
+      <c r="E124" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="F124" s="58"/>
-      <c r="G124" s="58" t="s">
+      <c r="F124" s="52"/>
+      <c r="G124" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="H124" s="58"/>
-      <c r="I124" s="58" t="s">
+      <c r="H124" s="52"/>
+      <c r="I124" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J124" s="58"/>
-      <c r="K124" s="58" t="s">
+      <c r="J124" s="52"/>
+      <c r="K124" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="L124" s="58"/>
-      <c r="M124" s="49"/>
-      <c r="N124" s="50"/>
+      <c r="L124" s="52"/>
+      <c r="M124" s="76"/>
+      <c r="N124" s="77"/>
       <c r="O124" s="19"/>
       <c r="P124" s="19"/>
     </row>
@@ -8321,10 +8306,10 @@
       <c r="P125" s="19"/>
     </row>
     <row r="126" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="51" t="s">
+      <c r="A126" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B126" s="51" t="s">
+      <c r="B126" s="50" t="s">
         <v>32</v>
       </c>
       <c r="C126" s="24" t="s">
@@ -8334,41 +8319,41 @@
         <v>77</v>
       </c>
       <c r="E126" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F126" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G126" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="H126" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="H126" s="28" t="s">
+      <c r="I126" s="28" t="s">
         <v>562</v>
       </c>
-      <c r="I126" s="28" t="s">
+      <c r="J126" s="28" t="s">
         <v>563</v>
       </c>
-      <c r="J126" s="28" t="s">
+      <c r="K126" s="28" t="s">
         <v>564</v>
       </c>
-      <c r="K126" s="28" t="s">
+      <c r="L126" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="L126" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="M126" s="51" t="s">
+      <c r="M126" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="N126" s="51" t="s">
+      <c r="N126" s="50" t="s">
         <v>73</v>
       </c>
       <c r="O126" s="17"/>
       <c r="P126" s="17"/>
     </row>
     <row r="127" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="51"/>
-      <c r="B127" s="51"/>
+      <c r="A127" s="50"/>
+      <c r="B127" s="50"/>
       <c r="C127" s="20">
         <v>-0.5</v>
       </c>
@@ -8376,39 +8361,39 @@
         <v>-0.5</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F127" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G127" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="H127" s="28" t="s">
         <v>567</v>
       </c>
-      <c r="H127" s="28" t="s">
+      <c r="I127" s="28" t="s">
         <v>568</v>
       </c>
-      <c r="I127" s="28" t="s">
+      <c r="J127" s="28" t="s">
         <v>569</v>
       </c>
-      <c r="J127" s="28" t="s">
+      <c r="K127" s="28" t="s">
         <v>570</v>
       </c>
-      <c r="K127" s="28" t="s">
+      <c r="L127" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="L127" s="28" t="s">
-        <v>572</v>
-      </c>
-      <c r="M127" s="51"/>
-      <c r="N127" s="51"/>
+      <c r="M127" s="50"/>
+      <c r="N127" s="50"/>
       <c r="O127" s="17"/>
       <c r="P127" s="17"/>
     </row>
     <row r="128" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="51" t="s">
+      <c r="A128" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B128" s="51" t="s">
+      <c r="B128" s="50" t="s">
         <v>33</v>
       </c>
       <c r="C128" s="24" t="s">
@@ -8418,41 +8403,41 @@
         <v>78</v>
       </c>
       <c r="E128" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F128" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G128" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="H128" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="H128" s="28" t="s">
+      <c r="I128" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="I128" s="28" t="s">
+      <c r="J128" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="J128" s="28" t="s">
+      <c r="K128" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="K128" s="28" t="s">
+      <c r="L128" s="28" t="s">
         <v>577</v>
       </c>
-      <c r="L128" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="M128" s="51" t="s">
+      <c r="M128" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="N128" s="51" t="s">
+      <c r="N128" s="50" t="s">
         <v>74</v>
       </c>
       <c r="O128" s="17"/>
       <c r="P128" s="17"/>
     </row>
     <row r="129" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="51"/>
-      <c r="B129" s="51"/>
+      <c r="A129" s="50"/>
+      <c r="B129" s="50"/>
       <c r="C129" s="20">
         <v>-1.4</v>
       </c>
@@ -8460,39 +8445,39 @@
         <v>-1.4</v>
       </c>
       <c r="E129" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F129" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G129" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="H129" s="28" t="s">
         <v>579</v>
       </c>
-      <c r="H129" s="28" t="s">
+      <c r="I129" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="I129" s="28" t="s">
+      <c r="J129" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="J129" s="28" t="s">
+      <c r="K129" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="K129" s="28" t="s">
+      <c r="L129" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="L129" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="M129" s="51"/>
-      <c r="N129" s="51"/>
+      <c r="M129" s="50"/>
+      <c r="N129" s="50"/>
       <c r="O129" s="17"/>
       <c r="P129" s="17"/>
     </row>
     <row r="130" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="51" t="s">
+      <c r="A130" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B130" s="51" t="s">
+      <c r="B130" s="50" t="s">
         <v>34</v>
       </c>
       <c r="C130" s="24" t="s">
@@ -8502,41 +8487,41 @@
         <v>79</v>
       </c>
       <c r="E130" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F130" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G130" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="H130" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="H130" s="28" t="s">
+      <c r="I130" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="I130" s="28" t="s">
+      <c r="J130" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="J130" s="28" t="s">
+      <c r="K130" s="28" t="s">
         <v>588</v>
       </c>
-      <c r="K130" s="28" t="s">
+      <c r="L130" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="L130" s="28" t="s">
-        <v>590</v>
-      </c>
-      <c r="M130" s="51" t="s">
+      <c r="M130" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="N130" s="51" t="s">
+      <c r="N130" s="50" t="s">
         <v>75</v>
       </c>
       <c r="O130" s="17"/>
       <c r="P130" s="17"/>
     </row>
     <row r="131" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="51"/>
-      <c r="B131" s="51"/>
+      <c r="A131" s="50"/>
+      <c r="B131" s="50"/>
       <c r="C131" s="21">
         <v>-2.8</v>
       </c>
@@ -8544,39 +8529,39 @@
         <v>-2.8</v>
       </c>
       <c r="E131" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F131" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G131" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="H131" s="28" t="s">
         <v>591</v>
       </c>
-      <c r="H131" s="28" t="s">
+      <c r="I131" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="I131" s="28" t="s">
+      <c r="J131" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="J131" s="28" t="s">
+      <c r="K131" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="K131" s="28" t="s">
+      <c r="L131" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="L131" s="28" t="s">
-        <v>596</v>
-      </c>
-      <c r="M131" s="51"/>
-      <c r="N131" s="51"/>
+      <c r="M131" s="50"/>
+      <c r="N131" s="50"/>
       <c r="O131" s="17"/>
       <c r="P131" s="17"/>
     </row>
     <row r="132" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="51" t="s">
+      <c r="A132" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B132" s="51" t="s">
+      <c r="B132" s="50" t="s">
         <v>35</v>
       </c>
       <c r="C132" s="24" t="s">
@@ -8586,41 +8571,41 @@
         <v>51</v>
       </c>
       <c r="E132" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F132" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G132" s="28" t="s">
+        <v>596</v>
+      </c>
+      <c r="H132" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="H132" s="28" t="s">
+      <c r="I132" s="28" t="s">
         <v>598</v>
       </c>
-      <c r="I132" s="28" t="s">
+      <c r="J132" s="28" t="s">
         <v>599</v>
       </c>
-      <c r="J132" s="28" t="s">
+      <c r="K132" s="28" t="s">
         <v>600</v>
       </c>
-      <c r="K132" s="28" t="s">
+      <c r="L132" s="28" t="s">
         <v>601</v>
       </c>
-      <c r="L132" s="28" t="s">
-        <v>602</v>
-      </c>
-      <c r="M132" s="51" t="s">
+      <c r="M132" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="N132" s="51" t="s">
+      <c r="N132" s="50" t="s">
         <v>83</v>
       </c>
       <c r="O132" s="17"/>
       <c r="P132" s="17"/>
     </row>
     <row r="133" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="51"/>
-      <c r="B133" s="51"/>
+      <c r="A133" s="50"/>
+      <c r="B133" s="50"/>
       <c r="C133" s="21">
         <v>-4</v>
       </c>
@@ -8628,39 +8613,39 @@
         <v>-6</v>
       </c>
       <c r="E133" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F133" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G133" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="H133" s="28" t="s">
         <v>603</v>
       </c>
-      <c r="H133" s="28" t="s">
+      <c r="I133" s="28" t="s">
         <v>604</v>
       </c>
-      <c r="I133" s="28" t="s">
+      <c r="J133" s="28" t="s">
         <v>605</v>
       </c>
-      <c r="J133" s="28" t="s">
+      <c r="K133" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="K133" s="28" t="s">
+      <c r="L133" s="28" t="s">
         <v>607</v>
       </c>
-      <c r="L133" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="M133" s="51"/>
-      <c r="N133" s="51"/>
+      <c r="M133" s="50"/>
+      <c r="N133" s="50"/>
       <c r="O133" s="17"/>
       <c r="P133" s="17"/>
     </row>
     <row r="134" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B134" s="51" t="s">
+      <c r="A134" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134" s="50" t="s">
         <v>37</v>
       </c>
       <c r="C134" s="24" t="s">
@@ -8673,38 +8658,38 @@
         <v>70</v>
       </c>
       <c r="F134" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="G134" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="G134" s="40" t="s">
         <v>70</v>
       </c>
       <c r="H134" s="28" t="s">
-        <v>609</v>
-      </c>
-      <c r="I134" s="41" t="s">
+        <v>608</v>
+      </c>
+      <c r="I134" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J134" s="28" t="s">
-        <v>613</v>
-      </c>
-      <c r="K134" s="41" t="s">
+        <v>612</v>
+      </c>
+      <c r="K134" s="40" t="s">
         <v>70</v>
       </c>
       <c r="L134" s="28" t="s">
-        <v>617</v>
-      </c>
-      <c r="M134" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="N134" s="51" t="s">
+        <v>616</v>
+      </c>
+      <c r="M134" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="N134" s="50" t="s">
         <v>84</v>
       </c>
       <c r="O134" s="17"/>
       <c r="P134" s="17"/>
     </row>
     <row r="135" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="51"/>
-      <c r="B135" s="51"/>
+      <c r="A135" s="50"/>
+      <c r="B135" s="50"/>
       <c r="C135" s="25" t="s">
         <v>70</v>
       </c>
@@ -8715,36 +8700,36 @@
         <v>70</v>
       </c>
       <c r="F135" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="G135" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="G135" s="40" t="s">
         <v>70</v>
       </c>
       <c r="H135" s="28" t="s">
-        <v>610</v>
-      </c>
-      <c r="I135" s="41" t="s">
+        <v>609</v>
+      </c>
+      <c r="I135" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J135" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="K135" s="41" t="s">
+        <v>613</v>
+      </c>
+      <c r="K135" s="40" t="s">
         <v>70</v>
       </c>
       <c r="L135" s="28" t="s">
-        <v>618</v>
-      </c>
-      <c r="M135" s="51"/>
-      <c r="N135" s="51"/>
+        <v>617</v>
+      </c>
+      <c r="M135" s="50"/>
+      <c r="N135" s="50"/>
       <c r="O135" s="17"/>
       <c r="P135" s="17"/>
     </row>
     <row r="136" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B136" s="51" t="s">
+      <c r="A136" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B136" s="50" t="s">
         <v>41</v>
       </c>
       <c r="C136" s="24" t="s">
@@ -8757,38 +8742,38 @@
         <v>70</v>
       </c>
       <c r="F136" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="G136" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="G136" s="40" t="s">
         <v>70</v>
       </c>
       <c r="H136" s="28" t="s">
-        <v>611</v>
-      </c>
-      <c r="I136" s="41" t="s">
+        <v>610</v>
+      </c>
+      <c r="I136" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J136" s="28" t="s">
-        <v>615</v>
-      </c>
-      <c r="K136" s="41" t="s">
+        <v>614</v>
+      </c>
+      <c r="K136" s="40" t="s">
         <v>70</v>
       </c>
       <c r="L136" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="M136" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="N136" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="M136" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="N136" s="50" t="s">
         <v>85</v>
       </c>
       <c r="O136" s="17"/>
       <c r="P136" s="17"/>
     </row>
     <row r="137" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="51"/>
-      <c r="B137" s="51"/>
+      <c r="A137" s="50"/>
+      <c r="B137" s="50"/>
       <c r="C137" s="21" t="s">
         <v>70</v>
       </c>
@@ -8799,80 +8784,80 @@
         <v>70</v>
       </c>
       <c r="F137" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G137" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="G137" s="40" t="s">
         <v>70</v>
       </c>
       <c r="H137" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="I137" s="41" t="s">
+        <v>611</v>
+      </c>
+      <c r="I137" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J137" s="28" t="s">
-        <v>616</v>
-      </c>
-      <c r="K137" s="41" t="s">
+        <v>615</v>
+      </c>
+      <c r="K137" s="40" t="s">
         <v>70</v>
       </c>
       <c r="L137" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="M137" s="51"/>
-      <c r="N137" s="51"/>
+        <v>619</v>
+      </c>
+      <c r="M137" s="50"/>
+      <c r="N137" s="50"/>
       <c r="O137" s="17"/>
       <c r="P137" s="17"/>
     </row>
     <row r="138" spans="1:16" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="47" t="s">
+      <c r="A138" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B138" s="48"/>
-      <c r="C138" s="47" t="s">
+      <c r="B138" s="69"/>
+      <c r="C138" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="D138" s="48"/>
-      <c r="E138" s="52" t="s">
+      <c r="D138" s="69"/>
+      <c r="E138" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="F138" s="53"/>
-      <c r="G138" s="53"/>
-      <c r="H138" s="53"/>
-      <c r="I138" s="53"/>
-      <c r="J138" s="53"/>
-      <c r="K138" s="53"/>
-      <c r="L138" s="54"/>
-      <c r="M138" s="47" t="s">
+      <c r="F138" s="75"/>
+      <c r="G138" s="75"/>
+      <c r="H138" s="75"/>
+      <c r="I138" s="75"/>
+      <c r="J138" s="75"/>
+      <c r="K138" s="75"/>
+      <c r="L138" s="73"/>
+      <c r="M138" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="N138" s="48"/>
+      <c r="N138" s="69"/>
       <c r="O138" s="19"/>
       <c r="P138" s="19"/>
     </row>
     <row r="139" spans="1:16" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="55"/>
-      <c r="B139" s="56"/>
-      <c r="C139" s="55"/>
-      <c r="D139" s="56"/>
-      <c r="E139" s="52" t="s">
+      <c r="A139" s="70"/>
+      <c r="B139" s="71"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="71"/>
+      <c r="E139" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="F139" s="54"/>
-      <c r="G139" s="52" t="s">
+      <c r="F139" s="73"/>
+      <c r="G139" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="H139" s="54"/>
-      <c r="I139" s="52" t="s">
+      <c r="H139" s="73"/>
+      <c r="I139" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="J139" s="54"/>
-      <c r="K139" s="52" t="s">
+      <c r="J139" s="73"/>
+      <c r="K139" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="L139" s="54"/>
-      <c r="M139" s="55"/>
-      <c r="N139" s="56"/>
+      <c r="L139" s="73"/>
+      <c r="M139" s="70"/>
+      <c r="N139" s="71"/>
       <c r="O139" s="19"/>
       <c r="P139" s="19"/>
     </row>
@@ -8923,10 +8908,10 @@
       <c r="P140" s="19"/>
     </row>
     <row r="141" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="51" t="s">
+      <c r="A141" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B141" s="51" t="s">
+      <c r="B141" s="50" t="s">
         <v>32</v>
       </c>
       <c r="C141" s="24" t="s">
@@ -8936,41 +8921,41 @@
         <v>77</v>
       </c>
       <c r="E141" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="F141" s="28" t="s">
         <v>621</v>
       </c>
-      <c r="F141" s="28" t="s">
+      <c r="G141" s="28" t="s">
         <v>622</v>
       </c>
-      <c r="G141" s="28" t="s">
+      <c r="H141" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="H141" s="28" t="s">
+      <c r="I141" s="28" t="s">
         <v>624</v>
       </c>
-      <c r="I141" s="28" t="s">
+      <c r="J141" s="28" t="s">
         <v>625</v>
       </c>
-      <c r="J141" s="28" t="s">
+      <c r="K141" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="K141" s="28" t="s">
+      <c r="L141" s="28" t="s">
         <v>627</v>
       </c>
-      <c r="L141" s="28" t="s">
-        <v>628</v>
-      </c>
-      <c r="M141" s="51" t="s">
+      <c r="M141" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="N141" s="51" t="s">
+      <c r="N141" s="50" t="s">
         <v>73</v>
       </c>
       <c r="O141" s="17"/>
       <c r="P141" s="17"/>
     </row>
     <row r="142" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="51"/>
-      <c r="B142" s="51"/>
+      <c r="A142" s="50"/>
+      <c r="B142" s="50"/>
       <c r="C142" s="20">
         <v>-0.5</v>
       </c>
@@ -8978,39 +8963,39 @@
         <v>-0.5</v>
       </c>
       <c r="E142" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="F142" s="28" t="s">
         <v>629</v>
       </c>
-      <c r="F142" s="28" t="s">
+      <c r="G142" s="28" t="s">
         <v>630</v>
       </c>
-      <c r="G142" s="28" t="s">
+      <c r="H142" s="28" t="s">
         <v>631</v>
       </c>
-      <c r="H142" s="28" t="s">
+      <c r="I142" s="28" t="s">
         <v>632</v>
       </c>
-      <c r="I142" s="28" t="s">
+      <c r="J142" s="28" t="s">
         <v>633</v>
       </c>
-      <c r="J142" s="28" t="s">
+      <c r="K142" s="28" t="s">
         <v>634</v>
       </c>
-      <c r="K142" s="28" t="s">
+      <c r="L142" s="28" t="s">
         <v>635</v>
       </c>
-      <c r="L142" s="28" t="s">
-        <v>636</v>
-      </c>
-      <c r="M142" s="51"/>
-      <c r="N142" s="51"/>
+      <c r="M142" s="50"/>
+      <c r="N142" s="50"/>
       <c r="O142" s="17"/>
       <c r="P142" s="17"/>
     </row>
     <row r="143" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="51" t="s">
+      <c r="A143" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B143" s="51" t="s">
+      <c r="B143" s="50" t="s">
         <v>33</v>
       </c>
       <c r="C143" s="24" t="s">
@@ -9020,41 +9005,41 @@
         <v>78</v>
       </c>
       <c r="E143" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="F143" s="28" t="s">
         <v>637</v>
       </c>
-      <c r="F143" s="28" t="s">
+      <c r="G143" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="G143" s="28" t="s">
+      <c r="H143" s="28" t="s">
         <v>639</v>
       </c>
-      <c r="H143" s="28" t="s">
+      <c r="I143" s="28" t="s">
         <v>640</v>
       </c>
-      <c r="I143" s="28" t="s">
+      <c r="J143" s="28" t="s">
         <v>641</v>
       </c>
-      <c r="J143" s="28" t="s">
+      <c r="K143" s="28" t="s">
         <v>642</v>
       </c>
-      <c r="K143" s="28" t="s">
+      <c r="L143" s="28" t="s">
         <v>643</v>
       </c>
-      <c r="L143" s="28" t="s">
-        <v>644</v>
-      </c>
-      <c r="M143" s="51" t="s">
+      <c r="M143" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="N143" s="51" t="s">
+      <c r="N143" s="50" t="s">
         <v>74</v>
       </c>
       <c r="O143" s="17"/>
       <c r="P143" s="17"/>
     </row>
     <row r="144" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="51"/>
-      <c r="B144" s="51"/>
+      <c r="A144" s="50"/>
+      <c r="B144" s="50"/>
       <c r="C144" s="20">
         <v>-1.4</v>
       </c>
@@ -9062,39 +9047,39 @@
         <v>-1.4</v>
       </c>
       <c r="E144" s="28" t="s">
+        <v>644</v>
+      </c>
+      <c r="F144" s="28" t="s">
         <v>645</v>
       </c>
-      <c r="F144" s="28" t="s">
+      <c r="G144" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="G144" s="28" t="s">
+      <c r="H144" s="28" t="s">
         <v>647</v>
       </c>
-      <c r="H144" s="28" t="s">
+      <c r="I144" s="28" t="s">
         <v>648</v>
       </c>
-      <c r="I144" s="28" t="s">
+      <c r="J144" s="28" t="s">
         <v>649</v>
       </c>
-      <c r="J144" s="28" t="s">
+      <c r="K144" s="28" t="s">
         <v>650</v>
       </c>
-      <c r="K144" s="28" t="s">
+      <c r="L144" s="28" t="s">
         <v>651</v>
       </c>
-      <c r="L144" s="28" t="s">
-        <v>652</v>
-      </c>
-      <c r="M144" s="51"/>
-      <c r="N144" s="51"/>
+      <c r="M144" s="50"/>
+      <c r="N144" s="50"/>
       <c r="O144" s="17"/>
       <c r="P144" s="17"/>
     </row>
     <row r="145" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="51" t="s">
+      <c r="A145" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B145" s="51" t="s">
+      <c r="B145" s="50" t="s">
         <v>34</v>
       </c>
       <c r="C145" s="24" t="s">
@@ -9104,41 +9089,41 @@
         <v>79</v>
       </c>
       <c r="E145" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="F145" s="28" t="s">
         <v>653</v>
       </c>
-      <c r="F145" s="28" t="s">
+      <c r="G145" s="28" t="s">
         <v>654</v>
       </c>
-      <c r="G145" s="28" t="s">
+      <c r="H145" s="28" t="s">
         <v>655</v>
       </c>
-      <c r="H145" s="28" t="s">
+      <c r="I145" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="I145" s="28" t="s">
+      <c r="J145" s="28" t="s">
         <v>657</v>
       </c>
-      <c r="J145" s="28" t="s">
+      <c r="K145" s="28" t="s">
         <v>658</v>
       </c>
-      <c r="K145" s="28" t="s">
+      <c r="L145" s="28" t="s">
         <v>659</v>
       </c>
-      <c r="L145" s="28" t="s">
-        <v>660</v>
-      </c>
-      <c r="M145" s="51" t="s">
+      <c r="M145" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="N145" s="51" t="s">
+      <c r="N145" s="50" t="s">
         <v>75</v>
       </c>
       <c r="O145" s="17"/>
       <c r="P145" s="17"/>
     </row>
     <row r="146" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="51"/>
-      <c r="B146" s="51"/>
+      <c r="A146" s="50"/>
+      <c r="B146" s="50"/>
       <c r="C146" s="21">
         <v>-2.8</v>
       </c>
@@ -9146,39 +9131,39 @@
         <v>-2.8</v>
       </c>
       <c r="E146" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="F146" s="28" t="s">
         <v>661</v>
       </c>
-      <c r="F146" s="28" t="s">
+      <c r="G146" s="28" t="s">
         <v>662</v>
       </c>
-      <c r="G146" s="28" t="s">
+      <c r="H146" s="28" t="s">
         <v>663</v>
       </c>
-      <c r="H146" s="28" t="s">
+      <c r="I146" s="28" t="s">
         <v>664</v>
       </c>
-      <c r="I146" s="28" t="s">
+      <c r="J146" s="28" t="s">
         <v>665</v>
       </c>
-      <c r="J146" s="28" t="s">
+      <c r="K146" s="28" t="s">
         <v>666</v>
       </c>
-      <c r="K146" s="28" t="s">
+      <c r="L146" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="L146" s="28" t="s">
-        <v>668</v>
-      </c>
-      <c r="M146" s="51"/>
-      <c r="N146" s="51"/>
+      <c r="M146" s="50"/>
+      <c r="N146" s="50"/>
       <c r="O146" s="17"/>
       <c r="P146" s="17"/>
     </row>
     <row r="147" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="51" t="s">
+      <c r="A147" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B147" s="51" t="s">
+      <c r="B147" s="50" t="s">
         <v>35</v>
       </c>
       <c r="C147" s="24" t="s">
@@ -9188,41 +9173,41 @@
         <v>51</v>
       </c>
       <c r="E147" s="28" t="s">
+        <v>668</v>
+      </c>
+      <c r="F147" s="28" t="s">
         <v>669</v>
       </c>
-      <c r="F147" s="28" t="s">
+      <c r="G147" s="28" t="s">
         <v>670</v>
       </c>
-      <c r="G147" s="28" t="s">
+      <c r="H147" s="28" t="s">
         <v>671</v>
       </c>
-      <c r="H147" s="28" t="s">
+      <c r="I147" s="28" t="s">
         <v>672</v>
       </c>
-      <c r="I147" s="28" t="s">
+      <c r="J147" s="28" t="s">
         <v>673</v>
       </c>
-      <c r="J147" s="28" t="s">
+      <c r="K147" s="28" t="s">
         <v>674</v>
       </c>
-      <c r="K147" s="28" t="s">
+      <c r="L147" s="28" t="s">
         <v>675</v>
       </c>
-      <c r="L147" s="28" t="s">
-        <v>676</v>
-      </c>
-      <c r="M147" s="51" t="s">
+      <c r="M147" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="N147" s="51" t="s">
+      <c r="N147" s="50" t="s">
         <v>83</v>
       </c>
       <c r="O147" s="17"/>
       <c r="P147" s="17"/>
     </row>
     <row r="148" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="51"/>
-      <c r="B148" s="51"/>
+      <c r="A148" s="50"/>
+      <c r="B148" s="50"/>
       <c r="C148" s="21">
         <v>-4</v>
       </c>
@@ -9230,83 +9215,83 @@
         <v>-6</v>
       </c>
       <c r="E148" s="28" t="s">
+        <v>676</v>
+      </c>
+      <c r="F148" s="28" t="s">
         <v>677</v>
       </c>
-      <c r="F148" s="28" t="s">
+      <c r="G148" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="G148" s="28" t="s">
+      <c r="H148" s="28" t="s">
         <v>679</v>
       </c>
-      <c r="H148" s="28" t="s">
+      <c r="I148" s="28" t="s">
         <v>680</v>
       </c>
-      <c r="I148" s="28" t="s">
+      <c r="J148" s="28" t="s">
         <v>681</v>
       </c>
-      <c r="J148" s="28" t="s">
+      <c r="K148" s="28" t="s">
         <v>682</v>
       </c>
-      <c r="K148" s="28" t="s">
+      <c r="L148" s="28" t="s">
         <v>683</v>
       </c>
-      <c r="L148" s="28" t="s">
-        <v>684</v>
-      </c>
-      <c r="M148" s="51"/>
-      <c r="N148" s="51"/>
+      <c r="M148" s="50"/>
+      <c r="N148" s="50"/>
       <c r="O148" s="17"/>
       <c r="P148" s="17"/>
     </row>
     <row r="149" spans="1:16" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="47" t="s">
+      <c r="A149" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B149" s="48"/>
-      <c r="C149" s="47" t="s">
+      <c r="B149" s="69"/>
+      <c r="C149" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="D149" s="48"/>
-      <c r="E149" s="52" t="s">
+      <c r="D149" s="69"/>
+      <c r="E149" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="F149" s="53"/>
-      <c r="G149" s="53"/>
-      <c r="H149" s="53"/>
-      <c r="I149" s="53"/>
-      <c r="J149" s="53"/>
-      <c r="K149" s="53"/>
-      <c r="L149" s="54"/>
-      <c r="M149" s="47" t="s">
+      <c r="F149" s="75"/>
+      <c r="G149" s="75"/>
+      <c r="H149" s="75"/>
+      <c r="I149" s="75"/>
+      <c r="J149" s="75"/>
+      <c r="K149" s="75"/>
+      <c r="L149" s="73"/>
+      <c r="M149" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="N149" s="48"/>
+      <c r="N149" s="69"/>
       <c r="O149" s="19"/>
       <c r="P149" s="19"/>
     </row>
     <row r="150" spans="1:16" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="55"/>
-      <c r="B150" s="56"/>
-      <c r="C150" s="55"/>
-      <c r="D150" s="56"/>
-      <c r="E150" s="52" t="s">
+      <c r="A150" s="70"/>
+      <c r="B150" s="71"/>
+      <c r="C150" s="70"/>
+      <c r="D150" s="71"/>
+      <c r="E150" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="F150" s="54"/>
-      <c r="G150" s="52" t="s">
+      <c r="F150" s="73"/>
+      <c r="G150" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="H150" s="54"/>
-      <c r="I150" s="52" t="s">
+      <c r="H150" s="73"/>
+      <c r="I150" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="J150" s="54"/>
-      <c r="K150" s="52" t="s">
+      <c r="J150" s="73"/>
+      <c r="K150" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="L150" s="54"/>
-      <c r="M150" s="55"/>
-      <c r="N150" s="56"/>
+      <c r="L150" s="73"/>
+      <c r="M150" s="70"/>
+      <c r="N150" s="71"/>
       <c r="O150" s="19"/>
       <c r="P150" s="19"/>
     </row>
@@ -9357,10 +9342,10 @@
       <c r="P151" s="19"/>
     </row>
     <row r="152" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B152" s="51" t="s">
+      <c r="A152" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B152" s="50" t="s">
         <v>37</v>
       </c>
       <c r="C152" s="24" t="s">
@@ -9369,82 +9354,82 @@
       <c r="D152" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E152" s="40" t="s">
+      <c r="E152" s="39" t="s">
         <v>70</v>
       </c>
       <c r="F152" s="28" t="s">
-        <v>685</v>
-      </c>
-      <c r="G152" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="G152" s="39" t="s">
         <v>70</v>
       </c>
       <c r="H152" s="28" t="s">
-        <v>689</v>
-      </c>
-      <c r="I152" s="40" t="s">
+        <v>688</v>
+      </c>
+      <c r="I152" s="39" t="s">
         <v>70</v>
       </c>
       <c r="J152" s="28" t="s">
-        <v>693</v>
-      </c>
-      <c r="K152" s="40" t="s">
+        <v>692</v>
+      </c>
+      <c r="K152" s="39" t="s">
         <v>70</v>
       </c>
       <c r="L152" s="28" t="s">
-        <v>697</v>
-      </c>
-      <c r="M152" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="N152" s="51" t="s">
+        <v>696</v>
+      </c>
+      <c r="M152" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="N152" s="50" t="s">
         <v>84</v>
       </c>
       <c r="O152" s="17"/>
       <c r="P152" s="17"/>
     </row>
     <row r="153" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="51"/>
-      <c r="B153" s="51"/>
+      <c r="A153" s="50"/>
+      <c r="B153" s="50"/>
       <c r="C153" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D153" s="21">
         <v>-60</v>
       </c>
-      <c r="E153" s="40" t="s">
+      <c r="E153" s="39" t="s">
         <v>70</v>
       </c>
       <c r="F153" s="28" t="s">
-        <v>686</v>
-      </c>
-      <c r="G153" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="G153" s="39" t="s">
         <v>70</v>
       </c>
       <c r="H153" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="I153" s="40" t="s">
+        <v>689</v>
+      </c>
+      <c r="I153" s="39" t="s">
         <v>70</v>
       </c>
       <c r="J153" s="28" t="s">
-        <v>694</v>
-      </c>
-      <c r="K153" s="40" t="s">
+        <v>693</v>
+      </c>
+      <c r="K153" s="39" t="s">
         <v>70</v>
       </c>
       <c r="L153" s="28" t="s">
-        <v>698</v>
-      </c>
-      <c r="M153" s="51"/>
-      <c r="N153" s="51"/>
+        <v>697</v>
+      </c>
+      <c r="M153" s="50"/>
+      <c r="N153" s="50"/>
       <c r="O153" s="17"/>
       <c r="P153" s="17"/>
     </row>
     <row r="154" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B154" s="51" t="s">
+      <c r="A154" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B154" s="50" t="s">
         <v>41</v>
       </c>
       <c r="C154" s="24" t="s">
@@ -9453,74 +9438,74 @@
       <c r="D154" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E154" s="40" t="s">
+      <c r="E154" s="39" t="s">
         <v>70</v>
       </c>
       <c r="F154" s="28" t="s">
-        <v>687</v>
-      </c>
-      <c r="G154" s="40" t="s">
+        <v>686</v>
+      </c>
+      <c r="G154" s="39" t="s">
         <v>70</v>
       </c>
       <c r="H154" s="28" t="s">
-        <v>691</v>
-      </c>
-      <c r="I154" s="40" t="s">
+        <v>690</v>
+      </c>
+      <c r="I154" s="39" t="s">
         <v>70</v>
       </c>
       <c r="J154" s="28" t="s">
-        <v>695</v>
-      </c>
-      <c r="K154" s="40" t="s">
+        <v>694</v>
+      </c>
+      <c r="K154" s="39" t="s">
         <v>70</v>
       </c>
       <c r="L154" s="28" t="s">
-        <v>699</v>
-      </c>
-      <c r="M154" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="N154" s="51" t="s">
+        <v>698</v>
+      </c>
+      <c r="M154" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="N154" s="50" t="s">
         <v>85</v>
       </c>
       <c r="O154" s="17"/>
       <c r="P154" s="17"/>
     </row>
     <row r="155" spans="1:16" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="51"/>
-      <c r="B155" s="51"/>
+      <c r="A155" s="50"/>
+      <c r="B155" s="50"/>
       <c r="C155" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D155" s="21">
         <v>-160</v>
       </c>
-      <c r="E155" s="40" t="s">
+      <c r="E155" s="39" t="s">
         <v>70</v>
       </c>
       <c r="F155" s="28" t="s">
-        <v>688</v>
-      </c>
-      <c r="G155" s="40" t="s">
+        <v>687</v>
+      </c>
+      <c r="G155" s="39" t="s">
         <v>70</v>
       </c>
       <c r="H155" s="28" t="s">
-        <v>692</v>
-      </c>
-      <c r="I155" s="40" t="s">
+        <v>691</v>
+      </c>
+      <c r="I155" s="39" t="s">
         <v>70</v>
       </c>
       <c r="J155" s="28" t="s">
-        <v>696</v>
-      </c>
-      <c r="K155" s="40" t="s">
+        <v>695</v>
+      </c>
+      <c r="K155" s="39" t="s">
         <v>70</v>
       </c>
       <c r="L155" s="28" t="s">
-        <v>700</v>
-      </c>
-      <c r="M155" s="51"/>
-      <c r="N155" s="51"/>
+        <v>699</v>
+      </c>
+      <c r="M155" s="50"/>
+      <c r="N155" s="50"/>
       <c r="O155" s="17"/>
       <c r="P155" s="17"/>
     </row>
@@ -9581,50 +9566,50 @@
       <c r="P158" s="17"/>
     </row>
     <row r="159" spans="1:16" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="58" t="s">
+      <c r="A159" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B159" s="58"/>
-      <c r="C159" s="58" t="s">
+      <c r="B159" s="52"/>
+      <c r="C159" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="D159" s="58"/>
-      <c r="E159" s="58"/>
-      <c r="F159" s="58"/>
-      <c r="G159" s="58"/>
-      <c r="H159" s="58"/>
-      <c r="I159" s="58"/>
-      <c r="J159" s="58"/>
-      <c r="K159" s="58" t="s">
+      <c r="D159" s="52"/>
+      <c r="E159" s="52"/>
+      <c r="F159" s="52"/>
+      <c r="G159" s="52"/>
+      <c r="H159" s="52"/>
+      <c r="I159" s="52"/>
+      <c r="J159" s="52"/>
+      <c r="K159" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="L159" s="58"/>
+      <c r="L159" s="52"/>
       <c r="M159" s="17"/>
       <c r="N159" s="17"/>
       <c r="O159" s="17"/>
       <c r="P159" s="17"/>
     </row>
     <row r="160" spans="1:16" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="58"/>
-      <c r="B160" s="58"/>
-      <c r="C160" s="58" t="s">
+      <c r="A160" s="52"/>
+      <c r="B160" s="52"/>
+      <c r="C160" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D160" s="58"/>
-      <c r="E160" s="58" t="s">
+      <c r="D160" s="52"/>
+      <c r="E160" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F160" s="58"/>
-      <c r="G160" s="58" t="s">
+      <c r="F160" s="52"/>
+      <c r="G160" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="H160" s="58"/>
-      <c r="I160" s="58" t="s">
+      <c r="H160" s="52"/>
+      <c r="I160" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="J160" s="58"/>
-      <c r="K160" s="58"/>
-      <c r="L160" s="58"/>
+      <c r="J160" s="52"/>
+      <c r="K160" s="52"/>
+      <c r="L160" s="52"/>
       <c r="M160" s="17"/>
       <c r="N160" s="17"/>
       <c r="O160" s="17"/>
@@ -9661,8 +9646,8 @@
       <c r="J161" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K161" s="58"/>
-      <c r="L161" s="58"/>
+      <c r="K161" s="52"/>
+      <c r="L161" s="52"/>
       <c r="M161" s="17"/>
       <c r="N161" s="17"/>
       <c r="O161" s="17"/>
@@ -9682,27 +9667,27 @@
         <v>215</v>
       </c>
       <c r="E162" s="35" t="s">
+        <v>700</v>
+      </c>
+      <c r="F162" s="35" t="s">
         <v>701</v>
       </c>
-      <c r="F162" s="35" t="s">
+      <c r="G162" s="35" t="s">
         <v>702</v>
       </c>
-      <c r="G162" s="35" t="s">
+      <c r="H162" s="35" t="s">
         <v>703</v>
       </c>
-      <c r="H162" s="35" t="s">
+      <c r="I162" s="35" t="s">
         <v>704</v>
       </c>
-      <c r="I162" s="35" t="s">
+      <c r="J162" s="35" t="s">
         <v>705</v>
       </c>
-      <c r="J162" s="35" t="s">
-        <v>706</v>
-      </c>
-      <c r="K162" s="51">
+      <c r="K162" s="50">
         <v>1000</v>
       </c>
-      <c r="L162" s="51"/>
+      <c r="L162" s="50"/>
       <c r="M162" s="17"/>
       <c r="N162" s="17"/>
       <c r="O162" s="17"/>
@@ -9722,25 +9707,25 @@
         <v>224</v>
       </c>
       <c r="E163" s="35" t="s">
+        <v>706</v>
+      </c>
+      <c r="F163" s="35" t="s">
         <v>707</v>
       </c>
-      <c r="F163" s="35" t="s">
+      <c r="G163" s="35" t="s">
         <v>708</v>
       </c>
-      <c r="G163" s="35" t="s">
+      <c r="H163" s="35" t="s">
         <v>709</v>
       </c>
-      <c r="H163" s="35" t="s">
+      <c r="I163" s="35" t="s">
         <v>710</v>
       </c>
-      <c r="I163" s="35" t="s">
+      <c r="J163" s="35" t="s">
         <v>711</v>
       </c>
-      <c r="J163" s="35" t="s">
-        <v>712</v>
-      </c>
-      <c r="K163" s="51"/>
-      <c r="L163" s="51"/>
+      <c r="K163" s="50"/>
+      <c r="L163" s="50"/>
       <c r="M163" s="17"/>
       <c r="N163" s="17"/>
       <c r="O163" s="17"/>
@@ -9760,25 +9745,25 @@
         <v>225</v>
       </c>
       <c r="E164" s="35" t="s">
+        <v>712</v>
+      </c>
+      <c r="F164" s="35" t="s">
         <v>713</v>
       </c>
-      <c r="F164" s="35" t="s">
+      <c r="G164" s="35" t="s">
         <v>714</v>
       </c>
-      <c r="G164" s="35" t="s">
+      <c r="H164" s="35" t="s">
         <v>715</v>
       </c>
-      <c r="H164" s="35" t="s">
+      <c r="I164" s="35" t="s">
         <v>716</v>
       </c>
-      <c r="I164" s="35" t="s">
+      <c r="J164" s="35" t="s">
         <v>717</v>
       </c>
-      <c r="J164" s="35" t="s">
-        <v>718</v>
-      </c>
-      <c r="K164" s="51"/>
-      <c r="L164" s="51"/>
+      <c r="K164" s="50"/>
+      <c r="L164" s="50"/>
       <c r="M164" s="17"/>
       <c r="N164" s="17"/>
       <c r="O164" s="17"/>
@@ -9798,25 +9783,25 @@
         <v>226</v>
       </c>
       <c r="E165" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="F165" s="35" t="s">
         <v>719</v>
       </c>
-      <c r="F165" s="35" t="s">
+      <c r="G165" s="35" t="s">
         <v>720</v>
       </c>
-      <c r="G165" s="35" t="s">
+      <c r="H165" s="35" t="s">
         <v>721</v>
       </c>
-      <c r="H165" s="35" t="s">
+      <c r="I165" s="35" t="s">
         <v>722</v>
       </c>
-      <c r="I165" s="35" t="s">
+      <c r="J165" s="35" t="s">
         <v>723</v>
       </c>
-      <c r="J165" s="35" t="s">
-        <v>724</v>
-      </c>
-      <c r="K165" s="51"/>
-      <c r="L165" s="51"/>
+      <c r="K165" s="50"/>
+      <c r="L165" s="50"/>
       <c r="M165" s="17"/>
       <c r="N165" s="17"/>
       <c r="O165" s="17"/>
@@ -9836,25 +9821,25 @@
         <v>227</v>
       </c>
       <c r="E166" s="35" t="s">
+        <v>724</v>
+      </c>
+      <c r="F166" s="35" t="s">
         <v>725</v>
       </c>
-      <c r="F166" s="35" t="s">
+      <c r="G166" s="35" t="s">
         <v>726</v>
       </c>
-      <c r="G166" s="35" t="s">
+      <c r="H166" s="35" t="s">
         <v>727</v>
       </c>
-      <c r="H166" s="35" t="s">
+      <c r="I166" s="35" t="s">
         <v>728</v>
       </c>
-      <c r="I166" s="35" t="s">
+      <c r="J166" s="35" t="s">
         <v>729</v>
       </c>
-      <c r="J166" s="35" t="s">
-        <v>730</v>
-      </c>
-      <c r="K166" s="51"/>
-      <c r="L166" s="51"/>
+      <c r="K166" s="50"/>
+      <c r="L166" s="50"/>
       <c r="M166" s="17"/>
       <c r="N166" s="17"/>
       <c r="O166" s="17"/>
@@ -9874,25 +9859,25 @@
         <v>228</v>
       </c>
       <c r="E167" s="35" t="s">
+        <v>730</v>
+      </c>
+      <c r="F167" s="35" t="s">
         <v>731</v>
       </c>
-      <c r="F167" s="35" t="s">
+      <c r="G167" s="35" t="s">
         <v>732</v>
       </c>
-      <c r="G167" s="35" t="s">
+      <c r="H167" s="35" t="s">
         <v>733</v>
       </c>
-      <c r="H167" s="35" t="s">
+      <c r="I167" s="35" t="s">
         <v>734</v>
       </c>
-      <c r="I167" s="35" t="s">
+      <c r="J167" s="35" t="s">
         <v>735</v>
       </c>
-      <c r="J167" s="35" t="s">
-        <v>736</v>
-      </c>
-      <c r="K167" s="51"/>
-      <c r="L167" s="51"/>
+      <c r="K167" s="50"/>
+      <c r="L167" s="50"/>
       <c r="M167" s="17"/>
       <c r="N167" s="17"/>
       <c r="O167" s="17"/>
@@ -9912,25 +9897,25 @@
         <v>229</v>
       </c>
       <c r="E168" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="F168" s="35" t="s">
         <v>737</v>
       </c>
-      <c r="F168" s="35" t="s">
+      <c r="G168" s="35" t="s">
         <v>738</v>
       </c>
-      <c r="G168" s="35" t="s">
+      <c r="H168" s="35" t="s">
         <v>739</v>
       </c>
-      <c r="H168" s="35" t="s">
+      <c r="I168" s="35" t="s">
         <v>740</v>
       </c>
-      <c r="I168" s="35" t="s">
+      <c r="J168" s="35" t="s">
         <v>741</v>
       </c>
-      <c r="J168" s="35" t="s">
-        <v>742</v>
-      </c>
-      <c r="K168" s="51"/>
-      <c r="L168" s="51"/>
+      <c r="K168" s="50"/>
+      <c r="L168" s="50"/>
       <c r="M168" s="17"/>
       <c r="N168" s="17"/>
       <c r="O168" s="17"/>
@@ -9950,25 +9935,25 @@
         <v>230</v>
       </c>
       <c r="E169" s="35" t="s">
+        <v>742</v>
+      </c>
+      <c r="F169" s="35" t="s">
         <v>743</v>
       </c>
-      <c r="F169" s="35" t="s">
+      <c r="G169" s="35" t="s">
         <v>744</v>
       </c>
-      <c r="G169" s="35" t="s">
+      <c r="H169" s="35" t="s">
         <v>745</v>
       </c>
-      <c r="H169" s="35" t="s">
+      <c r="I169" s="35" t="s">
         <v>746</v>
       </c>
-      <c r="I169" s="35" t="s">
+      <c r="J169" s="35" t="s">
         <v>747</v>
       </c>
-      <c r="J169" s="35" t="s">
-        <v>748</v>
-      </c>
-      <c r="K169" s="51"/>
-      <c r="L169" s="51"/>
+      <c r="K169" s="50"/>
+      <c r="L169" s="50"/>
       <c r="M169" s="17"/>
       <c r="N169" s="17"/>
       <c r="O169" s="17"/>
@@ -9988,25 +9973,25 @@
         <v>231</v>
       </c>
       <c r="E170" s="35" t="s">
+        <v>748</v>
+      </c>
+      <c r="F170" s="35" t="s">
         <v>749</v>
       </c>
-      <c r="F170" s="35" t="s">
+      <c r="G170" s="35" t="s">
         <v>750</v>
       </c>
-      <c r="G170" s="35" t="s">
+      <c r="H170" s="35" t="s">
         <v>751</v>
       </c>
-      <c r="H170" s="35" t="s">
+      <c r="I170" s="35" t="s">
         <v>752</v>
       </c>
-      <c r="I170" s="35" t="s">
+      <c r="J170" s="35" t="s">
         <v>753</v>
       </c>
-      <c r="J170" s="35" t="s">
-        <v>754</v>
-      </c>
-      <c r="K170" s="51"/>
-      <c r="L170" s="51"/>
+      <c r="K170" s="50"/>
+      <c r="L170" s="50"/>
       <c r="M170" s="17"/>
       <c r="N170" s="17"/>
       <c r="O170" s="17"/>
@@ -10025,26 +10010,26 @@
       <c r="D171" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="E171" s="40" t="s">
+      <c r="E171" s="39" t="s">
         <v>70</v>
       </c>
       <c r="F171" s="35" t="s">
-        <v>755</v>
-      </c>
-      <c r="G171" s="40" t="s">
+        <v>754</v>
+      </c>
+      <c r="G171" s="39" t="s">
         <v>70</v>
       </c>
       <c r="H171" s="35" t="s">
-        <v>758</v>
-      </c>
-      <c r="I171" s="40" t="s">
+        <v>757</v>
+      </c>
+      <c r="I171" s="39" t="s">
         <v>70</v>
       </c>
       <c r="J171" s="35" t="s">
-        <v>761</v>
-      </c>
-      <c r="K171" s="51"/>
-      <c r="L171" s="51"/>
+        <v>760</v>
+      </c>
+      <c r="K171" s="50"/>
+      <c r="L171" s="50"/>
       <c r="M171" s="17"/>
       <c r="N171" s="17"/>
       <c r="O171" s="17"/>
@@ -10063,26 +10048,26 @@
       <c r="D172" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="E172" s="40" t="s">
+      <c r="E172" s="39" t="s">
         <v>70</v>
       </c>
       <c r="F172" s="35" t="s">
-        <v>756</v>
-      </c>
-      <c r="G172" s="40" t="s">
+        <v>755</v>
+      </c>
+      <c r="G172" s="39" t="s">
         <v>70</v>
       </c>
       <c r="H172" s="35" t="s">
-        <v>759</v>
-      </c>
-      <c r="I172" s="40" t="s">
+        <v>758</v>
+      </c>
+      <c r="I172" s="39" t="s">
         <v>70</v>
       </c>
       <c r="J172" s="35" t="s">
-        <v>762</v>
-      </c>
-      <c r="K172" s="51"/>
-      <c r="L172" s="51"/>
+        <v>761</v>
+      </c>
+      <c r="K172" s="50"/>
+      <c r="L172" s="50"/>
       <c r="M172" s="17"/>
       <c r="N172" s="17"/>
       <c r="O172" s="17"/>
@@ -10101,76 +10086,76 @@
       <c r="D173" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="E173" s="40" t="s">
+      <c r="E173" s="39" t="s">
         <v>70</v>
       </c>
       <c r="F173" s="35" t="s">
-        <v>757</v>
-      </c>
-      <c r="G173" s="40" t="s">
+        <v>756</v>
+      </c>
+      <c r="G173" s="39" t="s">
         <v>70</v>
       </c>
       <c r="H173" s="35" t="s">
-        <v>760</v>
-      </c>
-      <c r="I173" s="40" t="s">
+        <v>759</v>
+      </c>
+      <c r="I173" s="39" t="s">
         <v>70</v>
       </c>
       <c r="J173" s="35" t="s">
-        <v>763</v>
-      </c>
-      <c r="K173" s="51"/>
-      <c r="L173" s="51"/>
+        <v>762</v>
+      </c>
+      <c r="K173" s="50"/>
+      <c r="L173" s="50"/>
       <c r="M173" s="17"/>
       <c r="N173" s="17"/>
       <c r="O173" s="17"/>
       <c r="P173" s="17"/>
     </row>
     <row r="174" spans="1:16" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="58" t="s">
+      <c r="A174" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B174" s="58"/>
-      <c r="C174" s="58" t="s">
+      <c r="B174" s="52"/>
+      <c r="C174" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="D174" s="58"/>
-      <c r="E174" s="58"/>
-      <c r="F174" s="58"/>
-      <c r="G174" s="58"/>
-      <c r="H174" s="58"/>
-      <c r="I174" s="58"/>
-      <c r="J174" s="58"/>
-      <c r="K174" s="58" t="s">
+      <c r="D174" s="52"/>
+      <c r="E174" s="52"/>
+      <c r="F174" s="52"/>
+      <c r="G174" s="52"/>
+      <c r="H174" s="52"/>
+      <c r="I174" s="52"/>
+      <c r="J174" s="52"/>
+      <c r="K174" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="L174" s="58"/>
+      <c r="L174" s="52"/>
       <c r="M174" s="17"/>
       <c r="N174" s="17"/>
       <c r="O174" s="17"/>
       <c r="P174" s="17"/>
     </row>
     <row r="175" spans="1:16" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="58"/>
-      <c r="B175" s="58"/>
-      <c r="C175" s="58" t="s">
+      <c r="A175" s="52"/>
+      <c r="B175" s="52"/>
+      <c r="C175" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D175" s="58"/>
-      <c r="E175" s="58" t="s">
+      <c r="D175" s="52"/>
+      <c r="E175" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="F175" s="58"/>
-      <c r="G175" s="58" t="s">
+      <c r="F175" s="52"/>
+      <c r="G175" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="H175" s="58"/>
-      <c r="I175" s="58" t="s">
+      <c r="H175" s="52"/>
+      <c r="I175" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="J175" s="58"/>
-      <c r="K175" s="58"/>
-      <c r="L175" s="58"/>
+      <c r="J175" s="52"/>
+      <c r="K175" s="52"/>
+      <c r="L175" s="52"/>
       <c r="M175" s="17"/>
       <c r="N175" s="17"/>
       <c r="O175" s="17"/>
@@ -10207,8 +10192,8 @@
       <c r="J176" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K176" s="58"/>
-      <c r="L176" s="58"/>
+      <c r="K176" s="52"/>
+      <c r="L176" s="52"/>
       <c r="M176" s="17"/>
       <c r="N176" s="17"/>
       <c r="O176" s="17"/>
@@ -10222,33 +10207,33 @@
         <v>32</v>
       </c>
       <c r="C177" s="35" t="s">
+        <v>763</v>
+      </c>
+      <c r="D177" s="35" t="s">
         <v>764</v>
       </c>
-      <c r="D177" s="35" t="s">
+      <c r="E177" s="35" t="s">
         <v>765</v>
       </c>
-      <c r="E177" s="35" t="s">
+      <c r="F177" s="35" t="s">
         <v>766</v>
       </c>
-      <c r="F177" s="35" t="s">
+      <c r="G177" s="35" t="s">
         <v>767</v>
       </c>
-      <c r="G177" s="35" t="s">
+      <c r="H177" s="35" t="s">
         <v>768</v>
       </c>
-      <c r="H177" s="35" t="s">
+      <c r="I177" s="35" t="s">
         <v>769</v>
       </c>
-      <c r="I177" s="35" t="s">
+      <c r="J177" s="35" t="s">
         <v>770</v>
       </c>
-      <c r="J177" s="35" t="s">
-        <v>771</v>
-      </c>
-      <c r="K177" s="63">
+      <c r="K177" s="59">
         <v>1000</v>
       </c>
-      <c r="L177" s="64"/>
+      <c r="L177" s="60"/>
       <c r="M177" s="17"/>
       <c r="N177" s="17"/>
       <c r="O177" s="17"/>
@@ -10262,31 +10247,31 @@
         <v>33</v>
       </c>
       <c r="C178" s="35" t="s">
+        <v>771</v>
+      </c>
+      <c r="D178" s="35" t="s">
         <v>772</v>
       </c>
-      <c r="D178" s="35" t="s">
+      <c r="E178" s="35" t="s">
         <v>773</v>
       </c>
-      <c r="E178" s="35" t="s">
+      <c r="F178" s="35" t="s">
         <v>774</v>
       </c>
-      <c r="F178" s="35" t="s">
+      <c r="G178" s="35" t="s">
         <v>775</v>
       </c>
-      <c r="G178" s="35" t="s">
+      <c r="H178" s="35" t="s">
         <v>776</v>
       </c>
-      <c r="H178" s="35" t="s">
+      <c r="I178" s="35" t="s">
         <v>777</v>
       </c>
-      <c r="I178" s="35" t="s">
+      <c r="J178" s="35" t="s">
         <v>778</v>
       </c>
-      <c r="J178" s="35" t="s">
-        <v>779</v>
-      </c>
-      <c r="K178" s="65"/>
-      <c r="L178" s="66"/>
+      <c r="K178" s="81"/>
+      <c r="L178" s="82"/>
       <c r="M178" s="17"/>
       <c r="N178" s="17"/>
       <c r="O178" s="17"/>
@@ -10300,31 +10285,31 @@
         <v>34</v>
       </c>
       <c r="C179" s="35" t="s">
+        <v>779</v>
+      </c>
+      <c r="D179" s="35" t="s">
         <v>780</v>
       </c>
-      <c r="D179" s="35" t="s">
+      <c r="E179" s="35" t="s">
         <v>781</v>
       </c>
-      <c r="E179" s="35" t="s">
+      <c r="F179" s="35" t="s">
         <v>782</v>
       </c>
-      <c r="F179" s="35" t="s">
+      <c r="G179" s="35" t="s">
         <v>783</v>
       </c>
-      <c r="G179" s="35" t="s">
+      <c r="H179" s="35" t="s">
         <v>784</v>
       </c>
-      <c r="H179" s="35" t="s">
+      <c r="I179" s="35" t="s">
         <v>785</v>
       </c>
-      <c r="I179" s="35" t="s">
+      <c r="J179" s="35" t="s">
         <v>786</v>
       </c>
-      <c r="J179" s="35" t="s">
-        <v>787</v>
-      </c>
-      <c r="K179" s="65"/>
-      <c r="L179" s="66"/>
+      <c r="K179" s="81"/>
+      <c r="L179" s="82"/>
       <c r="M179" s="17"/>
       <c r="N179" s="17"/>
       <c r="O179" s="17"/>
@@ -10338,31 +10323,31 @@
         <v>35</v>
       </c>
       <c r="C180" s="35" t="s">
+        <v>787</v>
+      </c>
+      <c r="D180" s="35" t="s">
         <v>788</v>
       </c>
-      <c r="D180" s="35" t="s">
+      <c r="E180" s="35" t="s">
         <v>789</v>
       </c>
-      <c r="E180" s="35" t="s">
+      <c r="F180" s="35" t="s">
         <v>790</v>
       </c>
-      <c r="F180" s="35" t="s">
+      <c r="G180" s="35" t="s">
         <v>791</v>
       </c>
-      <c r="G180" s="35" t="s">
+      <c r="H180" s="35" t="s">
         <v>792</v>
       </c>
-      <c r="H180" s="35" t="s">
+      <c r="I180" s="35" t="s">
         <v>793</v>
       </c>
-      <c r="I180" s="35" t="s">
+      <c r="J180" s="35" t="s">
         <v>794</v>
       </c>
-      <c r="J180" s="35" t="s">
-        <v>795</v>
-      </c>
-      <c r="K180" s="65"/>
-      <c r="L180" s="66"/>
+      <c r="K180" s="81"/>
+      <c r="L180" s="82"/>
       <c r="M180" s="17"/>
       <c r="N180" s="17"/>
       <c r="O180" s="17"/>
@@ -10376,31 +10361,31 @@
         <v>9</v>
       </c>
       <c r="C181" s="35" t="s">
+        <v>795</v>
+      </c>
+      <c r="D181" s="35" t="s">
         <v>796</v>
       </c>
-      <c r="D181" s="35" t="s">
+      <c r="E181" s="35" t="s">
         <v>797</v>
       </c>
-      <c r="E181" s="35" t="s">
+      <c r="F181" s="35" t="s">
         <v>798</v>
       </c>
-      <c r="F181" s="35" t="s">
+      <c r="G181" s="35" t="s">
         <v>799</v>
       </c>
-      <c r="G181" s="35" t="s">
+      <c r="H181" s="35" t="s">
         <v>800</v>
       </c>
-      <c r="H181" s="35" t="s">
+      <c r="I181" s="35" t="s">
         <v>801</v>
       </c>
-      <c r="I181" s="35" t="s">
+      <c r="J181" s="35" t="s">
         <v>802</v>
       </c>
-      <c r="J181" s="35" t="s">
-        <v>803</v>
-      </c>
-      <c r="K181" s="65"/>
-      <c r="L181" s="66"/>
+      <c r="K181" s="81"/>
+      <c r="L181" s="82"/>
       <c r="M181" s="17"/>
       <c r="N181" s="17"/>
       <c r="O181" s="17"/>
@@ -10414,31 +10399,31 @@
         <v>36</v>
       </c>
       <c r="C182" s="35" t="s">
+        <v>803</v>
+      </c>
+      <c r="D182" s="35" t="s">
         <v>804</v>
       </c>
-      <c r="D182" s="35" t="s">
+      <c r="E182" s="35" t="s">
         <v>805</v>
       </c>
-      <c r="E182" s="35" t="s">
+      <c r="F182" s="35" t="s">
         <v>806</v>
       </c>
-      <c r="F182" s="35" t="s">
+      <c r="G182" s="35" t="s">
         <v>807</v>
       </c>
-      <c r="G182" s="35" t="s">
+      <c r="H182" s="35" t="s">
         <v>808</v>
       </c>
-      <c r="H182" s="35" t="s">
+      <c r="I182" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="I182" s="35" t="s">
+      <c r="J182" s="35" t="s">
         <v>810</v>
       </c>
-      <c r="J182" s="35" t="s">
-        <v>811</v>
-      </c>
-      <c r="K182" s="65"/>
-      <c r="L182" s="66"/>
+      <c r="K182" s="81"/>
+      <c r="L182" s="82"/>
       <c r="M182" s="17"/>
       <c r="N182" s="17"/>
       <c r="O182" s="17"/>
@@ -10452,31 +10437,31 @@
         <v>37</v>
       </c>
       <c r="C183" s="35" t="s">
+        <v>811</v>
+      </c>
+      <c r="D183" s="35" t="s">
         <v>812</v>
       </c>
-      <c r="D183" s="35" t="s">
+      <c r="E183" s="35" t="s">
         <v>813</v>
       </c>
-      <c r="E183" s="35" t="s">
+      <c r="F183" s="35" t="s">
         <v>814</v>
       </c>
-      <c r="F183" s="35" t="s">
+      <c r="G183" s="35" t="s">
         <v>815</v>
       </c>
-      <c r="G183" s="35" t="s">
+      <c r="H183" s="35" t="s">
         <v>816</v>
       </c>
-      <c r="H183" s="35" t="s">
+      <c r="I183" s="35" t="s">
         <v>817</v>
       </c>
-      <c r="I183" s="35" t="s">
+      <c r="J183" s="35" t="s">
         <v>818</v>
       </c>
-      <c r="J183" s="35" t="s">
-        <v>819</v>
-      </c>
-      <c r="K183" s="65"/>
-      <c r="L183" s="66"/>
+      <c r="K183" s="81"/>
+      <c r="L183" s="82"/>
       <c r="M183" s="17"/>
       <c r="N183" s="17"/>
       <c r="O183" s="17"/>
@@ -10490,31 +10475,31 @@
         <v>38</v>
       </c>
       <c r="C184" s="35" t="s">
+        <v>819</v>
+      </c>
+      <c r="D184" s="35" t="s">
         <v>820</v>
       </c>
-      <c r="D184" s="35" t="s">
+      <c r="E184" s="35" t="s">
         <v>821</v>
       </c>
-      <c r="E184" s="35" t="s">
+      <c r="F184" s="35" t="s">
         <v>822</v>
       </c>
-      <c r="F184" s="35" t="s">
+      <c r="G184" s="35" t="s">
         <v>823</v>
       </c>
-      <c r="G184" s="35" t="s">
+      <c r="H184" s="35" t="s">
         <v>824</v>
       </c>
-      <c r="H184" s="35" t="s">
+      <c r="I184" s="35" t="s">
         <v>825</v>
       </c>
-      <c r="I184" s="35" t="s">
+      <c r="J184" s="35" t="s">
         <v>826</v>
       </c>
-      <c r="J184" s="35" t="s">
-        <v>827</v>
-      </c>
-      <c r="K184" s="65"/>
-      <c r="L184" s="66"/>
+      <c r="K184" s="81"/>
+      <c r="L184" s="82"/>
       <c r="M184" s="17"/>
       <c r="N184" s="17"/>
       <c r="O184" s="17"/>
@@ -10528,31 +10513,31 @@
         <v>7</v>
       </c>
       <c r="C185" s="35" t="s">
+        <v>827</v>
+      </c>
+      <c r="D185" s="35" t="s">
         <v>828</v>
       </c>
-      <c r="D185" s="35" t="s">
+      <c r="E185" s="35" t="s">
         <v>829</v>
       </c>
-      <c r="E185" s="35" t="s">
+      <c r="F185" s="35" t="s">
         <v>830</v>
       </c>
-      <c r="F185" s="35" t="s">
+      <c r="G185" s="35" t="s">
         <v>831</v>
       </c>
-      <c r="G185" s="35" t="s">
+      <c r="H185" s="35" t="s">
         <v>832</v>
       </c>
-      <c r="H185" s="35" t="s">
+      <c r="I185" s="35" t="s">
         <v>833</v>
       </c>
-      <c r="I185" s="35" t="s">
+      <c r="J185" s="35" t="s">
         <v>834</v>
       </c>
-      <c r="J185" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="K185" s="65"/>
-      <c r="L185" s="66"/>
+      <c r="K185" s="81"/>
+      <c r="L185" s="82"/>
       <c r="M185" s="17"/>
       <c r="N185" s="17"/>
       <c r="O185" s="17"/>
@@ -10565,32 +10550,32 @@
       <c r="B186" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C186" s="40" t="s">
+      <c r="C186" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D186" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="E186" s="40" t="s">
+        <v>835</v>
+      </c>
+      <c r="E186" s="39" t="s">
         <v>70</v>
       </c>
       <c r="F186" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="G186" s="40" t="s">
+        <v>838</v>
+      </c>
+      <c r="G186" s="39" t="s">
         <v>70</v>
       </c>
       <c r="H186" s="35" t="s">
-        <v>842</v>
-      </c>
-      <c r="I186" s="40" t="s">
+        <v>841</v>
+      </c>
+      <c r="I186" s="39" t="s">
         <v>70</v>
       </c>
       <c r="J186" s="35" t="s">
-        <v>845</v>
-      </c>
-      <c r="K186" s="65"/>
-      <c r="L186" s="66"/>
+        <v>844</v>
+      </c>
+      <c r="K186" s="81"/>
+      <c r="L186" s="82"/>
       <c r="M186" s="17"/>
       <c r="N186" s="17"/>
       <c r="O186" s="17"/>
@@ -10603,32 +10588,32 @@
       <c r="B187" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C187" s="40" t="s">
+      <c r="C187" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D187" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="E187" s="40" t="s">
+        <v>836</v>
+      </c>
+      <c r="E187" s="39" t="s">
         <v>70</v>
       </c>
       <c r="F187" s="35" t="s">
-        <v>840</v>
-      </c>
-      <c r="G187" s="40" t="s">
+        <v>839</v>
+      </c>
+      <c r="G187" s="39" t="s">
         <v>70</v>
       </c>
       <c r="H187" s="35" t="s">
-        <v>843</v>
-      </c>
-      <c r="I187" s="40" t="s">
+        <v>842</v>
+      </c>
+      <c r="I187" s="39" t="s">
         <v>70</v>
       </c>
       <c r="J187" s="35" t="s">
-        <v>846</v>
-      </c>
-      <c r="K187" s="65"/>
-      <c r="L187" s="66"/>
+        <v>845</v>
+      </c>
+      <c r="K187" s="81"/>
+      <c r="L187" s="82"/>
       <c r="M187" s="17"/>
       <c r="N187" s="17"/>
       <c r="O187" s="17"/>
@@ -10641,32 +10626,32 @@
       <c r="B188" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C188" s="40" t="s">
+      <c r="C188" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D188" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="E188" s="40" t="s">
+        <v>837</v>
+      </c>
+      <c r="E188" s="39" t="s">
         <v>70</v>
       </c>
       <c r="F188" s="35" t="s">
-        <v>841</v>
-      </c>
-      <c r="G188" s="40" t="s">
+        <v>840</v>
+      </c>
+      <c r="G188" s="39" t="s">
         <v>70</v>
       </c>
       <c r="H188" s="35" t="s">
-        <v>844</v>
-      </c>
-      <c r="I188" s="40" t="s">
+        <v>843</v>
+      </c>
+      <c r="I188" s="39" t="s">
         <v>70</v>
       </c>
       <c r="J188" s="35" t="s">
-        <v>847</v>
-      </c>
-      <c r="K188" s="67"/>
-      <c r="L188" s="68"/>
+        <v>846</v>
+      </c>
+      <c r="K188" s="61"/>
+      <c r="L188" s="62"/>
       <c r="M188" s="17"/>
       <c r="N188" s="17"/>
       <c r="O188" s="17"/>
@@ -10729,32 +10714,32 @@
       <c r="P191" s="17"/>
     </row>
     <row r="192" spans="1:16" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="58" t="s">
+      <c r="A192" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B192" s="58"/>
-      <c r="C192" s="51" t="s">
+      <c r="B192" s="52"/>
+      <c r="C192" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D192" s="51"/>
-      <c r="E192" s="51"/>
-      <c r="F192" s="51"/>
-      <c r="G192" s="51"/>
-      <c r="H192" s="51"/>
-      <c r="I192" s="51"/>
-      <c r="J192" s="51"/>
-      <c r="K192" s="58" t="s">
+      <c r="D192" s="50"/>
+      <c r="E192" s="50"/>
+      <c r="F192" s="50"/>
+      <c r="G192" s="50"/>
+      <c r="H192" s="50"/>
+      <c r="I192" s="50"/>
+      <c r="J192" s="50"/>
+      <c r="K192" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="L192" s="58"/>
+      <c r="L192" s="52"/>
       <c r="M192" s="17"/>
       <c r="N192" s="17"/>
       <c r="O192" s="17"/>
       <c r="P192" s="17"/>
     </row>
     <row r="193" spans="1:21" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="58"/>
-      <c r="B193" s="58"/>
+      <c r="A193" s="52"/>
+      <c r="B193" s="52"/>
       <c r="C193" s="13" t="s">
         <v>25</v>
       </c>
@@ -10779,46 +10764,46 @@
       <c r="J193" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K193" s="58"/>
-      <c r="L193" s="58"/>
+      <c r="K193" s="52"/>
+      <c r="L193" s="52"/>
       <c r="M193" s="17"/>
       <c r="N193" s="17"/>
       <c r="O193" s="17"/>
       <c r="P193" s="17"/>
     </row>
     <row r="194" spans="1:21" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="51" t="s">
+      <c r="A194" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B194" s="51"/>
+      <c r="B194" s="50"/>
       <c r="C194" s="35" t="s">
         <v>235</v>
       </c>
       <c r="D194" s="35" t="s">
+        <v>847</v>
+      </c>
+      <c r="E194" s="35" t="s">
         <v>848</v>
       </c>
-      <c r="E194" s="35" t="s">
+      <c r="F194" s="35" t="s">
         <v>849</v>
       </c>
-      <c r="F194" s="35" t="s">
+      <c r="G194" s="35" t="s">
         <v>850</v>
       </c>
-      <c r="G194" s="35" t="s">
+      <c r="H194" s="35" t="s">
         <v>851</v>
       </c>
-      <c r="H194" s="35" t="s">
+      <c r="I194" s="35" t="s">
         <v>852</v>
       </c>
-      <c r="I194" s="35" t="s">
+      <c r="J194" s="35" t="s">
         <v>853</v>
       </c>
-      <c r="J194" s="35" t="s">
-        <v>854</v>
-      </c>
-      <c r="K194" s="51">
+      <c r="K194" s="50">
         <v>450</v>
       </c>
-      <c r="L194" s="51"/>
+      <c r="L194" s="50"/>
       <c r="M194" s="17"/>
       <c r="N194" s="34"/>
       <c r="O194" s="34"/>
@@ -10830,36 +10815,36 @@
       <c r="U194" s="34"/>
     </row>
     <row r="195" spans="1:21" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="51" t="s">
+      <c r="A195" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B195" s="51"/>
+      <c r="B195" s="50"/>
       <c r="C195" s="35" t="s">
         <v>236</v>
       </c>
       <c r="D195" s="35" t="s">
+        <v>854</v>
+      </c>
+      <c r="E195" s="35" t="s">
         <v>855</v>
       </c>
-      <c r="E195" s="35" t="s">
+      <c r="F195" s="35" t="s">
         <v>856</v>
       </c>
-      <c r="F195" s="35" t="s">
+      <c r="G195" s="35" t="s">
         <v>857</v>
       </c>
-      <c r="G195" s="35" t="s">
+      <c r="H195" s="35" t="s">
         <v>858</v>
       </c>
-      <c r="H195" s="35" t="s">
+      <c r="I195" s="35" t="s">
         <v>859</v>
       </c>
-      <c r="I195" s="35" t="s">
+      <c r="J195" s="35" t="s">
         <v>860</v>
       </c>
-      <c r="J195" s="35" t="s">
-        <v>861</v>
-      </c>
-      <c r="K195" s="51"/>
-      <c r="L195" s="51"/>
+      <c r="K195" s="50"/>
+      <c r="L195" s="50"/>
       <c r="M195" s="17"/>
       <c r="N195" s="34"/>
       <c r="O195" s="34"/>
@@ -10871,36 +10856,36 @@
       <c r="U195" s="34"/>
     </row>
     <row r="196" spans="1:21" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="51" t="s">
+      <c r="A196" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B196" s="51"/>
+      <c r="B196" s="50"/>
       <c r="C196" s="35" t="s">
         <v>237</v>
       </c>
       <c r="D196" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="E196" s="35" t="s">
         <v>862</v>
       </c>
-      <c r="E196" s="35" t="s">
+      <c r="F196" s="35" t="s">
         <v>863</v>
       </c>
-      <c r="F196" s="35" t="s">
+      <c r="G196" s="35" t="s">
         <v>864</v>
       </c>
-      <c r="G196" s="35" t="s">
+      <c r="H196" s="35" t="s">
         <v>865</v>
       </c>
-      <c r="H196" s="35" t="s">
+      <c r="I196" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="I196" s="35" t="s">
+      <c r="J196" s="35" t="s">
         <v>867</v>
       </c>
-      <c r="J196" s="35" t="s">
-        <v>868</v>
-      </c>
-      <c r="K196" s="51"/>
-      <c r="L196" s="51"/>
+      <c r="K196" s="50"/>
+      <c r="L196" s="50"/>
       <c r="M196" s="17"/>
       <c r="N196" s="34"/>
       <c r="O196" s="34"/>
@@ -10912,36 +10897,36 @@
       <c r="U196" s="34"/>
     </row>
     <row r="197" spans="1:21" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="51" t="s">
+      <c r="A197" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B197" s="51"/>
+      <c r="B197" s="50"/>
       <c r="C197" s="35" t="s">
         <v>238</v>
       </c>
       <c r="D197" s="35" t="s">
+        <v>868</v>
+      </c>
+      <c r="E197" s="35" t="s">
         <v>869</v>
       </c>
-      <c r="E197" s="35" t="s">
+      <c r="F197" s="35" t="s">
         <v>870</v>
       </c>
-      <c r="F197" s="35" t="s">
+      <c r="G197" s="35" t="s">
         <v>871</v>
       </c>
-      <c r="G197" s="35" t="s">
+      <c r="H197" s="35" t="s">
         <v>872</v>
       </c>
-      <c r="H197" s="35" t="s">
+      <c r="I197" s="35" t="s">
         <v>873</v>
       </c>
-      <c r="I197" s="35" t="s">
+      <c r="J197" s="35" t="s">
         <v>874</v>
       </c>
-      <c r="J197" s="35" t="s">
-        <v>875</v>
-      </c>
-      <c r="K197" s="51"/>
-      <c r="L197" s="51"/>
+      <c r="K197" s="50"/>
+      <c r="L197" s="50"/>
       <c r="M197" s="17"/>
       <c r="N197" s="34"/>
       <c r="O197" s="34"/>
@@ -10953,36 +10938,36 @@
       <c r="U197" s="34"/>
     </row>
     <row r="198" spans="1:21" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="51" t="s">
+      <c r="A198" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B198" s="51"/>
+      <c r="B198" s="50"/>
       <c r="C198" s="35" t="s">
         <v>239</v>
       </c>
       <c r="D198" s="35" t="s">
+        <v>875</v>
+      </c>
+      <c r="E198" s="35" t="s">
         <v>876</v>
       </c>
-      <c r="E198" s="35" t="s">
+      <c r="F198" s="35" t="s">
         <v>877</v>
       </c>
-      <c r="F198" s="35" t="s">
+      <c r="G198" s="35" t="s">
         <v>878</v>
       </c>
-      <c r="G198" s="35" t="s">
+      <c r="H198" s="35" t="s">
         <v>879</v>
       </c>
-      <c r="H198" s="35" t="s">
+      <c r="I198" s="35" t="s">
         <v>880</v>
       </c>
-      <c r="I198" s="35" t="s">
+      <c r="J198" s="35" t="s">
         <v>881</v>
       </c>
-      <c r="J198" s="35" t="s">
-        <v>882</v>
-      </c>
-      <c r="K198" s="51"/>
-      <c r="L198" s="51"/>
+      <c r="K198" s="50"/>
+      <c r="L198" s="50"/>
       <c r="M198" s="17"/>
       <c r="N198" s="34"/>
       <c r="O198" s="34"/>
@@ -10994,36 +10979,36 @@
       <c r="U198" s="34"/>
     </row>
     <row r="199" spans="1:21" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="51" t="s">
+      <c r="A199" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B199" s="51"/>
+      <c r="B199" s="50"/>
       <c r="C199" s="35" t="s">
         <v>240</v>
       </c>
       <c r="D199" s="35" t="s">
+        <v>882</v>
+      </c>
+      <c r="E199" s="35" t="s">
         <v>883</v>
       </c>
-      <c r="E199" s="35" t="s">
+      <c r="F199" s="35" t="s">
         <v>884</v>
       </c>
-      <c r="F199" s="35" t="s">
+      <c r="G199" s="35" t="s">
         <v>885</v>
       </c>
-      <c r="G199" s="35" t="s">
+      <c r="H199" s="35" t="s">
         <v>886</v>
       </c>
-      <c r="H199" s="35" t="s">
+      <c r="I199" s="35" t="s">
         <v>887</v>
       </c>
-      <c r="I199" s="35" t="s">
+      <c r="J199" s="35" t="s">
         <v>888</v>
       </c>
-      <c r="J199" s="35" t="s">
-        <v>889</v>
-      </c>
-      <c r="K199" s="51"/>
-      <c r="L199" s="51"/>
+      <c r="K199" s="50"/>
+      <c r="L199" s="50"/>
       <c r="M199" s="17"/>
       <c r="N199" s="34"/>
       <c r="O199" s="34"/>
@@ -11035,36 +11020,36 @@
       <c r="U199" s="34"/>
     </row>
     <row r="200" spans="1:21" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="51" t="s">
+      <c r="A200" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B200" s="51"/>
+      <c r="B200" s="50"/>
       <c r="C200" s="35" t="s">
         <v>241</v>
       </c>
       <c r="D200" s="35" t="s">
+        <v>889</v>
+      </c>
+      <c r="E200" s="35" t="s">
         <v>890</v>
       </c>
-      <c r="E200" s="35" t="s">
+      <c r="F200" s="35" t="s">
         <v>891</v>
       </c>
-      <c r="F200" s="35" t="s">
+      <c r="G200" s="35" t="s">
         <v>892</v>
       </c>
-      <c r="G200" s="35" t="s">
+      <c r="H200" s="35" t="s">
         <v>893</v>
       </c>
-      <c r="H200" s="35" t="s">
+      <c r="I200" s="35" t="s">
         <v>894</v>
       </c>
-      <c r="I200" s="35" t="s">
+      <c r="J200" s="35" t="s">
         <v>895</v>
       </c>
-      <c r="J200" s="35" t="s">
-        <v>896</v>
-      </c>
-      <c r="K200" s="51"/>
-      <c r="L200" s="51"/>
+      <c r="K200" s="50"/>
+      <c r="L200" s="50"/>
       <c r="M200" s="17"/>
       <c r="N200" s="34"/>
       <c r="O200" s="34"/>
@@ -11114,22 +11099,22 @@
       <c r="P202" s="17"/>
     </row>
     <row r="203" spans="1:21" s="18" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="51" t="s">
+      <c r="A203" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B203" s="51"/>
-      <c r="C203" s="51" t="s">
+      <c r="B203" s="50"/>
+      <c r="C203" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D203" s="51"/>
-      <c r="E203" s="51" t="s">
+      <c r="D203" s="50"/>
+      <c r="E203" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="F203" s="51"/>
-      <c r="G203" s="58" t="s">
+      <c r="F203" s="50"/>
+      <c r="G203" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="H203" s="58"/>
+      <c r="H203" s="52"/>
       <c r="I203" s="17"/>
       <c r="J203" s="17"/>
       <c r="K203" s="17"/>
@@ -11140,24 +11125,24 @@
       <c r="P203" s="17"/>
     </row>
     <row r="204" spans="1:21" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="70">
+      <c r="A204" s="57">
         <v>8001.8</v>
       </c>
-      <c r="B204" s="70"/>
-      <c r="C204" s="70">
+      <c r="B204" s="57"/>
+      <c r="C204" s="57">
         <f>A204-8000</f>
         <v>1.8000000000001819</v>
       </c>
-      <c r="D204" s="70"/>
-      <c r="E204" s="70">
+      <c r="D204" s="57"/>
+      <c r="E204" s="57">
         <f>C204/10000000</f>
         <v>1.8000000000001818E-7</v>
       </c>
-      <c r="F204" s="70"/>
-      <c r="G204" s="51" t="s">
+      <c r="F204" s="57"/>
+      <c r="G204" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="H204" s="51"/>
+      <c r="H204" s="50"/>
       <c r="I204" s="17"/>
       <c r="J204" s="17"/>
       <c r="K204" s="17"/>
@@ -11224,32 +11209,32 @@
       <c r="P207" s="17"/>
     </row>
     <row r="208" spans="1:21" s="22" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="58" t="s">
+      <c r="A208" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B208" s="58"/>
-      <c r="C208" s="58" t="s">
+      <c r="B208" s="52"/>
+      <c r="C208" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="D208" s="58"/>
-      <c r="E208" s="58"/>
-      <c r="F208" s="58"/>
-      <c r="G208" s="58"/>
-      <c r="H208" s="58"/>
-      <c r="I208" s="58"/>
-      <c r="J208" s="58"/>
-      <c r="K208" s="58" t="s">
+      <c r="D208" s="52"/>
+      <c r="E208" s="52"/>
+      <c r="F208" s="52"/>
+      <c r="G208" s="52"/>
+      <c r="H208" s="52"/>
+      <c r="I208" s="52"/>
+      <c r="J208" s="52"/>
+      <c r="K208" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="L208" s="58"/>
+      <c r="L208" s="52"/>
       <c r="M208" s="19"/>
       <c r="N208" s="19"/>
       <c r="O208" s="19"/>
       <c r="P208" s="19"/>
     </row>
     <row r="209" spans="1:16" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="58"/>
-      <c r="B209" s="58"/>
+      <c r="A209" s="52"/>
+      <c r="B209" s="52"/>
       <c r="C209" s="13" t="s">
         <v>25</v>
       </c>
@@ -11274,160 +11259,160 @@
       <c r="J209" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K209" s="58"/>
-      <c r="L209" s="58"/>
+      <c r="K209" s="52"/>
+      <c r="L209" s="52"/>
       <c r="M209" s="19"/>
       <c r="N209" s="19"/>
       <c r="O209" s="19"/>
       <c r="P209" s="19"/>
     </row>
     <row r="210" spans="1:16" s="18" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="51" t="s">
+      <c r="A210" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="B210" s="51"/>
-      <c r="C210" s="45" t="s">
+      <c r="B210" s="50"/>
+      <c r="C210" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="D210" s="45" t="s">
+      <c r="D210" s="44" t="s">
+        <v>896</v>
+      </c>
+      <c r="E210" s="44" t="s">
+        <v>920</v>
+      </c>
+      <c r="F210" s="44" t="s">
         <v>897</v>
       </c>
-      <c r="E210" s="45" t="s">
-        <v>921</v>
-      </c>
-      <c r="F210" s="45" t="s">
+      <c r="G210" s="44" t="s">
         <v>898</v>
       </c>
-      <c r="G210" s="45" t="s">
+      <c r="H210" s="44" t="s">
         <v>899</v>
       </c>
-      <c r="H210" s="45" t="s">
+      <c r="I210" s="44" t="s">
         <v>900</v>
       </c>
-      <c r="I210" s="45" t="s">
+      <c r="J210" s="44" t="s">
         <v>901</v>
       </c>
-      <c r="J210" s="45" t="s">
-        <v>902</v>
-      </c>
-      <c r="K210" s="51" t="s">
+      <c r="K210" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="L210" s="51"/>
+      <c r="L210" s="50"/>
       <c r="M210" s="17"/>
       <c r="N210" s="17"/>
       <c r="O210" s="17"/>
       <c r="P210" s="17"/>
     </row>
     <row r="211" spans="1:16" s="18" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="51" t="s">
+      <c r="A211" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="B211" s="51"/>
-      <c r="C211" s="46" t="s">
+      <c r="B211" s="50"/>
+      <c r="C211" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="D211" s="46" t="s">
+      <c r="D211" s="45" t="s">
+        <v>902</v>
+      </c>
+      <c r="E211" s="45" t="s">
+        <v>921</v>
+      </c>
+      <c r="F211" s="45" t="s">
         <v>903</v>
       </c>
-      <c r="E211" s="46" t="s">
-        <v>922</v>
-      </c>
-      <c r="F211" s="46" t="s">
+      <c r="G211" s="45" t="s">
         <v>904</v>
       </c>
-      <c r="G211" s="46" t="s">
+      <c r="H211" s="45" t="s">
         <v>905</v>
       </c>
-      <c r="H211" s="46" t="s">
+      <c r="I211" s="45" t="s">
         <v>906</v>
       </c>
-      <c r="I211" s="46" t="s">
+      <c r="J211" s="45" t="s">
         <v>907</v>
       </c>
-      <c r="J211" s="46" t="s">
-        <v>908</v>
-      </c>
-      <c r="K211" s="51" t="s">
+      <c r="K211" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="L211" s="51"/>
+      <c r="L211" s="50"/>
       <c r="M211" s="17"/>
       <c r="N211" s="17"/>
       <c r="O211" s="17"/>
       <c r="P211" s="17"/>
     </row>
     <row r="212" spans="1:16" s="18" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="51" t="s">
+      <c r="A212" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="B212" s="51"/>
-      <c r="C212" s="46" t="s">
+      <c r="B212" s="50"/>
+      <c r="C212" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="D212" s="46" t="s">
+      <c r="D212" s="45" t="s">
+        <v>908</v>
+      </c>
+      <c r="E212" s="45" t="s">
+        <v>922</v>
+      </c>
+      <c r="F212" s="45" t="s">
         <v>909</v>
       </c>
-      <c r="E212" s="46" t="s">
-        <v>923</v>
-      </c>
-      <c r="F212" s="46" t="s">
+      <c r="G212" s="45" t="s">
         <v>910</v>
       </c>
-      <c r="G212" s="46" t="s">
+      <c r="H212" s="45" t="s">
         <v>911</v>
       </c>
-      <c r="H212" s="46" t="s">
+      <c r="I212" s="45" t="s">
         <v>912</v>
       </c>
-      <c r="I212" s="46" t="s">
+      <c r="J212" s="45" t="s">
         <v>913</v>
       </c>
-      <c r="J212" s="46" t="s">
-        <v>914</v>
-      </c>
-      <c r="K212" s="51" t="s">
-        <v>925</v>
-      </c>
-      <c r="L212" s="51"/>
+      <c r="K212" s="50" t="s">
+        <v>924</v>
+      </c>
+      <c r="L212" s="50"/>
       <c r="M212" s="17"/>
       <c r="N212" s="17"/>
       <c r="O212" s="17"/>
       <c r="P212" s="17"/>
     </row>
     <row r="213" spans="1:16" s="18" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="51" t="s">
+      <c r="A213" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="B213" s="51"/>
-      <c r="C213" s="46" t="s">
+      <c r="B213" s="50"/>
+      <c r="C213" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="D213" s="46" t="s">
+      <c r="D213" s="45" t="s">
+        <v>914</v>
+      </c>
+      <c r="E213" s="45" t="s">
+        <v>923</v>
+      </c>
+      <c r="F213" s="45" t="s">
         <v>915</v>
       </c>
-      <c r="E213" s="46" t="s">
-        <v>924</v>
-      </c>
-      <c r="F213" s="46" t="s">
+      <c r="G213" s="45" t="s">
         <v>916</v>
       </c>
-      <c r="G213" s="46" t="s">
+      <c r="H213" s="45" t="s">
         <v>917</v>
       </c>
-      <c r="H213" s="46" t="s">
+      <c r="I213" s="45" t="s">
         <v>918</v>
       </c>
-      <c r="I213" s="46" t="s">
+      <c r="J213" s="45" t="s">
         <v>919</v>
       </c>
-      <c r="J213" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="K213" s="51" t="s">
-        <v>926</v>
-      </c>
-      <c r="L213" s="51"/>
+      <c r="K213" s="50" t="s">
+        <v>925</v>
+      </c>
+      <c r="L213" s="50"/>
       <c r="M213" s="17"/>
       <c r="N213" s="17"/>
       <c r="O213" s="17"/>
@@ -11527,17 +11512,17 @@
     </row>
     <row r="219" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="26"/>
-      <c r="B219" s="84" t="s">
+      <c r="B219" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="C219" s="84"/>
+      <c r="C219" s="49"/>
       <c r="D219" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="E219" s="83" t="s">
+      <c r="E219" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="F219" s="83"/>
+      <c r="F219" s="48"/>
       <c r="G219" s="37" t="s">
         <v>138</v>
       </c>
@@ -11588,18 +11573,18 @@
       <c r="P221" s="17"/>
     </row>
     <row r="222" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="82" t="s">
+      <c r="A222" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="B222" s="82"/>
-      <c r="C222" s="82"/>
+      <c r="B222" s="47"/>
+      <c r="C222" s="47"/>
       <c r="D222" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="E222" s="81" t="s">
+      <c r="E222" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="F222" s="81"/>
+      <c r="F222" s="46"/>
       <c r="G222" s="26" t="s">
         <v>138</v>
       </c>
@@ -11632,15 +11617,15 @@
       <c r="P223" s="17"/>
     </row>
     <row r="224" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="82" t="s">
+      <c r="A224" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="B224" s="82"/>
-      <c r="C224" s="82"/>
-      <c r="D224" s="83" t="s">
+      <c r="B224" s="47"/>
+      <c r="C224" s="47"/>
+      <c r="D224" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="E224" s="83"/>
+      <c r="E224" s="48"/>
       <c r="F224" s="17"/>
       <c r="G224" s="17"/>
       <c r="H224" s="17"/>
@@ -11997,6 +11982,413 @@
     </row>
   </sheetData>
   <mergeCells count="431">
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="M123:N124"/>
+    <mergeCell ref="N126:N127"/>
+    <mergeCell ref="E149:L149"/>
+    <mergeCell ref="M149:N150"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="I150:J150"/>
+    <mergeCell ref="K150:L150"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="N141:N142"/>
+    <mergeCell ref="N143:N144"/>
+    <mergeCell ref="C123:D124"/>
+    <mergeCell ref="A208:B209"/>
+    <mergeCell ref="C208:J208"/>
+    <mergeCell ref="K208:L209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="K177:L188"/>
+    <mergeCell ref="K192:L193"/>
+    <mergeCell ref="K194:L200"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="M141:M142"/>
+    <mergeCell ref="M143:M144"/>
+    <mergeCell ref="M154:M155"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A138:B139"/>
+    <mergeCell ref="C138:D139"/>
+    <mergeCell ref="E138:L138"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="M126:M127"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="N154:N155"/>
+    <mergeCell ref="M145:M146"/>
+    <mergeCell ref="N145:N146"/>
+    <mergeCell ref="M147:M148"/>
+    <mergeCell ref="N147:N148"/>
+    <mergeCell ref="M152:M153"/>
+    <mergeCell ref="N152:N153"/>
+    <mergeCell ref="N128:N129"/>
+    <mergeCell ref="N130:N131"/>
+    <mergeCell ref="N132:N133"/>
+    <mergeCell ref="N134:N135"/>
+    <mergeCell ref="N136:N137"/>
+    <mergeCell ref="M136:M137"/>
+    <mergeCell ref="M128:M129"/>
+    <mergeCell ref="M130:M131"/>
+    <mergeCell ref="M132:M133"/>
+    <mergeCell ref="M134:M135"/>
+    <mergeCell ref="M138:N139"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="A159:B160"/>
+    <mergeCell ref="A192:B193"/>
+    <mergeCell ref="C192:J192"/>
+    <mergeCell ref="C159:J159"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="A174:B175"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A123:B124"/>
+    <mergeCell ref="C149:D150"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="K162:L173"/>
+    <mergeCell ref="C174:J174"/>
+    <mergeCell ref="K174:L176"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="K159:L161"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="A149:B150"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="I175:J175"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K38:L39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A40:B43"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A36:B39"/>
+    <mergeCell ref="A44:B47"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="A48:B51"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="K48:L49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="A60:B63"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L61"/>
+    <mergeCell ref="E62:F63"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A52:B55"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K54:L55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K56:L57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="C67:D69"/>
+    <mergeCell ref="E67:L67"/>
+    <mergeCell ref="M67:N69"/>
+    <mergeCell ref="A67:B68"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="K58:L59"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="A56:B59"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="M70:N71"/>
+    <mergeCell ref="M72:N73"/>
+    <mergeCell ref="M74:N75"/>
+    <mergeCell ref="M76:N77"/>
+    <mergeCell ref="M78:N79"/>
+    <mergeCell ref="M80:N81"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A94:B95"/>
+    <mergeCell ref="C94:D96"/>
+    <mergeCell ref="E94:L94"/>
+    <mergeCell ref="M94:N96"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="M82:N83"/>
+    <mergeCell ref="M84:N85"/>
+    <mergeCell ref="M86:N87"/>
+    <mergeCell ref="M88:N89"/>
+    <mergeCell ref="M90:N91"/>
+    <mergeCell ref="M92:N93"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="M97:N98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="M99:N100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="M101:N102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="M103:N104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="M105:N106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="M107:N108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="M109:N110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="M111:N112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="M117:N118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="M119:N120"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="M113:N114"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="M115:N116"/>
+    <mergeCell ref="C116:D116"/>
     <mergeCell ref="E222:F222"/>
     <mergeCell ref="A224:C224"/>
     <mergeCell ref="D224:E224"/>
@@ -12021,413 +12413,6 @@
     <mergeCell ref="B128:B129"/>
     <mergeCell ref="A126:A127"/>
     <mergeCell ref="B126:B127"/>
-    <mergeCell ref="M117:N118"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="M119:N120"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="M113:N114"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="M115:N116"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="M109:N110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="M111:N112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="M105:N106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="M107:N108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="M101:N102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="M103:N104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="M97:N98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="M99:N100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A94:B95"/>
-    <mergeCell ref="C94:D96"/>
-    <mergeCell ref="E94:L94"/>
-    <mergeCell ref="M94:N96"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="M82:N83"/>
-    <mergeCell ref="M84:N85"/>
-    <mergeCell ref="M86:N87"/>
-    <mergeCell ref="M88:N89"/>
-    <mergeCell ref="M90:N91"/>
-    <mergeCell ref="M92:N93"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="M70:N71"/>
-    <mergeCell ref="M72:N73"/>
-    <mergeCell ref="M74:N75"/>
-    <mergeCell ref="M76:N77"/>
-    <mergeCell ref="M78:N79"/>
-    <mergeCell ref="M80:N81"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C67:D69"/>
-    <mergeCell ref="E67:L67"/>
-    <mergeCell ref="M67:N69"/>
-    <mergeCell ref="A67:B68"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="K58:L59"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="A56:B59"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K54:L55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K56:L57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F51"/>
-    <mergeCell ref="A60:B63"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L61"/>
-    <mergeCell ref="E62:F63"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A52:B55"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="A44:B47"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="A48:B51"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K44:L45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="K48:L49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="K38:L39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="A40:B43"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A36:B39"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="K31:L32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A123:B124"/>
-    <mergeCell ref="C149:D150"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="K162:L173"/>
-    <mergeCell ref="C174:J174"/>
-    <mergeCell ref="K174:L176"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="K159:L161"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="A149:B150"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="I175:J175"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="I160:J160"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="A174:B175"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="A159:B160"/>
-    <mergeCell ref="A192:B193"/>
-    <mergeCell ref="C192:J192"/>
-    <mergeCell ref="C159:J159"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="N154:N155"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="N145:N146"/>
-    <mergeCell ref="M147:M148"/>
-    <mergeCell ref="N147:N148"/>
-    <mergeCell ref="M152:M153"/>
-    <mergeCell ref="N152:N153"/>
-    <mergeCell ref="N128:N129"/>
-    <mergeCell ref="N130:N131"/>
-    <mergeCell ref="N132:N133"/>
-    <mergeCell ref="N134:N135"/>
-    <mergeCell ref="N136:N137"/>
-    <mergeCell ref="M136:M137"/>
-    <mergeCell ref="M128:M129"/>
-    <mergeCell ref="M130:M131"/>
-    <mergeCell ref="M132:M133"/>
-    <mergeCell ref="M134:M135"/>
-    <mergeCell ref="M138:N139"/>
-    <mergeCell ref="A138:B139"/>
-    <mergeCell ref="C138:D139"/>
-    <mergeCell ref="E138:L138"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="K139:L139"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="M126:M127"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="C123:D124"/>
-    <mergeCell ref="A208:B209"/>
-    <mergeCell ref="C208:J208"/>
-    <mergeCell ref="K208:L209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="K177:L188"/>
-    <mergeCell ref="K192:L193"/>
-    <mergeCell ref="K194:L200"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="M141:M142"/>
-    <mergeCell ref="M143:M144"/>
-    <mergeCell ref="M154:M155"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="M123:N124"/>
-    <mergeCell ref="N126:N127"/>
-    <mergeCell ref="E149:L149"/>
-    <mergeCell ref="M149:N150"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="I150:J150"/>
-    <mergeCell ref="K150:L150"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="N141:N142"/>
-    <mergeCell ref="N143:N144"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.59055118110236227" bottom="0.70866141732283472" header="0.51181102362204722" footer="0.51181102362204722"/>
